--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FCF522-F051-C946-AE46-AA44F7F9F90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A960F0C3-5573-F348-B059-70AADF324B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="500" windowWidth="10000" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="39">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -122,7 +121,37 @@
     <t>Sofiane Belle</t>
   </si>
   <si>
-    <t>Nouredine Messalti</t>
+    <t>Amir Kherrab</t>
+  </si>
+  <si>
+    <t>Naim Dhib</t>
+  </si>
+  <si>
+    <t>Wael Fareh</t>
+  </si>
+  <si>
+    <t>Yoan Zouma</t>
+  </si>
+  <si>
+    <t>Ilyes Bougahnmi</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Réathlé</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Omar Benyounes</t>
+  </si>
+  <si>
+    <t>Yoann Martelat</t>
   </si>
 </sst>
 </file>
@@ -158,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -169,11 +198,85 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -503,11 +606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C22" sqref="C22"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,7 +618,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,144 +641,2070 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3">
-        <v>45845</v>
+      <c r="J1" s="3">
+        <v>45854</v>
+      </c>
+      <c r="K1" s="3">
+        <v>45855</v>
+      </c>
+      <c r="L1" s="3">
+        <v>45856</v>
+      </c>
+      <c r="M1" s="5">
+        <v>45857</v>
+      </c>
+      <c r="N1" s="5">
+        <v>45859</v>
+      </c>
+      <c r="O1" s="5">
+        <v>45860</v>
+      </c>
+      <c r="P1" s="5">
+        <v>45861</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>45862</v>
+      </c>
+      <c r="R1" s="5">
+        <v>45863</v>
+      </c>
+      <c r="S1" s="5">
+        <v>45866</v>
+      </c>
+      <c r="T1" s="5">
+        <v>45867</v>
+      </c>
+      <c r="U1" s="5">
+        <v>45868</v>
+      </c>
+      <c r="V1" s="5">
+        <v>45869</v>
+      </c>
+      <c r="W1" s="5">
+        <v>45870</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <f>COUNTA(I2:VO2)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f>COUNTIF(I2:VO2,"P")</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="4">
+        <f>COUNTA(J2:VP2)</f>
+        <v>14</v>
+      </c>
+      <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"A")</f>
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="4">
         <f>COUNTIF(K2:VQ2,"B")</f>
         <v>0</v>
       </c>
-      <c r="F2">
-        <f>COUNTIF(L2:VR2,"M")</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>COUNTIF(M2:VS2,"R")</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>COUNTIF(N2:VT2,"S")</f>
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="E2" s="4">
+        <f>COUNTIF(L2:VR2,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <f>COUNTIF(M2:VS2,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <f>COUNTIF(N2:VT2,"R")</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <f>COUNTIF(O2:VU2,"RH")</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <f>COUNTIF(O2:VU2,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:B21" si="0">COUNTA(J3:VP3)</f>
+        <v>14</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C21" si="1">COUNTIF(J3:VP3,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D21" si="2">COUNTIF(K3:VQ3,"A")</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E21" si="3">COUNTIF(L3:VR3,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F21" si="4">COUNTIF(M3:VS3,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G21" si="5">COUNTIF(N3:VT3,"R")</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H26" si="6">COUNTIF(O3:VU3,"RH")</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I21" si="7">COUNTIF(O3:VU3,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B4" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
+        <v>14</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
+        <v>14</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" ref="D22:D26" si="10">COUNTIF(K22:VQ22,"A")</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" ref="E22:E26" si="11">COUNTIF(L22:VR22,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" ref="F22:F26" si="12">COUNTIF(M22:VS22,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" ref="G22:G26" si="13">COUNTIF(N22:VT22,"R")</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" ref="I22:I26" si="14">COUNTIF(O22:VU22,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A21:A27">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"RENFO/TEK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"NN"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A960F0C3-5573-F348-B059-70AADF324B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7492BED3-23EC-FB45-87E0-98A37B9A4934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -609,8 +610,8 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y25" sqref="Y25"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -698,8 +699,8 @@
         <v>14</v>
       </c>
       <c r="C2" s="4">
-        <f>COUNTIF(J2:VP2,"A")</f>
-        <v>0</v>
+        <f>COUNTIF(J2:VP2,"P")</f>
+        <v>14</v>
       </c>
       <c r="D2" s="4">
         <f>COUNTIF(K2:VQ2,"B")</f>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7492BED3-23EC-FB45-87E0-98A37B9A4934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047EF224-5885-E64D-BD5F-DB82183C84D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="40">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Yoann Martelat</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -607,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G30" sqref="G30"/>
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,7 +622,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,18 +692,21 @@
       <c r="W1" s="5">
         <v>45870</v>
       </c>
+      <c r="X1" s="5">
+        <v>45874</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(J2:VP2)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"P")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4">
         <f>COUNTIF(K2:VQ2,"B")</f>
@@ -768,18 +774,21 @@
       <c r="W2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="0">COUNTA(J3:VP3)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="1">COUNTIF(J3:VP3,"P")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D21" si="2">COUNTIF(K3:VQ3,"A")</f>
@@ -847,18 +856,21 @@
       <c r="W3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="2"/>
@@ -926,18 +938,21 @@
       <c r="W4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="2"/>
@@ -1005,18 +1020,21 @@
       <c r="W5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="2"/>
@@ -1084,14 +1102,17 @@
       <c r="W6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="1"/>
@@ -1115,7 +1136,7 @@
       </c>
       <c r="H7" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="7"/>
@@ -1163,18 +1184,21 @@
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="X7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="2"/>
@@ -1242,18 +1266,21 @@
       <c r="W8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="2"/>
@@ -1321,18 +1348,21 @@
       <c r="W9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="2"/>
@@ -1400,18 +1430,21 @@
       <c r="W10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="2"/>
@@ -1479,18 +1512,21 @@
       <c r="W11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="2"/>
@@ -1558,18 +1594,21 @@
       <c r="W12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="2"/>
@@ -1637,18 +1676,21 @@
       <c r="W13" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X13" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="2"/>
@@ -1716,18 +1758,21 @@
       <c r="W14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="2"/>
@@ -1795,18 +1840,21 @@
       <c r="W15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="2"/>
@@ -1874,14 +1922,17 @@
       <c r="W16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="1"/>
@@ -1889,7 +1940,7 @@
       </c>
       <c r="D17" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="3"/>
@@ -1953,18 +2004,21 @@
       <c r="W17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X17" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="2"/>
@@ -2032,18 +2086,21 @@
       <c r="W18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="2"/>
@@ -2111,18 +2168,21 @@
       <c r="W19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="2"/>
@@ -2190,18 +2250,21 @@
       <c r="W20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="2"/>
@@ -2269,18 +2332,21 @@
       <c r="W21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ref="D22:D26" si="10">COUNTIF(K22:VQ22,"A")</f>
@@ -2348,18 +2414,21 @@
       <c r="W22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="10"/>
@@ -2427,18 +2496,21 @@
       <c r="W23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="X23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="10"/>
@@ -2506,14 +2578,17 @@
       <c r="W24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="9"/>
@@ -2529,7 +2604,7 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="13"/>
@@ -2585,18 +2660,21 @@
       <c r="W25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X25" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="10"/>
@@ -2664,8 +2742,11 @@
       <c r="W26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="X26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -2679,6 +2760,9 @@
         <v>35</v>
       </c>
       <c r="W27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X27" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047EF224-5885-E64D-BD5F-DB82183C84D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95253FA2-5923-EF41-9DF5-E9F0C8FA2A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -613,8 +613,8 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE13" sqref="AE13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,27 +709,27 @@
         <v>15</v>
       </c>
       <c r="D2" s="4">
-        <f>COUNTIF(K2:VQ2,"B")</f>
+        <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <f>COUNTIF(L2:VR2,"B")</f>
+        <f t="shared" ref="E2:E26" si="1">COUNTIF(J2:VR2,"B")</f>
         <v>0</v>
       </c>
       <c r="F2" s="4">
-        <f>COUNTIF(M2:VS2,"M")</f>
+        <f>COUNTIF(J2:VS2,"M")</f>
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <f>COUNTIF(N2:VT2,"R")</f>
+        <f>COUNTIF(J2:VT2,"R")</f>
         <v>0</v>
       </c>
       <c r="H2" s="4">
-        <f>COUNTIF(O2:VU2,"RH")</f>
+        <f>COUNTIF(J2:VU2,"RH")</f>
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <f>COUNTIF(O2:VU2,"S")</f>
+        <f>COUNTIF(J2:VU2,"S")</f>
         <v>0</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -783,35 +783,35 @@
         <v>10</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:B21" si="0">COUNTA(J3:VP3)</f>
+        <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
         <v>15</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C21" si="1">COUNTIF(J3:VP3,"P")</f>
+        <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
         <v>15</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D21" si="2">COUNTIF(K3:VQ3,"A")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E21" si="3">COUNTIF(L3:VR3,"B")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F21" si="4">COUNTIF(M3:VS3,"M")</f>
+        <f t="shared" ref="F3:F26" si="4">COUNTIF(J3:VS3,"M")</f>
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G21" si="5">COUNTIF(N3:VT3,"R")</f>
+        <f t="shared" ref="G3:G26" si="5">COUNTIF(J3:VT3,"R")</f>
         <v>0</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H26" si="6">COUNTIF(O3:VU3,"RH")</f>
+        <f t="shared" ref="H3:H26" si="6">COUNTIF(J3:VU3,"RH")</f>
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" ref="I3:I21" si="7">COUNTIF(O3:VU3,"S")</f>
+        <f t="shared" ref="I3:I26" si="7">COUNTIF(J3:VU3,"S")</f>
         <v>0</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -865,19 +865,19 @@
         <v>11</v>
       </c>
       <c r="B4" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F4" s="4">
@@ -947,19 +947,19 @@
         <v>12</v>
       </c>
       <c r="B5" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F5" s="4">
@@ -1029,19 +1029,19 @@
         <v>13</v>
       </c>
       <c r="B6" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(J6:VR6,"B")</f>
         <v>0</v>
       </c>
       <c r="F6" s="4">
@@ -1111,19 +1111,19 @@
         <v>14</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C7" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <f>COUNTIF(J7:VQ7,"A")</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F7" s="4">
@@ -1193,19 +1193,19 @@
         <v>15</v>
       </c>
       <c r="B8" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F8" s="4">
@@ -1275,19 +1275,19 @@
         <v>16</v>
       </c>
       <c r="B9" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9" s="4">
@@ -1357,19 +1357,19 @@
         <v>17</v>
       </c>
       <c r="B10" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F10" s="4">
@@ -1439,19 +1439,19 @@
         <v>18</v>
       </c>
       <c r="B11" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F11" s="4">
@@ -1521,19 +1521,19 @@
         <v>19</v>
       </c>
       <c r="B12" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12" s="4">
@@ -1603,19 +1603,19 @@
         <v>20</v>
       </c>
       <c r="B13" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13" s="4">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="7"/>
@@ -1685,19 +1685,19 @@
         <v>21</v>
       </c>
       <c r="B14" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F14" s="4">
@@ -1767,19 +1767,19 @@
         <v>22</v>
       </c>
       <c r="B15" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F15" s="4">
@@ -1849,19 +1849,19 @@
         <v>23</v>
       </c>
       <c r="B16" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F16" s="4">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="7"/>
@@ -1931,19 +1931,19 @@
         <v>24</v>
       </c>
       <c r="B17" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F17" s="4">
@@ -2013,19 +2013,19 @@
         <v>25</v>
       </c>
       <c r="B18" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F18" s="4">
@@ -2095,19 +2095,19 @@
         <v>26</v>
       </c>
       <c r="B19" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D19" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F19" s="4">
@@ -2177,19 +2177,19 @@
         <v>27</v>
       </c>
       <c r="B20" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F20" s="4">
@@ -2259,19 +2259,19 @@
         <v>28</v>
       </c>
       <c r="B21" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D21" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F21" s="4">
@@ -2349,19 +2349,19 @@
         <v>15</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" ref="D22:D26" si="10">COUNTIF(K22:VQ22,"A")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" ref="E22:E26" si="11">COUNTIF(L22:VR22,"B")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" ref="F22:F26" si="12">COUNTIF(M22:VS22,"M")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" ref="G22:G26" si="13">COUNTIF(N22:VT22,"R")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H22" s="4">
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" ref="I22:I26" si="14">COUNTIF(O22:VU22,"S")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -2431,27 +2431,27 @@
         <v>8</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J23" s="4" t="s">
@@ -2513,19 +2513,19 @@
         <v>15</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H24" s="4">
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -2595,19 +2595,19 @@
         <v>14</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H25" s="4">
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J25" s="4" t="s">
@@ -2677,19 +2677,19 @@
         <v>15</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H26" s="4">
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J26" s="4" t="s">

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95253FA2-5923-EF41-9DF5-E9F0C8FA2A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C5946F-75A1-C143-9266-0662551E1E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="40">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -610,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I30" sqref="I30"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,7 +622,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,18 +695,21 @@
       <c r="X1" s="5">
         <v>45874</v>
       </c>
+      <c r="Y1" s="5">
+        <v>45876</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(J2:VP2)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"P")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
@@ -777,18 +780,21 @@
       <c r="X2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
@@ -859,18 +865,21 @@
       <c r="X3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -941,18 +950,21 @@
       <c r="X4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -1023,18 +1035,21 @@
       <c r="X5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
@@ -1105,14 +1120,17 @@
       <c r="X6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
@@ -1136,7 +1154,7 @@
       </c>
       <c r="H7" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="7"/>
@@ -1187,18 +1205,21 @@
       <c r="X7" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="Y7" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -1269,18 +1290,21 @@
       <c r="X8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -1351,18 +1375,21 @@
       <c r="X9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
@@ -1433,18 +1460,21 @@
       <c r="X10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
@@ -1515,18 +1545,21 @@
       <c r="X11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
@@ -1597,14 +1630,17 @@
       <c r="X12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -1628,7 +1664,7 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="7"/>
@@ -1679,18 +1715,21 @@
       <c r="X13" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -1761,18 +1800,21 @@
       <c r="X14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
@@ -1843,14 +1885,17 @@
       <c r="X15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
@@ -1874,7 +1919,7 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="7"/>
@@ -1925,18 +1970,21 @@
       <c r="X16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
@@ -2007,18 +2055,21 @@
       <c r="X17" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="Y17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
@@ -2089,14 +2140,17 @@
       <c r="X18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
@@ -2120,7 +2174,7 @@
       </c>
       <c r="H19" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="7"/>
@@ -2171,18 +2225,21 @@
       <c r="X19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
@@ -2253,18 +2310,21 @@
       <c r="X20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
@@ -2335,18 +2395,21 @@
       <c r="X21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
@@ -2417,18 +2480,21 @@
       <c r="X22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
@@ -2499,18 +2565,21 @@
       <c r="X23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
@@ -2581,14 +2650,17 @@
       <c r="X24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="9"/>
@@ -2604,7 +2676,7 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="5"/>
@@ -2663,18 +2735,21 @@
       <c r="X25" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="Y25" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -2745,8 +2820,11 @@
       <c r="X26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -2763,6 +2841,9 @@
         <v>35</v>
       </c>
       <c r="X27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y27" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C5946F-75A1-C143-9266-0662551E1E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90B8343-BD82-0B42-96B0-032B2F64642B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>Yoan Zouma</t>
   </si>
   <si>
-    <t>Ilyes Bougahnmi</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Ilyes Boughanmi</t>
   </si>
 </sst>
 </file>
@@ -614,7 +614,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y24" sqref="Y24"/>
+      <selection pane="topRight" activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
@@ -1012,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>7</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>7</v>
@@ -1179,34 +1179,34 @@
         <v>7</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -1671,31 +1671,31 @@
         <v>0</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>7</v>
@@ -1716,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -1926,31 +1926,31 @@
         <v>0</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S16" s="4" t="s">
         <v>7</v>
@@ -1971,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
@@ -2053,7 +2053,7 @@
         <v>7</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y17" s="4" t="s">
         <v>7</v>
@@ -2226,7 +2226,7 @@
         <v>7</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
@@ -2351,16 +2351,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>7</v>
@@ -2369,10 +2369,10 @@
         <v>7</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>7</v>
@@ -2527,19 +2527,19 @@
         <v>7</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="4" t="s">
         <v>7</v>
@@ -2557,10 +2557,10 @@
         <v>7</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X23" s="4" t="s">
         <v>7</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
@@ -2733,15 +2733,15 @@
         <v>7</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
@@ -2826,25 +2826,25 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90B8343-BD82-0B42-96B0-032B2F64642B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BDECE4-6915-1F43-84C4-1F8025DD0743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="40">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -610,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB27" sqref="AB27"/>
+      <selection pane="topRight" activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,7 +622,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,18 +698,21 @@
       <c r="Y1" s="5">
         <v>45876</v>
       </c>
+      <c r="Z1" s="5">
+        <v>45877</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(J2:VP2)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"P")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
@@ -783,18 +786,21 @@
       <c r="Y2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
@@ -868,18 +874,21 @@
       <c r="Y3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -953,18 +962,21 @@
       <c r="Y4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -1038,18 +1050,21 @@
       <c r="Y5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
@@ -1123,18 +1138,21 @@
       <c r="Y6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4">
         <f>COUNTIF(J7:VQ7,"A")</f>
@@ -1208,18 +1226,21 @@
       <c r="Y7" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="Z7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -1293,18 +1314,21 @@
       <c r="Y8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -1378,18 +1402,21 @@
       <c r="Y9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
@@ -1463,18 +1490,21 @@
       <c r="Y10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
@@ -1548,18 +1578,21 @@
       <c r="Y11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
@@ -1633,18 +1666,21 @@
       <c r="Y12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
@@ -1718,18 +1754,21 @@
       <c r="Y13" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="Z13" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -1803,18 +1842,21 @@
       <c r="Y14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
@@ -1888,18 +1930,21 @@
       <c r="Y15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
@@ -1973,18 +2018,21 @@
       <c r="Y16" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="Z16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
@@ -2058,18 +2106,21 @@
       <c r="Y17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
@@ -2143,18 +2194,21 @@
       <c r="Y18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
@@ -2228,18 +2282,21 @@
       <c r="Y19" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="Z19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
@@ -2313,18 +2370,21 @@
       <c r="Y20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
@@ -2398,18 +2458,21 @@
       <c r="Y21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
@@ -2483,18 +2546,21 @@
       <c r="Y22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
@@ -2568,18 +2634,21 @@
       <c r="Y23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
@@ -2653,14 +2722,17 @@
       <c r="Y24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="9"/>
@@ -2676,7 +2748,7 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="5"/>
@@ -2738,18 +2810,21 @@
       <c r="Y25" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="Z25" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -2823,8 +2898,11 @@
       <c r="Y26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Z26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -2844,6 +2922,9 @@
         <v>34</v>
       </c>
       <c r="Y27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z27" s="4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BDECE4-6915-1F43-84C4-1F8025DD0743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C886B3-4AB8-EF4D-A584-6F2083EA306E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="40">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -610,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB25" sqref="AB25"/>
+      <selection pane="topRight" activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,7 +622,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,18 +701,24 @@
       <c r="Z1" s="5">
         <v>45877</v>
       </c>
+      <c r="AA1" s="5">
+        <v>45880</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>45882</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(J2:VP2)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"P")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
@@ -789,18 +795,24 @@
       <c r="Z2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
@@ -877,18 +889,24 @@
       <c r="Z3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -965,18 +983,24 @@
       <c r="Z4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -1053,18 +1077,24 @@
       <c r="Z5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
@@ -1141,18 +1171,24 @@
       <c r="Z6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4">
         <f>COUNTIF(J7:VQ7,"A")</f>
@@ -1229,18 +1265,24 @@
       <c r="Z7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -1317,18 +1359,24 @@
       <c r="Z8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -1405,18 +1453,24 @@
       <c r="Z9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
@@ -1493,18 +1547,24 @@
       <c r="Z10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
@@ -1581,18 +1641,24 @@
       <c r="Z11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
@@ -1669,18 +1735,24 @@
       <c r="Z12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
@@ -1757,18 +1829,24 @@
       <c r="Z13" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -1845,18 +1923,24 @@
       <c r="Z14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
@@ -1933,18 +2017,24 @@
       <c r="Z15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
@@ -2021,14 +2111,20 @@
       <c r="Z16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -2052,7 +2148,7 @@
       </c>
       <c r="H17" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="7"/>
@@ -2109,18 +2205,24 @@
       <c r="Z17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
@@ -2197,18 +2299,24 @@
       <c r="Z18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
@@ -2285,18 +2393,24 @@
       <c r="Z19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
@@ -2373,18 +2487,24 @@
       <c r="Z20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
@@ -2461,18 +2581,24 @@
       <c r="Z21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
@@ -2549,18 +2675,24 @@
       <c r="Z22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
@@ -2637,18 +2769,24 @@
       <c r="Z23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
@@ -2725,18 +2863,24 @@
       <c r="Z24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
@@ -2813,18 +2957,24 @@
       <c r="Z25" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="AA25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -2901,8 +3051,14 @@
       <c r="Z26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AA26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -2925,6 +3081,12 @@
         <v>34</v>
       </c>
       <c r="Z27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB27" s="4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C886B3-4AB8-EF4D-A584-6F2083EA306E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26240698-C719-554F-ABC2-C7047BD22692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="40">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -610,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC23" sqref="AC23"/>
+      <selection pane="topRight" activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,7 +622,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,18 +707,21 @@
       <c r="AB1" s="5">
         <v>45882</v>
       </c>
+      <c r="AC1" s="5">
+        <v>45883</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(J2:VP2)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"P")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
@@ -801,18 +804,21 @@
       <c r="AB2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
@@ -895,18 +901,21 @@
       <c r="AB3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -989,18 +998,21 @@
       <c r="AB4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -1083,18 +1095,21 @@
       <c r="AB5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
@@ -1177,18 +1192,21 @@
       <c r="AB6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4">
         <f>COUNTIF(J7:VQ7,"A")</f>
@@ -1271,18 +1289,21 @@
       <c r="AB7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -1365,18 +1386,21 @@
       <c r="AB8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -1459,18 +1483,21 @@
       <c r="AB9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
@@ -1553,18 +1580,21 @@
       <c r="AB10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
@@ -1647,18 +1677,21 @@
       <c r="AB11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
@@ -1741,18 +1774,21 @@
       <c r="AB12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
@@ -1835,18 +1871,21 @@
       <c r="AB13" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC13" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -1929,18 +1968,21 @@
       <c r="AB14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
@@ -2023,18 +2065,21 @@
       <c r="AB15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
@@ -2117,18 +2162,21 @@
       <c r="AB16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
@@ -2211,18 +2259,21 @@
       <c r="AB17" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AC17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
@@ -2305,18 +2356,21 @@
       <c r="AB18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
@@ -2324,7 +2378,7 @@
       </c>
       <c r="E19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="4"/>
@@ -2397,20 +2451,23 @@
         <v>7</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
@@ -2493,18 +2550,21 @@
       <c r="AB20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
@@ -2587,18 +2647,21 @@
       <c r="AB21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
@@ -2681,18 +2744,21 @@
       <c r="AB22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
@@ -2775,14 +2841,17 @@
       <c r="AB23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="9"/>
@@ -2806,7 +2875,7 @@
       </c>
       <c r="H24" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="7"/>
@@ -2869,18 +2938,21 @@
       <c r="AB24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC24" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
@@ -2963,18 +3035,21 @@
       <c r="AB25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -3057,8 +3132,11 @@
       <c r="AB26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AC26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -3088,6 +3166,15 @@
       </c>
       <c r="AB27" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="AC27" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC28">
+        <f>COUNTIF(AC2:AC27,"P")</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26240698-C719-554F-ABC2-C7047BD22692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453EC72E-567C-6E4B-8E4A-1BD0E21F9C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="40">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -610,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AC28"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF17" sqref="AF17"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF25" sqref="AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,7 +622,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,18 +710,21 @@
       <c r="AC1" s="5">
         <v>45883</v>
       </c>
+      <c r="AD1" s="3">
+        <v>45888</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(J2:VP2)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"P")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
@@ -807,14 +810,17 @@
       <c r="AC2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
@@ -826,7 +832,7 @@
       </c>
       <c r="E3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F26" si="4">COUNTIF(J3:VS3,"M")</f>
@@ -904,18 +910,21 @@
       <c r="AC3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -1001,18 +1010,21 @@
       <c r="AC4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -1098,14 +1110,17 @@
       <c r="AC5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1113,7 +1128,7 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
         <f>COUNTIF(J6:VR6,"B")</f>
@@ -1195,18 +1210,21 @@
       <c r="AC6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD6" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4">
         <f>COUNTIF(J7:VQ7,"A")</f>
@@ -1292,18 +1310,21 @@
       <c r="AC7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -1389,18 +1410,21 @@
       <c r="AC8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -1486,18 +1510,21 @@
       <c r="AC9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
@@ -1583,18 +1610,21 @@
       <c r="AC10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
@@ -1680,18 +1710,21 @@
       <c r="AC11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
@@ -1777,14 +1810,17 @@
       <c r="AC12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -1792,7 +1828,7 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
@@ -1874,18 +1910,21 @@
       <c r="AC13" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD13" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -1971,18 +2010,21 @@
       <c r="AC14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
@@ -2068,18 +2110,21 @@
       <c r="AC15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
@@ -2165,14 +2210,17 @@
       <c r="AC16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -2184,7 +2232,7 @@
       </c>
       <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="4"/>
@@ -2262,18 +2310,21 @@
       <c r="AC17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
@@ -2359,14 +2410,17 @@
       <c r="AC18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
@@ -2390,7 +2444,7 @@
       </c>
       <c r="H19" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="7"/>
@@ -2456,18 +2510,21 @@
       <c r="AC19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AD19" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
@@ -2553,18 +2610,21 @@
       <c r="AC20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
@@ -2650,18 +2710,21 @@
       <c r="AC21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
@@ -2747,18 +2810,21 @@
       <c r="AC22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
@@ -2844,18 +2910,21 @@
       <c r="AC23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
@@ -2941,18 +3010,21 @@
       <c r="AC24" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AD24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
@@ -3038,18 +3110,21 @@
       <c r="AC25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -3135,8 +3210,11 @@
       <c r="AC26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AD26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -3170,11 +3248,8 @@
       <c r="AC27" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="AC28">
-        <f>COUNTIF(AC2:AC27,"P")</f>
-        <v>23</v>
+      <c r="AD27" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453EC72E-567C-6E4B-8E4A-1BD0E21F9C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEECC1F-8DE6-DD49-A708-F85FDF1BAF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="40">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -610,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AE27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF25" sqref="AF25"/>
+      <selection pane="topRight" activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,7 +622,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,18 +713,21 @@
       <c r="AD1" s="3">
         <v>45888</v>
       </c>
+      <c r="AE1" s="3">
+        <v>45889</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(J2:VP2)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"P")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
@@ -813,14 +816,17 @@
       <c r="AD2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
@@ -836,7 +842,7 @@
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F26" si="4">COUNTIF(J3:VS3,"M")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G26" si="5">COUNTIF(J3:VT3,"R")</f>
@@ -913,18 +919,21 @@
       <c r="AD3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AE3" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -1013,18 +1022,21 @@
       <c r="AD4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -1113,18 +1125,21 @@
       <c r="AD5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
@@ -1213,18 +1228,21 @@
       <c r="AD6" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="AE6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4">
         <f>COUNTIF(J7:VQ7,"A")</f>
@@ -1313,18 +1331,21 @@
       <c r="AD7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -1413,18 +1434,21 @@
       <c r="AD8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -1513,18 +1537,21 @@
       <c r="AD9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
@@ -1613,18 +1640,21 @@
       <c r="AD10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
@@ -1713,18 +1743,21 @@
       <c r="AD11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
@@ -1813,14 +1846,17 @@
       <c r="AD12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -1828,7 +1864,7 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
@@ -1913,18 +1949,21 @@
       <c r="AD13" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="AE13" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -2013,18 +2052,21 @@
       <c r="AD14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
@@ -2113,18 +2155,21 @@
       <c r="AD15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
@@ -2213,14 +2258,17 @@
       <c r="AD16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -2232,7 +2280,7 @@
       </c>
       <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="4"/>
@@ -2313,18 +2361,21 @@
       <c r="AD17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AE17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
@@ -2413,14 +2464,17 @@
       <c r="AD18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
@@ -2432,7 +2486,7 @@
       </c>
       <c r="E19" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="4"/>
@@ -2444,7 +2498,7 @@
       </c>
       <c r="H19" s="4">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="7"/>
@@ -2511,20 +2565,23 @@
         <v>35</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
@@ -2613,18 +2670,21 @@
       <c r="AD20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
@@ -2713,18 +2773,21 @@
       <c r="AD21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
@@ -2813,18 +2876,21 @@
       <c r="AD22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
@@ -2913,18 +2979,21 @@
       <c r="AD23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
@@ -3013,18 +3082,21 @@
       <c r="AD24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
@@ -3113,18 +3185,21 @@
       <c r="AD25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -3213,8 +3288,11 @@
       <c r="AD26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AE26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -3249,6 +3327,9 @@
         <v>34</v>
       </c>
       <c r="AD27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE27" s="4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEECC1F-8DE6-DD49-A708-F85FDF1BAF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB32A186-A0A3-F84D-B585-8E5CF139BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="40">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -610,11 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AE27"/>
+  <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG23" sqref="AG23"/>
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH24" sqref="AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,7 +622,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,18 +716,21 @@
       <c r="AE1" s="3">
         <v>45889</v>
       </c>
+      <c r="AF1" s="3">
+        <v>45890</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(J2:VP2)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"P")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
@@ -819,14 +822,17 @@
       <c r="AE2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
@@ -842,7 +848,7 @@
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F26" si="4">COUNTIF(J3:VS3,"M")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G26" si="5">COUNTIF(J3:VT3,"R")</f>
@@ -922,18 +928,21 @@
       <c r="AE3" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="AF3" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -1025,18 +1034,21 @@
       <c r="AE4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -1128,18 +1140,21 @@
       <c r="AE5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
@@ -1231,18 +1246,21 @@
       <c r="AE6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4">
         <f>COUNTIF(J7:VQ7,"A")</f>
@@ -1334,18 +1352,21 @@
       <c r="AE7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -1437,18 +1458,21 @@
       <c r="AE8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -1540,18 +1564,21 @@
       <c r="AE9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
@@ -1643,18 +1670,21 @@
       <c r="AE10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
@@ -1746,18 +1776,21 @@
       <c r="AE11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
@@ -1849,14 +1882,17 @@
       <c r="AE12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -1864,11 +1900,11 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="4"/>
@@ -1947,23 +1983,26 @@
         <v>7</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -2055,18 +2094,21 @@
       <c r="AE14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
@@ -2158,14 +2200,17 @@
       <c r="AE15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
@@ -2189,7 +2234,7 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="7"/>
@@ -2261,14 +2306,17 @@
       <c r="AE16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF16" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -2280,7 +2328,7 @@
       </c>
       <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="4"/>
@@ -2364,18 +2412,21 @@
       <c r="AE17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AF17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
@@ -2467,14 +2518,17 @@
       <c r="AE18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
@@ -2498,7 +2552,7 @@
       </c>
       <c r="H19" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="7"/>
@@ -2570,18 +2624,21 @@
       <c r="AE19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AF19" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
@@ -2673,18 +2730,21 @@
       <c r="AE20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
@@ -2776,18 +2836,21 @@
       <c r="AE21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
@@ -2879,18 +2942,21 @@
       <c r="AE22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
@@ -2982,18 +3048,21 @@
       <c r="AE23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
@@ -3085,18 +3154,21 @@
       <c r="AE24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
@@ -3188,18 +3260,21 @@
       <c r="AE25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -3291,8 +3366,11 @@
       <c r="AE26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AF26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -3330,6 +3408,9 @@
         <v>34</v>
       </c>
       <c r="AE27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF27" s="4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB32A186-A0A3-F84D-B585-8E5CF139BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DB468F-215C-1B49-83BD-C0E4F5216E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="41">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Ilyes Boughanmi</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -610,11 +613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH24" sqref="AH24"/>
+      <selection pane="topRight" activeCell="AI24" sqref="AI24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,7 +625,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,18 +722,21 @@
       <c r="AF1" s="3">
         <v>45890</v>
       </c>
+      <c r="AG1" s="3">
+        <v>45892</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(J2:VP2)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"P")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
@@ -825,18 +831,21 @@
       <c r="AF2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
@@ -931,18 +940,21 @@
       <c r="AF3" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="AG3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -1037,18 +1049,21 @@
       <c r="AF4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -1143,18 +1158,21 @@
       <c r="AF5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
@@ -1249,18 +1267,21 @@
       <c r="AF6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4">
         <f>COUNTIF(J7:VQ7,"A")</f>
@@ -1355,14 +1376,17 @@
       <c r="AF7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -1382,7 +1406,7 @@
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="6"/>
@@ -1461,18 +1485,21 @@
       <c r="AF8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG8" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -1567,18 +1594,21 @@
       <c r="AF9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
@@ -1673,18 +1703,21 @@
       <c r="AF10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
@@ -1779,18 +1812,21 @@
       <c r="AF11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
@@ -1885,18 +1921,21 @@
       <c r="AF12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
@@ -1904,7 +1943,7 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="4"/>
@@ -1916,7 +1955,7 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="7"/>
@@ -1989,20 +2028,23 @@
         <v>35</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -2097,18 +2139,21 @@
       <c r="AF14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
@@ -2203,18 +2248,21 @@
       <c r="AF15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
@@ -2309,14 +2357,17 @@
       <c r="AF16" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AG16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -2328,7 +2379,7 @@
       </c>
       <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="4"/>
@@ -2415,18 +2466,21 @@
       <c r="AF17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AG17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
@@ -2446,7 +2500,7 @@
       </c>
       <c r="H18" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="7"/>
@@ -2519,16 +2573,19 @@
         <v>7</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
@@ -2552,7 +2609,7 @@
       </c>
       <c r="H19" s="4">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="7"/>
@@ -2627,18 +2684,21 @@
       <c r="AF19" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AG19" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
@@ -2733,14 +2793,17 @@
       <c r="AF20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -2760,7 +2823,7 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="6"/>
@@ -2839,18 +2902,21 @@
       <c r="AF21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG21" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
@@ -2945,14 +3011,17 @@
       <c r="AF22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="9"/>
@@ -2972,7 +3041,7 @@
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="6"/>
@@ -3051,18 +3120,21 @@
       <c r="AF23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG23" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
@@ -3157,18 +3229,21 @@
       <c r="AF24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
@@ -3263,18 +3338,21 @@
       <c r="AF25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -3369,8 +3447,11 @@
       <c r="AF26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AG26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -3411,6 +3492,9 @@
         <v>34</v>
       </c>
       <c r="AF27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG27" s="4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DB468F-215C-1B49-83BD-C0E4F5216E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEFC3EC-5F26-4748-BB22-749D26487A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="41">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -613,11 +613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI24" sqref="AI24"/>
+      <selection pane="topRight" activeCell="AJ25" sqref="AJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,7 +625,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,18 +725,21 @@
       <c r="AG1" s="3">
         <v>45892</v>
       </c>
+      <c r="AH1" s="3">
+        <v>45895</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(J2:VP2)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"P")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
@@ -834,18 +837,21 @@
       <c r="AG2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
@@ -943,18 +949,21 @@
       <c r="AG3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -1052,18 +1061,21 @@
       <c r="AG4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -1161,18 +1173,21 @@
       <c r="AG5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
@@ -1270,18 +1285,21 @@
       <c r="AG6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4">
         <f>COUNTIF(J7:VQ7,"A")</f>
@@ -1379,18 +1397,21 @@
       <c r="AG7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -1488,18 +1509,21 @@
       <c r="AG8" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AH8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -1597,18 +1621,21 @@
       <c r="AG9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
@@ -1706,18 +1733,21 @@
       <c r="AG10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
@@ -1815,18 +1845,21 @@
       <c r="AG11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
@@ -1924,18 +1957,21 @@
       <c r="AG12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
@@ -2033,18 +2069,21 @@
       <c r="AG13" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH13" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -2142,18 +2181,21 @@
       <c r="AG14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
@@ -2251,18 +2293,21 @@
       <c r="AG15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
@@ -2360,14 +2405,17 @@
       <c r="AG16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -2379,7 +2427,7 @@
       </c>
       <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="4"/>
@@ -2469,18 +2517,21 @@
       <c r="AG17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AH17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
@@ -2578,18 +2629,21 @@
       <c r="AG18" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AH18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
@@ -2687,18 +2741,21 @@
       <c r="AG19" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AH19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
@@ -2796,18 +2853,21 @@
       <c r="AG20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
@@ -2905,18 +2965,21 @@
       <c r="AG21" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AH21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
@@ -3014,18 +3077,21 @@
       <c r="AG22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
@@ -3123,18 +3189,21 @@
       <c r="AG23" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AH23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
@@ -3232,18 +3301,21 @@
       <c r="AG24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
@@ -3341,18 +3413,21 @@
       <c r="AG25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -3450,8 +3525,11 @@
       <c r="AG26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AH26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -3495,6 +3573,9 @@
         <v>34</v>
       </c>
       <c r="AG27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH27" s="4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEFC3EC-5F26-4748-BB22-749D26487A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F4525B-0C58-3344-9EB7-990B54A4D0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="41">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -613,11 +613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AI27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ25" sqref="AJ25"/>
+      <selection pane="topRight" activeCell="AL25" sqref="AL25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,7 +625,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,18 +728,21 @@
       <c r="AH1" s="3">
         <v>45895</v>
       </c>
+      <c r="AI1" s="3">
+        <v>45896</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(J2:VP2)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"P")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
@@ -840,14 +843,17 @@
       <c r="AH2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
@@ -867,7 +873,7 @@
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G26" si="5">COUNTIF(J3:VT3,"R")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(J3:VU3,"RH")</f>
@@ -952,18 +958,21 @@
       <c r="AH3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -1064,18 +1073,21 @@
       <c r="AH4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -1176,18 +1188,21 @@
       <c r="AH5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
@@ -1288,18 +1303,21 @@
       <c r="AH6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4">
         <f>COUNTIF(J7:VQ7,"A")</f>
@@ -1400,18 +1418,21 @@
       <c r="AH7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -1512,18 +1533,21 @@
       <c r="AH8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -1624,18 +1648,21 @@
       <c r="AH9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
@@ -1736,18 +1763,21 @@
       <c r="AH10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
@@ -1848,18 +1878,21 @@
       <c r="AH11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
@@ -1960,18 +1993,21 @@
       <c r="AH12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
@@ -2072,18 +2108,21 @@
       <c r="AH13" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI13" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -2184,18 +2223,21 @@
       <c r="AH14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
@@ -2296,18 +2338,21 @@
       <c r="AH15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
@@ -2408,14 +2453,17 @@
       <c r="AH16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -2427,7 +2475,7 @@
       </c>
       <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="4"/>
@@ -2520,18 +2568,21 @@
       <c r="AH17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AI17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
@@ -2632,18 +2683,21 @@
       <c r="AH18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
@@ -2744,18 +2798,21 @@
       <c r="AH19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
@@ -2856,18 +2913,21 @@
       <c r="AH20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
@@ -2968,18 +3028,21 @@
       <c r="AH21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
@@ -3080,18 +3143,21 @@
       <c r="AH22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
@@ -3192,18 +3258,21 @@
       <c r="AH23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
@@ -3304,18 +3373,21 @@
       <c r="AH24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
@@ -3416,18 +3488,21 @@
       <c r="AH25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -3528,8 +3603,11 @@
       <c r="AH26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AI26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -3576,6 +3654,9 @@
         <v>34</v>
       </c>
       <c r="AH27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI27" s="4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F4525B-0C58-3344-9EB7-990B54A4D0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF432DA-7C2C-6545-96D8-EE08D1D4816F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="41">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -613,11 +613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AI27"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL25" sqref="AL25"/>
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL23" sqref="AL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,7 +625,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,18 +731,21 @@
       <c r="AI1" s="3">
         <v>45896</v>
       </c>
+      <c r="AJ1" s="3">
+        <v>45897</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(J2:VP2)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"P")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
@@ -846,18 +849,21 @@
       <c r="AI2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
@@ -961,18 +967,21 @@
       <c r="AI3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AJ3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -1076,18 +1085,21 @@
       <c r="AI4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -1191,18 +1203,21 @@
       <c r="AI5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
@@ -1306,18 +1321,21 @@
       <c r="AI6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4">
         <f>COUNTIF(J7:VQ7,"A")</f>
@@ -1421,18 +1439,21 @@
       <c r="AI7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -1536,18 +1557,21 @@
       <c r="AI8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -1651,14 +1675,17 @@
       <c r="AI9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
@@ -1682,7 +1709,7 @@
       </c>
       <c r="H10" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="7"/>
@@ -1766,18 +1793,21 @@
       <c r="AI10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ10" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
@@ -1881,18 +1911,21 @@
       <c r="AI11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
@@ -1996,14 +2029,17 @@
       <c r="AI12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2011,7 +2047,7 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
@@ -2111,18 +2147,21 @@
       <c r="AI13" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ13" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -2226,18 +2265,21 @@
       <c r="AI14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
@@ -2341,18 +2383,21 @@
       <c r="AI15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
@@ -2456,14 +2501,17 @@
       <c r="AI16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -2475,7 +2523,7 @@
       </c>
       <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="4"/>
@@ -2571,18 +2619,21 @@
       <c r="AI17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AJ17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
@@ -2686,18 +2737,21 @@
       <c r="AI18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
@@ -2801,18 +2855,21 @@
       <c r="AI19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
@@ -2916,18 +2973,21 @@
       <c r="AI20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
@@ -3031,18 +3091,21 @@
       <c r="AI21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
@@ -3146,18 +3209,21 @@
       <c r="AI22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="8"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
@@ -3261,18 +3327,21 @@
       <c r="AI23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="8"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
@@ -3376,18 +3445,21 @@
       <c r="AI24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="9"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
@@ -3491,18 +3563,21 @@
       <c r="AI25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="9"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -3606,8 +3681,11 @@
       <c r="AI26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AJ26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -3657,6 +3735,9 @@
         <v>34</v>
       </c>
       <c r="AI27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ27" s="4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF432DA-7C2C-6545-96D8-EE08D1D4816F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAAA2E1-4BC1-DB46-8704-52078D5983DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="41">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -613,11 +613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AK27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL23" sqref="AL23"/>
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN21" sqref="AN21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,7 +625,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,18 +734,21 @@
       <c r="AJ1" s="3">
         <v>45897</v>
       </c>
+      <c r="AK1" s="3">
+        <v>45898</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(J2:VP2)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"P")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
@@ -852,14 +855,17 @@
       <c r="AJ2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
@@ -879,7 +885,7 @@
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G26" si="5">COUNTIF(J3:VT3,"R")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(J3:VU3,"RH")</f>
@@ -970,18 +976,21 @@
       <c r="AJ3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -1088,18 +1097,21 @@
       <c r="AJ4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -1206,18 +1218,21 @@
       <c r="AJ5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
@@ -1324,18 +1339,21 @@
       <c r="AJ6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4">
         <f>COUNTIF(J7:VQ7,"A")</f>
@@ -1442,14 +1460,17 @@
       <c r="AJ7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -1469,7 +1490,7 @@
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="6"/>
@@ -1560,18 +1581,21 @@
       <c r="AJ8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK8" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -1678,18 +1702,21 @@
       <c r="AJ9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
@@ -1796,18 +1823,21 @@
       <c r="AJ10" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AK10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
@@ -1914,18 +1944,21 @@
       <c r="AJ11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
@@ -2032,18 +2065,21 @@
       <c r="AJ12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
@@ -2150,18 +2186,21 @@
       <c r="AJ13" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="AK13" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -2268,18 +2307,21 @@
       <c r="AJ14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
@@ -2386,18 +2428,21 @@
       <c r="AJ15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
@@ -2504,14 +2549,17 @@
       <c r="AJ16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -2523,7 +2571,7 @@
       </c>
       <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="4"/>
@@ -2622,18 +2670,21 @@
       <c r="AJ17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AK17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
@@ -2740,18 +2791,21 @@
       <c r="AJ18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
@@ -2858,18 +2912,21 @@
       <c r="AJ19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
@@ -2976,14 +3033,17 @@
       <c r="AJ20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -3003,7 +3063,7 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="6"/>
@@ -3094,18 +3154,21 @@
       <c r="AJ21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK21" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
@@ -3212,14 +3275,17 @@
       <c r="AJ22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="9"/>
@@ -3239,7 +3305,7 @@
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="6"/>
@@ -3330,18 +3396,21 @@
       <c r="AJ23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK23" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="9"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
@@ -3448,18 +3517,21 @@
       <c r="AJ24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
@@ -3566,18 +3638,21 @@
       <c r="AJ25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -3684,8 +3759,11 @@
       <c r="AJ26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AK26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -3738,6 +3816,9 @@
         <v>34</v>
       </c>
       <c r="AJ27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK27" s="4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAAA2E1-4BC1-DB46-8704-52078D5983DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5ABBBC-FA12-B34A-A119-09EBBD5C6EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="41">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -613,11 +613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AK27"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN21" sqref="AN21"/>
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO23" sqref="AO23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,7 +625,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,18 +737,21 @@
       <c r="AK1" s="3">
         <v>45898</v>
       </c>
+      <c r="AL1" s="5">
+        <v>45902</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(J2:VP2)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"P")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
@@ -858,18 +861,21 @@
       <c r="AK2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
@@ -979,18 +985,21 @@
       <c r="AK3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AL3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -1100,18 +1109,21 @@
       <c r="AK4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -1221,18 +1233,21 @@
       <c r="AK5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
@@ -1342,18 +1357,21 @@
       <c r="AK6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4">
         <f>COUNTIF(J7:VQ7,"A")</f>
@@ -1463,18 +1481,21 @@
       <c r="AK7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -1584,18 +1605,21 @@
       <c r="AK8" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AL8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -1705,14 +1729,17 @@
       <c r="AK9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
@@ -1724,7 +1751,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="4"/>
@@ -1826,18 +1853,21 @@
       <c r="AK10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
@@ -1947,14 +1977,17 @@
       <c r="AK11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
@@ -1962,7 +1995,7 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
@@ -2068,18 +2101,21 @@
       <c r="AK12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL12" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
@@ -2189,18 +2225,21 @@
       <c r="AK13" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL13" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -2310,18 +2349,21 @@
       <c r="AK14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
@@ -2431,18 +2473,21 @@
       <c r="AK15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
@@ -2552,14 +2597,17 @@
       <c r="AK16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -2583,7 +2631,7 @@
       </c>
       <c r="H17" s="4">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="7"/>
@@ -2673,18 +2721,21 @@
       <c r="AK17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AL17" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
@@ -2794,18 +2845,21 @@
       <c r="AK18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
@@ -2915,18 +2969,21 @@
       <c r="AK19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
@@ -3036,18 +3093,21 @@
       <c r="AK20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
@@ -3157,18 +3217,21 @@
       <c r="AK21" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AL21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
@@ -3278,18 +3341,21 @@
       <c r="AK22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="9"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
@@ -3399,18 +3465,21 @@
       <c r="AK23" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AL23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
@@ -3520,18 +3589,21 @@
       <c r="AK24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
@@ -3641,18 +3713,21 @@
       <c r="AK25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -3762,8 +3837,11 @@
       <c r="AK26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AL26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -3820,6 +3898,15 @@
       </c>
       <c r="AK27" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="AL27" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL28">
+        <f>COUNTIF(AL2:AL27,"P")</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5ABBBC-FA12-B34A-A119-09EBBD5C6EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082475AD-3752-5C4D-A153-60A630388171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="41">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -613,11 +613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AL28"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO23" sqref="AO23"/>
+      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP18" sqref="AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,7 +625,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,18 +740,21 @@
       <c r="AL1" s="5">
         <v>45902</v>
       </c>
+      <c r="AM1" s="5">
+        <v>45903</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(J2:VP2)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"P")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
@@ -864,18 +867,21 @@
       <c r="AL2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
@@ -988,18 +994,21 @@
       <c r="AL3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -1112,18 +1121,21 @@
       <c r="AL4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -1236,14 +1248,17 @@
       <c r="AL5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1255,7 +1270,7 @@
       </c>
       <c r="E6" s="4">
         <f>COUNTIF(J6:VR6,"B")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="4"/>
@@ -1360,18 +1375,21 @@
       <c r="AL6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4">
         <f>COUNTIF(J7:VQ7,"A")</f>
@@ -1484,18 +1502,21 @@
       <c r="AL7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -1608,18 +1629,21 @@
       <c r="AL8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -1732,14 +1756,17 @@
       <c r="AL9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
@@ -1751,7 +1778,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="4"/>
@@ -1856,18 +1883,21 @@
       <c r="AL10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AM10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
@@ -1980,18 +2010,21 @@
       <c r="AL11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
@@ -2104,18 +2137,21 @@
       <c r="AL12" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="AM12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
@@ -2228,18 +2264,21 @@
       <c r="AL13" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM13" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -2352,18 +2391,21 @@
       <c r="AL14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
@@ -2476,18 +2518,21 @@
       <c r="AL15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
@@ -2600,14 +2645,17 @@
       <c r="AL16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -2631,7 +2679,7 @@
       </c>
       <c r="H17" s="4">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="7"/>
@@ -2724,18 +2772,21 @@
       <c r="AL17" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AM17" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
@@ -2848,18 +2899,21 @@
       <c r="AL18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
@@ -2972,18 +3026,21 @@
       <c r="AL19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
@@ -3096,18 +3153,21 @@
       <c r="AL20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
@@ -3220,18 +3280,21 @@
       <c r="AL21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
@@ -3344,18 +3407,21 @@
       <c r="AL22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
@@ -3468,18 +3534,21 @@
       <c r="AL23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
@@ -3592,18 +3661,21 @@
       <c r="AL24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="9"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
@@ -3716,18 +3788,21 @@
       <c r="AL25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -3840,8 +3915,11 @@
       <c r="AL26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AM26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -3902,11 +3980,8 @@
       <c r="AL27" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="AL28">
-        <f>COUNTIF(AL2:AL27,"P")</f>
-        <v>22</v>
+      <c r="AM27" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082475AD-3752-5C4D-A153-60A630388171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF711A5A-2C58-B749-9C74-3EF2AC5D3872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="41">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -613,11 +613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AN27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP18" sqref="AP18"/>
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP23" sqref="AP23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,7 +625,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,18 +743,21 @@
       <c r="AM1" s="5">
         <v>45903</v>
       </c>
+      <c r="AN1" s="5">
+        <v>45904</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(J2:VP2)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"P")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
@@ -870,18 +873,21 @@
       <c r="AM2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
@@ -997,18 +1003,21 @@
       <c r="AM3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -1124,14 +1133,17 @@
       <c r="AM4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1155,7 +1167,7 @@
       </c>
       <c r="H5" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="7"/>
@@ -1251,14 +1263,17 @@
       <c r="AM5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1270,7 +1285,7 @@
       </c>
       <c r="E6" s="4">
         <f>COUNTIF(J6:VR6,"B")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="4"/>
@@ -1378,18 +1393,21 @@
       <c r="AM6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AN6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4">
         <f>COUNTIF(J7:VQ7,"A")</f>
@@ -1505,18 +1523,21 @@
       <c r="AM7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -1632,18 +1653,21 @@
       <c r="AM8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -1759,14 +1783,17 @@
       <c r="AM9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
@@ -1778,7 +1805,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="4"/>
@@ -1886,14 +1913,17 @@
       <c r="AM10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AN10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
@@ -1917,7 +1947,7 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="7"/>
@@ -2013,18 +2043,21 @@
       <c r="AM11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN11" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
@@ -2140,14 +2173,17 @@
       <c r="AM12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2171,7 +2207,7 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="7"/>
@@ -2267,18 +2303,21 @@
       <c r="AM13" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN13" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -2394,18 +2433,21 @@
       <c r="AM14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
@@ -2521,18 +2563,21 @@
       <c r="AM15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
@@ -2648,14 +2693,17 @@
       <c r="AM16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -2679,7 +2727,7 @@
       </c>
       <c r="H17" s="4">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="7"/>
@@ -2775,18 +2823,21 @@
       <c r="AM17" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AN17" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
@@ -2902,18 +2953,21 @@
       <c r="AM18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
@@ -3029,18 +3083,21 @@
       <c r="AM19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
@@ -3156,18 +3213,21 @@
       <c r="AM20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
@@ -3283,18 +3343,21 @@
       <c r="AM21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
@@ -3410,18 +3473,21 @@
       <c r="AM22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="9"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
@@ -3537,18 +3603,21 @@
       <c r="AM23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
@@ -3664,18 +3733,21 @@
       <c r="AM24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
@@ -3791,18 +3863,21 @@
       <c r="AM25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -3918,8 +3993,11 @@
       <c r="AM26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AN26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -3981,6 +4059,9 @@
         <v>34</v>
       </c>
       <c r="AM27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN27" s="4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF711A5A-2C58-B749-9C74-3EF2AC5D3872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC940826-243C-924E-A6DD-372D5778038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="41">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -613,11 +613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AN27"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP23" sqref="AP23"/>
+      <selection pane="topRight" activeCell="AR20" sqref="AR20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,7 +625,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,18 +746,21 @@
       <c r="AN1" s="5">
         <v>45904</v>
       </c>
+      <c r="AO1" s="5">
+        <v>45905</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(J2:VP2)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(J2:VP2,"P")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
@@ -876,14 +879,17 @@
       <c r="AN2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
@@ -903,7 +909,7 @@
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G26" si="5">COUNTIF(J3:VT3,"R")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(J3:VU3,"RH")</f>
@@ -1006,18 +1012,21 @@
       <c r="AN3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
@@ -1136,18 +1145,21 @@
       <c r="AN4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
@@ -1266,14 +1278,17 @@
       <c r="AN5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AO5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1285,7 +1300,7 @@
       </c>
       <c r="E6" s="4">
         <f>COUNTIF(J6:VR6,"B")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="4"/>
@@ -1396,18 +1411,21 @@
       <c r="AN6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AO6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4">
         <f>COUNTIF(J7:VQ7,"A")</f>
@@ -1526,18 +1544,21 @@
       <c r="AN7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
@@ -1656,18 +1677,21 @@
       <c r="AN8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
@@ -1786,14 +1810,17 @@
       <c r="AN9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
@@ -1805,7 +1832,7 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="4"/>
@@ -1916,18 +1943,21 @@
       <c r="AN10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AO10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
@@ -2046,18 +2076,21 @@
       <c r="AN11" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AO11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
@@ -2176,18 +2209,21 @@
       <c r="AN12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
@@ -2306,18 +2342,21 @@
       <c r="AN13" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AO13" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
@@ -2436,18 +2475,21 @@
       <c r="AN14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
@@ -2566,18 +2608,21 @@
       <c r="AN15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
@@ -2696,14 +2741,17 @@
       <c r="AN16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -2727,7 +2775,7 @@
       </c>
       <c r="H17" s="4">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="7"/>
@@ -2826,18 +2874,21 @@
       <c r="AN17" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AO17" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
@@ -2956,18 +3007,21 @@
       <c r="AN18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
@@ -3086,18 +3140,21 @@
       <c r="AN19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
@@ -3216,14 +3273,17 @@
       <c r="AN20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -3243,7 +3303,7 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="6"/>
@@ -3346,14 +3406,17 @@
       <c r="AN21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO21" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
@@ -3373,7 +3436,7 @@
       </c>
       <c r="G22" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="6"/>
@@ -3476,18 +3539,21 @@
       <c r="AN22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO22" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="8"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
@@ -3606,18 +3672,21 @@
       <c r="AN23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="8"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
@@ -3736,18 +3805,21 @@
       <c r="AN24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="8"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="9"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
@@ -3866,18 +3938,21 @@
       <c r="AN25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="8"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="9"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
@@ -3996,8 +4071,11 @@
       <c r="AN26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AO26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -4062,6 +4140,9 @@
         <v>34</v>
       </c>
       <c r="AN27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO27" s="4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC940826-243C-924E-A6DD-372D5778038F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2CE8C2-DBFB-D84E-BB4B-2904BB272B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="45">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -160,6 +160,18 @@
   <si>
     <t>R</t>
   </si>
+  <si>
+    <t>Repos</t>
+  </si>
+  <si>
+    <t>REP</t>
+  </si>
+  <si>
+    <t>Malik Boussaïd</t>
+  </si>
+  <si>
+    <t>Kamal Bafounta</t>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -210,6 +222,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AO27"/>
+  <dimension ref="A1:AR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR20" sqref="AR20"/>
+      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT27" sqref="AT27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,7 +640,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,158 +651,168 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3">
+      <c r="K1" s="3">
         <v>45854</v>
       </c>
-      <c r="K1" s="3">
+      <c r="L1" s="3">
         <v>45855</v>
       </c>
-      <c r="L1" s="3">
+      <c r="M1" s="3">
         <v>45856</v>
       </c>
-      <c r="M1" s="5">
+      <c r="N1" s="5">
         <v>45857</v>
       </c>
-      <c r="N1" s="5">
+      <c r="O1" s="5">
         <v>45859</v>
       </c>
-      <c r="O1" s="5">
+      <c r="P1" s="5">
         <v>45860</v>
       </c>
-      <c r="P1" s="5">
+      <c r="Q1" s="5">
         <v>45861</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="R1" s="5">
         <v>45862</v>
       </c>
-      <c r="R1" s="5">
+      <c r="S1" s="5">
         <v>45863</v>
       </c>
-      <c r="S1" s="5">
+      <c r="T1" s="5">
         <v>45866</v>
       </c>
-      <c r="T1" s="5">
+      <c r="U1" s="5">
         <v>45867</v>
       </c>
-      <c r="U1" s="5">
+      <c r="V1" s="5">
         <v>45868</v>
       </c>
-      <c r="V1" s="5">
+      <c r="W1" s="5">
         <v>45869</v>
       </c>
-      <c r="W1" s="5">
+      <c r="X1" s="5">
         <v>45870</v>
       </c>
-      <c r="X1" s="5">
+      <c r="Y1" s="5">
         <v>45874</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="Z1" s="5">
         <v>45876</v>
       </c>
-      <c r="Z1" s="5">
+      <c r="AA1" s="5">
         <v>45877</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AB1" s="5">
         <v>45880</v>
       </c>
-      <c r="AB1" s="5">
+      <c r="AC1" s="5">
         <v>45882</v>
       </c>
-      <c r="AC1" s="5">
+      <c r="AD1" s="5">
         <v>45883</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AE1" s="3">
         <v>45888</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AF1" s="3">
         <v>45889</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AG1" s="3">
         <v>45890</v>
       </c>
-      <c r="AG1" s="3">
+      <c r="AH1" s="3">
         <v>45892</v>
       </c>
-      <c r="AH1" s="3">
+      <c r="AI1" s="3">
         <v>45895</v>
       </c>
-      <c r="AI1" s="3">
+      <c r="AJ1" s="3">
         <v>45896</v>
       </c>
-      <c r="AJ1" s="3">
+      <c r="AK1" s="3">
         <v>45897</v>
       </c>
-      <c r="AK1" s="3">
+      <c r="AL1" s="3">
         <v>45898</v>
       </c>
-      <c r="AL1" s="5">
+      <c r="AM1" s="5">
         <v>45902</v>
       </c>
-      <c r="AM1" s="5">
+      <c r="AN1" s="5">
         <v>45903</v>
       </c>
-      <c r="AN1" s="5">
+      <c r="AO1" s="5">
         <v>45904</v>
       </c>
-      <c r="AO1" s="5">
+      <c r="AP1" s="5">
         <v>45905</v>
       </c>
+      <c r="AQ1" s="5">
+        <v>45908</v>
+      </c>
+      <c r="AR1" s="5">
+        <v>45909</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
-        <f>COUNTA(J2:VP2)</f>
-        <v>32</v>
+        <f>COUNTA(K2:VQ2)</f>
+        <v>34</v>
       </c>
       <c r="C2" s="4">
-        <f>COUNTIF(J2:VP2,"P")</f>
-        <v>32</v>
-      </c>
-      <c r="D2" s="4">
-        <f t="shared" ref="D2:D26" si="0">COUNTIF(J2:VQ2,"A")</f>
+        <f>COUNTIF(K2:VQ2,"P")</f>
+        <v>34</v>
+      </c>
+      <c r="D2" s="6">
+        <f>COUNTIF(K2:VQ2,"REP")</f>
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E26" si="1">COUNTIF(J2:VR2,"B")</f>
+        <f t="shared" ref="E2:E26" si="0">COUNTIF(K2:VR2,"A")</f>
         <v>0</v>
       </c>
       <c r="F2" s="4">
-        <f>COUNTIF(J2:VS2,"M")</f>
+        <f t="shared" ref="F2:F26" si="1">COUNTIF(K2:VS2,"B")</f>
         <v>0</v>
       </c>
       <c r="G2" s="4">
-        <f>COUNTIF(J2:VT2,"R")</f>
+        <f>COUNTIF(K2:VT2,"M")</f>
         <v>0</v>
       </c>
       <c r="H2" s="4">
-        <f>COUNTIF(J2:VU2,"RH")</f>
+        <f>COUNTIF(K2:VU2,"R")</f>
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <f>COUNTIF(J2:VU2,"S")</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
+        <f>COUNTIF(K2:VV2,"RH")</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <f>COUNTIF(K2:VV2,"S")</f>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>7</v>
@@ -882,45 +907,55 @@
       <c r="AO2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AP2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:B21" si="2">COUNTA(J3:VP3)</f>
-        <v>32</v>
+        <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
+        <v>34</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C21" si="3">COUNTIF(J3:VP3,"P")</f>
-        <v>26</v>
-      </c>
-      <c r="D3" s="4">
+        <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
+        <v>28</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F26" si="4">COUNTIF(J3:VS3,"M")</f>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G26" si="5">COUNTIF(K3:VT3,"M")</f>
         <v>2</v>
       </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G26" si="5">COUNTIF(J3:VT3,"R")</f>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VU3,"R")</f>
         <v>3</v>
       </c>
-      <c r="H3" s="4">
-        <f t="shared" ref="H3:H26" si="6">COUNTIF(J3:VU3,"RH")</f>
-        <v>0</v>
-      </c>
       <c r="I3" s="4">
-        <f t="shared" ref="I3:I26" si="7">COUNTIF(J3:VU3,"S")</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>7</v>
+        <f t="shared" ref="I3:I26" si="7">COUNTIF(K3:VV3,"RH")</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J26" si="8">COUNTIF(K3:VV3,"S")</f>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>7</v>
@@ -980,32 +1015,32 @@
         <v>7</v>
       </c>
       <c r="AD3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE3" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>38</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="AH3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AI3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AJ3" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="AK3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AL3" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="AM3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1013,31 +1048,40 @@
         <v>7</v>
       </c>
       <c r="AO3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AQ3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="D4" s="4">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G4" s="4">
@@ -1052,8 +1096,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>7</v>
+      <c r="J4" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>7</v>
@@ -1148,30 +1193,39 @@
       <c r="AO4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AP4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1179,14 +1233,15 @@
       </c>
       <c r="H5" s="4">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>7</v>
@@ -1207,10 +1262,10 @@
         <v>7</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>7</v>
@@ -1276,35 +1331,44 @@
         <v>7</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="D6" s="4">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6" s="4">
-        <f>COUNTIF(J6:VR6,"B")</f>
+      <c r="F6" s="4">
+        <f>COUNTIF(K6:VS6,"B")</f>
         <v>3</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -1318,8 +1382,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>7</v>
+      <c r="J6" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>7</v>
@@ -1379,11 +1444,11 @@
         <v>7</v>
       </c>
       <c r="AD6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AE6" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="AF6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1406,7 +1471,7 @@
         <v>7</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AN6" s="4" t="s">
         <v>35</v>
@@ -1414,49 +1479,59 @@
       <c r="AO6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AP6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="D7" s="4">
-        <f>COUNTIF(J7:VQ7,"A")</f>
+        <v>23</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f>COUNTIF(K7:VR7,"A")</f>
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="G7" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="L7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1470,7 +1545,7 @@
         <v>7</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>35</v>
@@ -1494,13 +1569,13 @@
         <v>35</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AA7" s="4" t="s">
         <v>7</v>
@@ -1547,45 +1622,55 @@
       <c r="AO7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AP7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="D8" s="4">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>7</v>
+      <c r="J8" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>7</v>
@@ -1654,11 +1739,11 @@
         <v>7</v>
       </c>
       <c r="AG8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AH8" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="AI8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1666,11 +1751,11 @@
         <v>7</v>
       </c>
       <c r="AK8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AL8" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="AM8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1680,29 +1765,38 @@
       <c r="AO8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AP8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="D9" s="4">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G9" s="4">
@@ -1717,8 +1811,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>7</v>
+      <c r="J9" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>7</v>
@@ -1813,30 +1908,39 @@
       <c r="AO9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AP9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="5"/>
@@ -1844,14 +1948,15 @@
       </c>
       <c r="H10" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>7</v>
@@ -1929,13 +2034,13 @@
         <v>7</v>
       </c>
       <c r="AJ10" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AK10" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AL10" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AM10" s="4" t="s">
         <v>35</v>
@@ -1946,29 +2051,38 @@
       <c r="AO10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AP10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="D11" s="4">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G11" s="4">
@@ -1977,14 +2091,15 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>7</v>
@@ -2074,34 +2189,43 @@
         <v>7</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AO11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="D12" s="4">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G12" s="4">
@@ -2116,8 +2240,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>7</v>
+      <c r="J12" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>7</v>
@@ -2201,41 +2326,50 @@
         <v>7</v>
       </c>
       <c r="AL12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AM12" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="AN12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AO12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AP12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -2243,14 +2377,15 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>34</v>
@@ -2277,7 +2412,7 @@
         <v>34</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>7</v>
@@ -2295,10 +2430,10 @@
         <v>7</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AA13" s="4" t="s">
         <v>7</v>
@@ -2310,16 +2445,16 @@
         <v>7</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG13" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AH13" s="4" t="s">
         <v>7</v>
@@ -2328,11 +2463,11 @@
         <v>7</v>
       </c>
       <c r="AJ13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AK13" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="AL13" s="4" t="s">
         <v>7</v>
       </c>
@@ -2340,34 +2475,43 @@
         <v>7</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AO13" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="AP13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR13" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="D14" s="4">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G14" s="4">
@@ -2382,8 +2526,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>7</v>
+      <c r="J14" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>7</v>
@@ -2478,29 +2623,38 @@
       <c r="AO14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AP14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="D15" s="4">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G15" s="4">
@@ -2515,8 +2669,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>7</v>
+      <c r="J15" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>7</v>
@@ -2611,29 +2766,38 @@
       <c r="AO15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AP15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="D16" s="4">
+        <v>23</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G16" s="4">
@@ -2642,14 +2806,15 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>34</v>
@@ -2676,7 +2841,7 @@
         <v>34</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="T16" s="4" t="s">
         <v>7</v>
@@ -2694,10 +2859,10 @@
         <v>7</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AA16" s="4" t="s">
         <v>7</v>
@@ -2715,10 +2880,10 @@
         <v>7</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AG16" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AH16" s="4" t="s">
         <v>7</v>
@@ -2744,45 +2909,55 @@
       <c r="AO16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AP16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="D17" s="4">
+        <v>19</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="G17" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H17" s="4">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>7</v>
@@ -2824,25 +2999,25 @@
         <v>7</v>
       </c>
       <c r="X17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Y17" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="Z17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AB17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AE17" s="4" t="s">
         <v>35</v>
@@ -2866,7 +3041,7 @@
         <v>35</v>
       </c>
       <c r="AL17" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AM17" s="4" t="s">
         <v>34</v>
@@ -2877,29 +3052,38 @@
       <c r="AO17" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="AP17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="D18" s="4">
+        <v>32</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G18" s="4">
@@ -2908,14 +3092,15 @@
       </c>
       <c r="H18" s="4">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>7</v>
@@ -2981,13 +3166,13 @@
         <v>7</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AG18" s="4" t="s">
         <v>34</v>
       </c>
       <c r="AH18" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AI18" s="4" t="s">
         <v>7</v>
@@ -3010,45 +3195,55 @@
       <c r="AO18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AP18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="D19" s="4">
+        <v>27</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F19" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="G19" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>7</v>
@@ -3093,16 +3288,16 @@
         <v>7</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AA19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>35</v>
@@ -3114,13 +3309,13 @@
         <v>35</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG19" s="4" t="s">
         <v>34</v>
       </c>
       <c r="AH19" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AI19" s="4" t="s">
         <v>7</v>
@@ -3143,29 +3338,38 @@
       <c r="AO19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AP19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="D20" s="4">
+        <v>34</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G20" s="4">
@@ -3180,8 +3384,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>7</v>
+      <c r="J20" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>7</v>
@@ -3276,45 +3481,55 @@
       <c r="AO20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AP20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E21" s="4">
+        <v>6</v>
+      </c>
+      <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>32</v>
@@ -3326,19 +3541,19 @@
         <v>32</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="P21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="R21" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="S21" s="4" t="s">
         <v>7</v>
@@ -3383,11 +3598,11 @@
         <v>7</v>
       </c>
       <c r="AG21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AH21" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="AI21" s="4" t="s">
         <v>7</v>
       </c>
@@ -3395,11 +3610,11 @@
         <v>7</v>
       </c>
       <c r="AK21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AL21" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="AM21" s="4" t="s">
         <v>7</v>
       </c>
@@ -3407,47 +3622,57 @@
         <v>7</v>
       </c>
       <c r="AO21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP21" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AQ21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR21" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" ref="B22:B26" si="8">COUNTA(J22:VP22)</f>
-        <v>32</v>
+        <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
+        <v>34</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" ref="C22:C26" si="9">COUNTIF(J22:VP22,"P")</f>
-        <v>31</v>
-      </c>
-      <c r="D22" s="4">
+        <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
+        <v>33</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>7</v>
+      <c r="J22" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>7</v>
@@ -3540,59 +3765,69 @@
         <v>7</v>
       </c>
       <c r="AO22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP22" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AQ22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" si="8"/>
-        <v>32</v>
+        <f t="shared" si="9"/>
+        <v>34</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="9"/>
-        <v>23</v>
-      </c>
-      <c r="D23" s="4">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>34</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>32</v>
@@ -3601,7 +3836,7 @@
         <v>32</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>7</v>
@@ -3616,13 +3851,13 @@
         <v>7</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="W23" s="4" t="s">
         <v>34</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="Y23" s="4" t="s">
         <v>7</v>
@@ -3649,11 +3884,11 @@
         <v>7</v>
       </c>
       <c r="AG23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AH23" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="AI23" s="4" t="s">
         <v>7</v>
       </c>
@@ -3661,11 +3896,11 @@
         <v>7</v>
       </c>
       <c r="AK23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AL23" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="AM23" s="4" t="s">
         <v>7</v>
       </c>
@@ -3675,29 +3910,38 @@
       <c r="AO23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AP23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
-        <f t="shared" si="8"/>
-        <v>32</v>
+        <f t="shared" si="9"/>
+        <v>34</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="9"/>
-        <v>31</v>
-      </c>
-      <c r="D24" s="4">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G24" s="4">
@@ -3706,14 +3950,15 @@
       </c>
       <c r="H24" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>7</v>
@@ -3770,10 +4015,10 @@
         <v>7</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AE24" s="4" t="s">
         <v>7</v>
@@ -3808,34 +4053,43 @@
       <c r="AO24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AP24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
-        <f t="shared" si="8"/>
-        <v>32</v>
+        <f t="shared" si="9"/>
+        <v>34</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="9"/>
-        <v>29</v>
-      </c>
-      <c r="D25" s="4">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" si="4"/>
-        <v>3</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="6"/>
@@ -3845,8 +4099,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>7</v>
+      <c r="J25" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>7</v>
@@ -3888,7 +4143,7 @@
         <v>7</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="Y25" s="4" t="s">
         <v>38</v>
@@ -3897,7 +4152,7 @@
         <v>38</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="AB25" s="4" t="s">
         <v>7</v>
@@ -3941,29 +4196,38 @@
       <c r="AO25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AP25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
-        <f t="shared" si="8"/>
-        <v>32</v>
+        <f t="shared" si="9"/>
+        <v>34</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="9"/>
-        <v>32</v>
-      </c>
-      <c r="D26" s="4">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G26" s="4">
@@ -3978,8 +4242,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>7</v>
+      <c r="J26" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>7</v>
@@ -4074,14 +4339,20 @@
       <c r="AO26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AP26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T27" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="U27" s="4" t="s">
         <v>34</v>
       </c>
@@ -4144,10 +4415,41 @@
       </c>
       <c r="AO27" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="AP27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR27" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR28" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR29" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A21:A27">
+  <conditionalFormatting sqref="A21:A29">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2CE8C2-DBFB-D84E-BB4B-2904BB272B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE8B042-687A-DE45-AF44-2B1F712DE492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="45">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -628,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AR29"/>
+  <dimension ref="A1:AS29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT27" sqref="AT27"/>
+      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU27" sqref="AU27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,18 +773,21 @@
       <c r="AR1" s="5">
         <v>45909</v>
       </c>
+      <c r="AS1" s="5">
+        <v>45910</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -916,18 +919,21 @@
       <c r="AR2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1059,18 +1065,21 @@
       <c r="AR3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1202,14 +1211,17 @@
       <c r="AR4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1225,7 +1237,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1345,14 +1357,17 @@
       <c r="AR5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AS5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1368,7 +1383,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -1488,18 +1503,21 @@
       <c r="AR6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -1631,18 +1649,21 @@
       <c r="AR7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -1774,18 +1795,21 @@
       <c r="AR8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -1917,14 +1941,17 @@
       <c r="AR9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
@@ -1940,7 +1967,7 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="5"/>
@@ -2060,18 +2087,21 @@
       <c r="AR10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AS10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -2203,18 +2233,21 @@
       <c r="AR11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="4"/>
@@ -2346,14 +2379,17 @@
       <c r="AR12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2369,7 +2405,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -2489,18 +2525,21 @@
       <c r="AR13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AS13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -2632,18 +2671,21 @@
       <c r="AR14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -2775,18 +2817,21 @@
       <c r="AR15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -2918,18 +2963,21 @@
       <c r="AR16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -3061,18 +3109,21 @@
       <c r="AR17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -3204,18 +3255,21 @@
       <c r="AR18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -3347,18 +3401,21 @@
       <c r="AR19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -3490,14 +3547,17 @@
       <c r="AR20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -3509,7 +3569,7 @@
       </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
@@ -3633,18 +3693,21 @@
       <c r="AR21" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="AS21" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -3776,18 +3839,21 @@
       <c r="AR22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="4"/>
@@ -3919,18 +3985,21 @@
       <c r="AR23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -4062,18 +4131,21 @@
       <c r="AR24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -4205,18 +4277,21 @@
       <c r="AR25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -4348,8 +4423,11 @@
       <c r="AR26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -4425,8 +4503,11 @@
       <c r="AR27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -4436,8 +4517,11 @@
       <c r="AR28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AS28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -4445,6 +4529,9 @@
         <v>7</v>
       </c>
       <c r="AR29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE8B042-687A-DE45-AF44-2B1F712DE492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC3AFE6-162F-084A-AB53-5932BA7D6B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="45">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -628,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AS29"/>
+  <dimension ref="A1:AT29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU27" sqref="AU27"/>
+      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV27" sqref="AV27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,18 +776,21 @@
       <c r="AS1" s="5">
         <v>45910</v>
       </c>
+      <c r="AT1" s="5">
+        <v>45912</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -922,14 +925,17 @@
       <c r="AS2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
@@ -953,7 +959,7 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VU3,"R")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I26" si="7">COUNTIF(K3:VV3,"RH")</f>
@@ -1068,18 +1074,21 @@
       <c r="AS3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1214,14 +1223,17 @@
       <c r="AS4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1237,7 +1249,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1360,14 +1372,17 @@
       <c r="AS5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AT5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1383,7 +1398,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -1506,18 +1521,21 @@
       <c r="AS6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AT6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -1652,18 +1670,21 @@
       <c r="AS7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -1798,18 +1819,21 @@
       <c r="AS8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -1944,14 +1968,17 @@
       <c r="AS9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
@@ -1967,7 +1994,7 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="5"/>
@@ -2090,18 +2117,21 @@
       <c r="AS10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AT10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -2236,18 +2266,21 @@
       <c r="AS11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="4"/>
@@ -2382,14 +2415,17 @@
       <c r="AS12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2405,7 +2441,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -2528,18 +2564,21 @@
       <c r="AS13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AT13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -2674,18 +2713,21 @@
       <c r="AS14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -2820,18 +2862,21 @@
       <c r="AS15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -2966,18 +3011,21 @@
       <c r="AS16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -3112,18 +3160,21 @@
       <c r="AS17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -3258,18 +3309,21 @@
       <c r="AS18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -3404,18 +3458,21 @@
       <c r="AS19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -3550,14 +3607,17 @@
       <c r="AS20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -3581,7 +3641,7 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="7"/>
@@ -3696,18 +3756,21 @@
       <c r="AS21" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="AT21" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -3842,14 +3905,17 @@
       <c r="AS22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -3873,7 +3939,7 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" si="7"/>
@@ -3988,18 +4054,21 @@
       <c r="AS23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT23" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -4134,18 +4203,21 @@
       <c r="AS24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -4280,18 +4352,21 @@
       <c r="AS25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -4426,8 +4501,11 @@
       <c r="AS26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -4506,8 +4584,11 @@
       <c r="AS27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT27" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -4520,8 +4601,11 @@
       <c r="AS28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AT28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -4532,6 +4616,9 @@
         <v>7</v>
       </c>
       <c r="AS29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC3AFE6-162F-084A-AB53-5932BA7D6B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3909808E-2B54-4F40-9AD9-278BBFDBEF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="45">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -628,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AT29"/>
+  <dimension ref="A1:AU29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV27" sqref="AV27"/>
+      <selection pane="topRight" activeCell="AW25" sqref="AW25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,18 +779,21 @@
       <c r="AT1" s="5">
         <v>45912</v>
       </c>
+      <c r="AU1" s="5">
+        <v>45916</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -928,18 +931,21 @@
       <c r="AT2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1077,18 +1083,21 @@
       <c r="AT3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AU3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1226,14 +1235,17 @@
       <c r="AT4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1249,7 +1261,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1375,14 +1387,17 @@
       <c r="AT5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AU5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1398,7 +1413,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -1524,18 +1539,21 @@
       <c r="AT6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AU6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -1673,18 +1691,21 @@
       <c r="AT7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -1822,18 +1843,21 @@
       <c r="AT8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -1971,14 +1995,17 @@
       <c r="AT9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
@@ -1994,7 +2021,7 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="5"/>
@@ -2120,18 +2147,21 @@
       <c r="AT10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AU10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -2269,18 +2299,21 @@
       <c r="AT11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="4"/>
@@ -2418,14 +2451,17 @@
       <c r="AT12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2441,7 +2477,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -2567,18 +2603,21 @@
       <c r="AT13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AU13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -2716,18 +2755,21 @@
       <c r="AT14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -2865,18 +2907,21 @@
       <c r="AT15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -3014,18 +3059,21 @@
       <c r="AT16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -3163,18 +3211,21 @@
       <c r="AT17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -3312,18 +3363,21 @@
       <c r="AT18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -3461,18 +3515,21 @@
       <c r="AT19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -3610,14 +3667,17 @@
       <c r="AT20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -3633,7 +3693,7 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
@@ -3759,18 +3819,21 @@
       <c r="AT21" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AU21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -3908,18 +3971,21 @@
       <c r="AT22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="4"/>
@@ -4057,18 +4123,21 @@
       <c r="AT23" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AU23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -4206,18 +4275,21 @@
       <c r="AT24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -4355,18 +4427,21 @@
       <c r="AT25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -4504,8 +4579,11 @@
       <c r="AT26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -4587,8 +4665,11 @@
       <c r="AT27" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="AU27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -4604,8 +4685,11 @@
       <c r="AT28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AU28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -4619,6 +4703,9 @@
         <v>7</v>
       </c>
       <c r="AT29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3909808E-2B54-4F40-9AD9-278BBFDBEF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C7CB5D-3A33-604D-8FAE-16AE65D08ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -167,10 +167,10 @@
     <t>REP</t>
   </si>
   <si>
-    <t>Malik Boussaïd</t>
+    <t>Kamal Bafounta</t>
   </si>
   <si>
-    <t>Kamal Bafounta</t>
+    <t>Malik Boussaid</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW25" sqref="AW25"/>
+      <selection pane="topRight" activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AQ28" s="4" t="s">
         <v>42</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AQ29" s="4" t="s">
         <v>7</v>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C7CB5D-3A33-604D-8FAE-16AE65D08ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F46D3DD-F97C-6740-B33B-997866DFC599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="45">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -628,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AU29"/>
+  <dimension ref="A1:AV29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY28" sqref="AY28"/>
+      <selection pane="topRight" activeCell="AX24" sqref="AX24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,18 +782,21 @@
       <c r="AU1" s="5">
         <v>45916</v>
       </c>
+      <c r="AV1" s="5">
+        <v>45917</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -934,18 +937,21 @@
       <c r="AU2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1086,18 +1092,21 @@
       <c r="AU3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1238,14 +1247,17 @@
       <c r="AU4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1261,7 +1273,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1390,14 +1402,17 @@
       <c r="AU5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AV5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1413,7 +1428,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -1542,18 +1557,21 @@
       <c r="AU6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AV6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -1694,18 +1712,21 @@
       <c r="AU7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -1846,18 +1867,21 @@
       <c r="AU8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -1998,14 +2022,17 @@
       <c r="AU9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
@@ -2021,7 +2048,7 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="5"/>
@@ -2150,18 +2177,21 @@
       <c r="AU10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AV10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -2302,18 +2332,21 @@
       <c r="AU11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="4"/>
@@ -2454,14 +2487,17 @@
       <c r="AU12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2477,7 +2513,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -2606,18 +2642,21 @@
       <c r="AU13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AV13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -2758,18 +2797,21 @@
       <c r="AU14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -2910,18 +2952,21 @@
       <c r="AU15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -3062,18 +3107,21 @@
       <c r="AU16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -3214,18 +3262,21 @@
       <c r="AU17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -3366,18 +3417,21 @@
       <c r="AU18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -3518,18 +3572,21 @@
       <c r="AU19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -3670,18 +3727,21 @@
       <c r="AU20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="4"/>
@@ -3822,18 +3882,21 @@
       <c r="AU21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AV21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -3974,18 +4037,21 @@
       <c r="AU22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="4"/>
@@ -4126,18 +4192,21 @@
       <c r="AU23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -4278,18 +4347,21 @@
       <c r="AU24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -4430,18 +4502,21 @@
       <c r="AU25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -4582,8 +4657,11 @@
       <c r="AU26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -4668,8 +4746,11 @@
       <c r="AU27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -4688,8 +4769,11 @@
       <c r="AU28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AV28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -4706,6 +4790,9 @@
         <v>7</v>
       </c>
       <c r="AU29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F46D3DD-F97C-6740-B33B-997866DFC599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A395C90A-E07B-F340-9BEA-F647754C516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="45">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -628,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AV29"/>
+  <dimension ref="A1:AW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AX24" sqref="AX24"/>
+      <pane xSplit="1" topLeftCell="AV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY27" sqref="AY27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,18 +785,21 @@
       <c r="AV1" s="5">
         <v>45917</v>
       </c>
+      <c r="AW1" s="5">
+        <v>45918</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -940,18 +943,21 @@
       <c r="AV2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1095,18 +1101,21 @@
       <c r="AV3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1250,14 +1259,17 @@
       <c r="AV4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1273,7 +1285,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1405,14 +1417,17 @@
       <c r="AV5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AW5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1428,7 +1443,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -1560,18 +1575,21 @@
       <c r="AV6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AW6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -1715,18 +1733,21 @@
       <c r="AV7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -1870,18 +1891,21 @@
       <c r="AV8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2025,14 +2049,17 @@
       <c r="AV9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
@@ -2048,7 +2075,7 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="5"/>
@@ -2180,14 +2207,17 @@
       <c r="AV10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AW10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
@@ -2195,7 +2225,7 @@
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
@@ -2335,18 +2365,21 @@
       <c r="AV11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW11" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="4"/>
@@ -2490,14 +2523,17 @@
       <c r="AV12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2513,7 +2549,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -2645,18 +2681,21 @@
       <c r="AV13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AW13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -2800,18 +2839,21 @@
       <c r="AV14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -2955,18 +2997,21 @@
       <c r="AV15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -3110,18 +3155,21 @@
       <c r="AV16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -3265,18 +3313,21 @@
       <c r="AV17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -3420,18 +3471,21 @@
       <c r="AV18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -3575,18 +3629,21 @@
       <c r="AV19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -3730,14 +3787,17 @@
       <c r="AV20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -3753,7 +3813,7 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
@@ -3885,18 +3945,21 @@
       <c r="AV21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -4040,14 +4103,17 @@
       <c r="AV22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -4063,7 +4129,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -4195,18 +4261,21 @@
       <c r="AV23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -4350,18 +4419,21 @@
       <c r="AV24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -4505,18 +4577,21 @@
       <c r="AV25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -4660,8 +4735,11 @@
       <c r="AV26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -4749,8 +4827,11 @@
       <c r="AV27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -4772,8 +4853,11 @@
       <c r="AV28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AW28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -4793,6 +4877,9 @@
         <v>7</v>
       </c>
       <c r="AV29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A395C90A-E07B-F340-9BEA-F647754C516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1599AC-82D2-3D4C-81C1-2DE26A884FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="45">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -628,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AW29"/>
+  <dimension ref="A1:AX29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY27" sqref="AY27"/>
+      <selection pane="topRight" activeCell="AZ24" sqref="AZ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,18 +788,21 @@
       <c r="AW1" s="5">
         <v>45918</v>
       </c>
+      <c r="AX1" s="5">
+        <v>45919</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -946,18 +949,21 @@
       <c r="AW2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1104,18 +1110,21 @@
       <c r="AW3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1262,14 +1271,17 @@
       <c r="AW4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1285,7 +1297,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1420,14 +1432,17 @@
       <c r="AW5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AX5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1443,7 +1458,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -1578,18 +1593,21 @@
       <c r="AW6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AX6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -1736,18 +1754,21 @@
       <c r="AW7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -1894,18 +1915,21 @@
       <c r="AW8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2052,14 +2076,17 @@
       <c r="AW9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
@@ -2075,7 +2102,7 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="5"/>
@@ -2210,18 +2237,21 @@
       <c r="AW10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AX10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -2368,18 +2398,21 @@
       <c r="AW11" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="AX11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="4"/>
@@ -2526,14 +2559,17 @@
       <c r="AW12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX12" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2549,7 +2585,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -2684,18 +2720,21 @@
       <c r="AW13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AX13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -2842,18 +2881,21 @@
       <c r="AW14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3000,18 +3042,21 @@
       <c r="AW15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -3158,18 +3203,21 @@
       <c r="AW16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -3316,18 +3364,21 @@
       <c r="AW17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -3474,18 +3525,21 @@
       <c r="AW18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -3632,18 +3686,21 @@
       <c r="AW19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -3790,14 +3847,17 @@
       <c r="AW20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -3821,7 +3881,7 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="7"/>
@@ -3948,18 +4008,21 @@
       <c r="AW21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AX21" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -4106,14 +4169,17 @@
       <c r="AW22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -4129,7 +4195,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -4264,18 +4330,21 @@
       <c r="AW23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AX23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -4422,18 +4491,21 @@
       <c r="AW24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -4580,18 +4652,21 @@
       <c r="AW25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -4738,8 +4813,11 @@
       <c r="AW26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -4830,8 +4908,11 @@
       <c r="AW27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX27" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -4856,8 +4937,11 @@
       <c r="AW28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AX28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -4880,6 +4964,9 @@
         <v>7</v>
       </c>
       <c r="AW29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1599AC-82D2-3D4C-81C1-2DE26A884FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED37E09-339E-B646-96E4-204AD7D9164E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="45">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -628,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AX29"/>
+  <dimension ref="A1:AY29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ24" sqref="AZ24"/>
+      <pane xSplit="1" topLeftCell="AW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BA24" sqref="BA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,18 +791,21 @@
       <c r="AX1" s="5">
         <v>45919</v>
       </c>
+      <c r="AY1" s="5">
+        <v>45922</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -952,14 +955,17 @@
       <c r="AX2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
@@ -975,7 +981,7 @@
       </c>
       <c r="F3" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G26" si="5">COUNTIF(K3:VT3,"M")</f>
@@ -1113,18 +1119,21 @@
       <c r="AX3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY3" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1274,14 +1283,17 @@
       <c r="AX4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1297,7 +1309,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1435,18 +1447,21 @@
       <c r="AX5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AY5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -1596,18 +1611,21 @@
       <c r="AX6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AY6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -1757,18 +1775,21 @@
       <c r="AX7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -1918,18 +1939,21 @@
       <c r="AX8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2079,14 +2103,17 @@
       <c r="AX9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
@@ -2102,7 +2129,7 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="5"/>
@@ -2240,14 +2267,17 @@
       <c r="AX10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AY10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
@@ -2263,7 +2293,7 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="5"/>
@@ -2401,8 +2431,11 @@
       <c r="AX11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2563,13 +2596,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2585,7 +2618,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -2723,18 +2756,21 @@
       <c r="AX13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AY13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -2884,18 +2920,21 @@
       <c r="AX14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3045,18 +3084,21 @@
       <c r="AX15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -3206,18 +3248,21 @@
       <c r="AX16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -3367,18 +3412,21 @@
       <c r="AX17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -3528,18 +3576,21 @@
       <c r="AX18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -3689,18 +3740,21 @@
       <c r="AX19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -3850,14 +3904,17 @@
       <c r="AX20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -3873,7 +3930,7 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
@@ -4011,18 +4068,21 @@
       <c r="AX21" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="AY21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -4172,18 +4232,21 @@
       <c r="AX22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="4"/>
@@ -4333,18 +4396,21 @@
       <c r="AX23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AY23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -4494,14 +4560,17 @@
       <c r="AX24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -4517,7 +4586,7 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="5"/>
@@ -4655,18 +4724,21 @@
       <c r="AX25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -4816,8 +4888,11 @@
       <c r="AX26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -4911,8 +4986,11 @@
       <c r="AX27" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="AY27" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -4940,8 +5018,11 @@
       <c r="AX28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AY28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -4967,6 +5048,9 @@
         <v>7</v>
       </c>
       <c r="AX29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED37E09-339E-B646-96E4-204AD7D9164E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9B3B62-DC3C-4947-B9E1-7D105E3F0F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="45">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -628,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:AY29"/>
+  <dimension ref="A1:BA29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BA24" sqref="BA24"/>
+      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BD16" sqref="BD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,18 +794,24 @@
       <c r="AY1" s="5">
         <v>45922</v>
       </c>
+      <c r="AZ1" s="5">
+        <v>45923</v>
+      </c>
+      <c r="BA1" s="5">
+        <v>45924</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -958,18 +964,24 @@
       <c r="AY2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1122,18 +1134,24 @@
       <c r="AY3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AZ3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1286,14 +1304,20 @@
       <c r="AY4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1321,7 +1345,7 @@
       </c>
       <c r="I5" s="4">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="8"/>
@@ -1450,14 +1474,20 @@
       <c r="AY5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AZ5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1477,7 +1507,7 @@
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="6"/>
@@ -1614,18 +1644,24 @@
       <c r="AY6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -1778,18 +1814,24 @@
       <c r="AY7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -1942,18 +1984,24 @@
       <c r="AY8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -1969,7 +2017,7 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="6"/>
@@ -2106,14 +2154,20 @@
       <c r="AY9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
@@ -2141,7 +2195,7 @@
       </c>
       <c r="I10" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="8"/>
@@ -2270,14 +2324,20 @@
       <c r="AY10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AZ10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA10" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
@@ -2293,7 +2353,7 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="5"/>
@@ -2434,8 +2494,14 @@
       <c r="AY11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AZ11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2596,13 +2662,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2618,7 +2684,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -2759,18 +2825,24 @@
       <c r="AY13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AZ13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -2923,14 +2995,20 @@
       <c r="AY14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
@@ -2950,7 +3028,7 @@
       </c>
       <c r="G15" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="6"/>
@@ -3087,18 +3165,24 @@
       <c r="AY15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA15" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -3251,18 +3335,24 @@
       <c r="AY16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -3415,18 +3505,24 @@
       <c r="AY17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -3579,18 +3675,24 @@
       <c r="AY18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -3743,18 +3845,24 @@
       <c r="AY19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -3907,14 +4015,20 @@
       <c r="AY20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -3930,7 +4044,7 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
@@ -4071,18 +4185,24 @@
       <c r="AY21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AZ21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -4235,18 +4355,24 @@
       <c r="AY22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="4"/>
@@ -4399,18 +4525,24 @@
       <c r="AY23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -4563,14 +4695,20 @@
       <c r="AY24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -4586,7 +4724,7 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="5"/>
@@ -4727,18 +4865,24 @@
       <c r="AY25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="AZ25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -4891,8 +5035,14 @@
       <c r="AY26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -4989,8 +5139,14 @@
       <c r="AY27" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="AZ27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -5021,8 +5177,14 @@
       <c r="AY28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="AZ28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5051,6 +5213,12 @@
         <v>7</v>
       </c>
       <c r="AY29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9B3B62-DC3C-4947-B9E1-7D105E3F0F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0175830-39CF-8D40-BB14-AD49FA86C0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="45">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -628,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BA29"/>
+  <dimension ref="A1:BB29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BD16" sqref="BD16"/>
+      <selection pane="topRight" activeCell="BD24" sqref="BD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,18 +800,21 @@
       <c r="BA1" s="5">
         <v>45924</v>
       </c>
+      <c r="BB1" s="5">
+        <v>45926</v>
+      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -970,18 +973,21 @@
       <c r="BA2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1140,18 +1146,21 @@
       <c r="BA3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1310,14 +1319,17 @@
       <c r="BA4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1345,7 +1357,7 @@
       </c>
       <c r="I5" s="4">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="8"/>
@@ -1480,14 +1492,17 @@
       <c r="BA5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BB5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1507,7 +1522,7 @@
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="6"/>
@@ -1650,18 +1665,21 @@
       <c r="BA6" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="BB6" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -1820,18 +1838,21 @@
       <c r="BA7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -1990,18 +2011,21 @@
       <c r="BA8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2160,14 +2184,17 @@
       <c r="BA9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
@@ -2195,7 +2222,7 @@
       </c>
       <c r="I10" s="4">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="8"/>
@@ -2330,14 +2357,17 @@
       <c r="BA10" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BB10" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
@@ -2353,7 +2383,7 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="5"/>
@@ -2500,8 +2530,11 @@
       <c r="BA11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BB11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2662,13 +2695,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2684,7 +2717,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -2831,18 +2864,21 @@
       <c r="BA13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BB13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3001,18 +3037,21 @@
       <c r="BA14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3171,18 +3210,21 @@
       <c r="BA15" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="BB15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -3341,18 +3383,21 @@
       <c r="BA16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -3511,18 +3556,21 @@
       <c r="BA17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -3681,18 +3729,21 @@
       <c r="BA18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -3851,18 +3902,21 @@
       <c r="BA19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -4021,14 +4075,17 @@
       <c r="BA20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -4044,7 +4101,7 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
@@ -4191,18 +4248,21 @@
       <c r="BA21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BB21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -4361,14 +4421,17 @@
       <c r="BA22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -4384,7 +4447,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -4531,18 +4594,21 @@
       <c r="BA23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -4701,14 +4767,17 @@
       <c r="BA24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -4724,7 +4793,7 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="5"/>
@@ -4871,18 +4940,21 @@
       <c r="BA25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BB25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -5041,8 +5113,11 @@
       <c r="BA26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -5145,8 +5220,11 @@
       <c r="BA27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB27" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -5183,8 +5261,11 @@
       <c r="BA28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BB28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5220,6 +5301,9 @@
       </c>
       <c r="BA29" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="BB29" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0175830-39CF-8D40-BB14-AD49FA86C0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8F16DA-7CB5-504E-973B-C9DDFD923E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="45">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -628,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BB29"/>
+  <dimension ref="A1:BC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BD24" sqref="BD24"/>
+      <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BF8" sqref="BF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,18 +803,21 @@
       <c r="BB1" s="5">
         <v>45926</v>
       </c>
+      <c r="BC1" s="5">
+        <v>45930</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -976,18 +979,21 @@
       <c r="BB2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BC2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1149,18 +1155,21 @@
       <c r="BB3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BC3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1322,14 +1331,17 @@
       <c r="BB4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BC4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1357,7 +1369,7 @@
       </c>
       <c r="I5" s="4">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="8"/>
@@ -1495,18 +1507,21 @@
       <c r="BB5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BC5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -1668,18 +1683,21 @@
       <c r="BB6" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="BC6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -1841,18 +1859,21 @@
       <c r="BB7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BC7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2014,18 +2035,21 @@
       <c r="BB8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BC8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2187,18 +2211,21 @@
       <c r="BB9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BC9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2360,18 +2387,21 @@
       <c r="BB10" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BC10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -2533,8 +2563,11 @@
       <c r="BB11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BC11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2695,13 +2728,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2717,7 +2750,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -2867,18 +2900,21 @@
       <c r="BB13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BC13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3040,18 +3076,21 @@
       <c r="BB14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BC14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3213,18 +3252,21 @@
       <c r="BB15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BC15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -3386,18 +3428,21 @@
       <c r="BB16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BC16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -3559,18 +3604,21 @@
       <c r="BB17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BC17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -3732,18 +3780,21 @@
       <c r="BB18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BC18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -3905,18 +3956,21 @@
       <c r="BB19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BC19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -4078,18 +4132,21 @@
       <c r="BB20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BC20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="4"/>
@@ -4251,18 +4308,21 @@
       <c r="BB21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BC21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -4424,14 +4484,17 @@
       <c r="BB22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BC22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -4447,7 +4510,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -4597,18 +4660,21 @@
       <c r="BB23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BC23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -4770,18 +4836,21 @@
       <c r="BB24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BC24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -4943,18 +5012,21 @@
       <c r="BB25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BC25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -5116,8 +5188,11 @@
       <c r="BB26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BC26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -5223,8 +5298,11 @@
       <c r="BB27" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="BC27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -5264,8 +5342,11 @@
       <c r="BB28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BC28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5304,6 +5385,9 @@
       </c>
       <c r="BB29" s="4" t="s">
         <v>38</v>
+      </c>
+      <c r="BC29" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8F16DA-7CB5-504E-973B-C9DDFD923E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E636D5-5A70-5645-BDA5-878A160E082B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="45">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -628,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BC29"/>
+  <dimension ref="A1:BD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BF8" sqref="BF8"/>
+      <pane xSplit="1" topLeftCell="BC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BF23" sqref="BF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,18 +806,21 @@
       <c r="BC1" s="5">
         <v>45930</v>
       </c>
+      <c r="BD1" s="5">
+        <v>45931</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -982,18 +985,21 @@
       <c r="BC2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1158,18 +1164,21 @@
       <c r="BC3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1334,14 +1343,17 @@
       <c r="BC4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1369,7 +1381,7 @@
       </c>
       <c r="I5" s="4">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="8"/>
@@ -1510,18 +1522,21 @@
       <c r="BC5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BD5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -1686,18 +1701,21 @@
       <c r="BC6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -1862,18 +1880,21 @@
       <c r="BC7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2038,18 +2059,21 @@
       <c r="BC8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2214,18 +2238,21 @@
       <c r="BC9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2390,18 +2417,21 @@
       <c r="BC10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -2566,8 +2596,11 @@
       <c r="BC11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2728,13 +2761,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2750,7 +2783,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -2903,18 +2936,21 @@
       <c r="BC13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BD13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3079,18 +3115,21 @@
       <c r="BC14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3255,18 +3294,21 @@
       <c r="BC15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -3431,18 +3473,21 @@
       <c r="BC16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -3607,18 +3652,21 @@
       <c r="BC17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -3783,18 +3831,21 @@
       <c r="BC18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -3959,18 +4010,21 @@
       <c r="BC19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -4135,18 +4189,21 @@
       <c r="BC20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="4"/>
@@ -4311,18 +4368,21 @@
       <c r="BC21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD21" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -4487,14 +4547,17 @@
       <c r="BC22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -4510,7 +4573,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -4663,18 +4726,21 @@
       <c r="BC23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BD23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -4839,18 +4905,21 @@
       <c r="BC24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -5015,18 +5084,21 @@
       <c r="BC25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -5191,8 +5263,11 @@
       <c r="BC26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -5301,8 +5376,11 @@
       <c r="BC27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -5345,8 +5423,11 @@
       <c r="BC28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BD28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5387,6 +5468,9 @@
         <v>38</v>
       </c>
       <c r="BC29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BD29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E636D5-5A70-5645-BDA5-878A160E082B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA025A9-EB8D-484A-BFF2-E3B2E823CD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="45">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -628,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BD29"/>
+  <dimension ref="A1:BF29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BF23" sqref="BF23"/>
+      <pane xSplit="1" topLeftCell="BE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BH25" sqref="BH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,18 +809,24 @@
       <c r="BD1" s="5">
         <v>45931</v>
       </c>
+      <c r="BE1" s="5">
+        <v>45932</v>
+      </c>
+      <c r="BF1" s="5">
+        <v>45933</v>
+      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -988,18 +994,24 @@
       <c r="BD2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1019,7 +1031,7 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VU3,"R")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I26" si="7">COUNTIF(K3:VV3,"RH")</f>
@@ -1167,18 +1179,24 @@
       <c r="BD3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1346,14 +1364,20 @@
       <c r="BD4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1381,7 +1405,7 @@
       </c>
       <c r="I5" s="4">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="8"/>
@@ -1525,18 +1549,24 @@
       <c r="BD5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BE5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -1704,18 +1734,24 @@
       <c r="BD6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -1883,18 +1919,24 @@
       <c r="BD7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -1914,7 +1956,7 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="7"/>
@@ -2062,18 +2104,24 @@
       <c r="BD8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF8" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2241,18 +2289,24 @@
       <c r="BD9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2420,18 +2474,24 @@
       <c r="BD10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -2599,8 +2659,14 @@
       <c r="BD11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2761,13 +2827,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2783,7 +2849,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -2939,18 +3005,24 @@
       <c r="BD13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3118,18 +3190,24 @@
       <c r="BD14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3297,18 +3375,24 @@
       <c r="BD15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -3476,18 +3560,24 @@
       <c r="BD16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -3655,18 +3745,24 @@
       <c r="BD17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -3834,18 +3930,24 @@
       <c r="BD18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -4013,18 +4115,24 @@
       <c r="BD19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -4192,14 +4300,20 @@
       <c r="BD20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -4215,7 +4329,7 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
@@ -4371,18 +4485,24 @@
       <c r="BD21" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -4550,14 +4670,20 @@
       <c r="BD22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -4573,7 +4699,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -4729,18 +4855,24 @@
       <c r="BD23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BE23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -4908,18 +5040,24 @@
       <c r="BD24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -5087,18 +5225,24 @@
       <c r="BD25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -5266,8 +5410,14 @@
       <c r="BD26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -5379,8 +5529,14 @@
       <c r="BD27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF27" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -5426,8 +5582,14 @@
       <c r="BD28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BE28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5471,6 +5633,12 @@
         <v>7</v>
       </c>
       <c r="BD29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA025A9-EB8D-484A-BFF2-E3B2E823CD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C08CC8-C55B-814C-91F0-893F496FEA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="45">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -628,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BF29"/>
+  <dimension ref="A1:BG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH25" sqref="BH25"/>
+      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG29" sqref="BG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,18 +815,21 @@
       <c r="BF1" s="5">
         <v>45933</v>
       </c>
+      <c r="BG1" s="5">
+        <v>45937</v>
+      </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1000,14 +1003,17 @@
       <c r="BF2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
@@ -1031,7 +1037,7 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VU3,"R")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I26" si="7">COUNTIF(K3:VV3,"RH")</f>
@@ -1185,18 +1191,21 @@
       <c r="BF3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BG3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1370,18 +1379,21 @@
       <c r="BF4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -1555,18 +1567,21 @@
       <c r="BF5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BG5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -1740,18 +1755,21 @@
       <c r="BF6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -1925,14 +1943,17 @@
       <c r="BF7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -1948,7 +1969,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -2110,18 +2131,21 @@
       <c r="BF8" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BG8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2295,18 +2319,21 @@
       <c r="BF9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2480,18 +2507,21 @@
       <c r="BF10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -2665,8 +2695,11 @@
       <c r="BF11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2827,13 +2860,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2849,7 +2882,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3011,18 +3044,21 @@
       <c r="BF13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3196,18 +3232,21 @@
       <c r="BF14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3381,14 +3420,17 @@
       <c r="BF15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
@@ -3404,7 +3446,7 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="5"/>
@@ -3566,18 +3608,21 @@
       <c r="BF16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -3751,18 +3796,21 @@
       <c r="BF17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -3936,14 +3984,17 @@
       <c r="BF18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
@@ -3963,7 +4014,7 @@
       </c>
       <c r="G19" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="6"/>
@@ -4121,18 +4172,21 @@
       <c r="BF19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG19" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -4306,14 +4360,17 @@
       <c r="BF20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -4333,7 +4390,7 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="6"/>
@@ -4491,18 +4548,21 @@
       <c r="BF21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG21" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -4676,14 +4736,17 @@
       <c r="BF22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -4699,7 +4762,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -4861,18 +4924,21 @@
       <c r="BF23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BG23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -5046,18 +5112,21 @@
       <c r="BF24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -5231,18 +5300,21 @@
       <c r="BF25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -5416,8 +5488,11 @@
       <c r="BF26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -5535,8 +5610,11 @@
       <c r="BF27" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="BG27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -5588,8 +5666,11 @@
       <c r="BF28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BG28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5640,6 +5721,15 @@
       </c>
       <c r="BF29" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="BG29" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BG30">
+        <f>COUNTIF(BG5:BG29,"P")</f>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C08CC8-C55B-814C-91F0-893F496FEA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C5119D-7C40-FB41-8DB1-4AD1A33F11C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="45">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -628,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BG30"/>
+  <dimension ref="A1:BH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG29" sqref="BG29"/>
+      <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BJ24" sqref="BJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,18 +818,21 @@
       <c r="BG1" s="5">
         <v>45937</v>
       </c>
+      <c r="BH1" s="5">
+        <v>45938</v>
+      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1006,14 +1009,17 @@
       <c r="BG2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
@@ -1037,7 +1043,7 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VU3,"R")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I26" si="7">COUNTIF(K3:VV3,"RH")</f>
@@ -1194,18 +1200,21 @@
       <c r="BG3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BH3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1382,18 +1391,21 @@
       <c r="BG4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -1570,18 +1582,21 @@
       <c r="BG5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -1758,18 +1773,21 @@
       <c r="BG6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -1946,14 +1964,17 @@
       <c r="BG7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -1969,7 +1990,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -2134,18 +2155,21 @@
       <c r="BG8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BH8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2322,18 +2346,21 @@
       <c r="BG9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2510,18 +2537,21 @@
       <c r="BG10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -2698,8 +2728,11 @@
       <c r="BG11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2860,13 +2893,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2882,7 +2915,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3047,18 +3080,21 @@
       <c r="BG13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BH13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3235,18 +3271,21 @@
       <c r="BG14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3423,18 +3462,21 @@
       <c r="BG15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -3611,14 +3653,17 @@
       <c r="BG16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BH16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -3634,7 +3679,7 @@
       </c>
       <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="5"/>
@@ -3799,18 +3844,21 @@
       <c r="BG17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -3987,18 +4035,21 @@
       <c r="BG18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -4175,18 +4226,21 @@
       <c r="BG19" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="BH19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -4363,14 +4417,17 @@
       <c r="BG20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -4390,7 +4447,7 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="6"/>
@@ -4551,18 +4608,21 @@
       <c r="BG21" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="BH21" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -4739,14 +4799,17 @@
       <c r="BG22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -4762,7 +4825,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -4927,18 +4990,21 @@
       <c r="BG23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BH23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -5115,18 +5181,21 @@
       <c r="BG24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -5303,18 +5372,21 @@
       <c r="BG25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -5491,8 +5563,11 @@
       <c r="BG26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -5613,8 +5688,11 @@
       <c r="BG27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -5669,8 +5747,11 @@
       <c r="BG28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BH28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5725,11 +5806,8 @@
       <c r="BG29" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="BG30">
-        <f>COUNTIF(BG5:BG29,"P")</f>
-        <v>18</v>
+      <c r="BH29" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C5119D-7C40-FB41-8DB1-4AD1A33F11C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB99E4C-A829-A64E-91FE-48333066EAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="45">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -628,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BH29"/>
+  <dimension ref="A1:BI29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BJ24" sqref="BJ24"/>
+      <selection pane="topRight" activeCell="BJ25" sqref="BJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,18 +821,21 @@
       <c r="BH1" s="5">
         <v>45938</v>
       </c>
+      <c r="BI1" s="5">
+        <v>45939</v>
+      </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1012,14 +1015,17 @@
       <c r="BH2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
@@ -1043,7 +1049,7 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VU3,"R")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I26" si="7">COUNTIF(K3:VV3,"RH")</f>
@@ -1203,18 +1209,21 @@
       <c r="BH3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BI3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1394,18 +1403,21 @@
       <c r="BH4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -1585,14 +1597,17 @@
       <c r="BH5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1604,7 +1619,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
@@ -1776,18 +1791,21 @@
       <c r="BH6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI6" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -1967,14 +1985,17 @@
       <c r="BH7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -1990,7 +2011,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -2158,18 +2179,21 @@
       <c r="BH8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BI8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2349,18 +2373,21 @@
       <c r="BH9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2540,18 +2567,21 @@
       <c r="BH10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -2731,8 +2761,11 @@
       <c r="BH11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2893,13 +2926,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2915,7 +2948,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3083,18 +3116,21 @@
       <c r="BH13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BI13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3274,18 +3310,21 @@
       <c r="BH14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3465,18 +3504,21 @@
       <c r="BH15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -3656,14 +3698,17 @@
       <c r="BH16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -3679,7 +3724,7 @@
       </c>
       <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="5"/>
@@ -3847,18 +3892,21 @@
       <c r="BH17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BI17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -4038,18 +4086,21 @@
       <c r="BH18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -4229,14 +4280,17 @@
       <c r="BH19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
@@ -4256,7 +4310,7 @@
       </c>
       <c r="G20" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="6"/>
@@ -4420,14 +4474,17 @@
       <c r="BH20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI20" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -4447,7 +4504,7 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="6"/>
@@ -4611,18 +4668,21 @@
       <c r="BH21" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="BI21" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -4802,14 +4862,17 @@
       <c r="BH22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -4825,7 +4888,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -4993,18 +5056,21 @@
       <c r="BH23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BI23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -5184,18 +5250,21 @@
       <c r="BH24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -5375,18 +5444,21 @@
       <c r="BH25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -5566,8 +5638,11 @@
       <c r="BH26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -5691,8 +5766,11 @@
       <c r="BH27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -5750,8 +5828,11 @@
       <c r="BH28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BI28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5807,6 +5888,9 @@
         <v>7</v>
       </c>
       <c r="BH29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB99E4C-A829-A64E-91FE-48333066EAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90E0BB0-275E-B24A-997B-C006FED5E689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="45">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -628,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BI29"/>
+  <dimension ref="A1:BJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BJ25" sqref="BJ25"/>
+      <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BM4" sqref="BM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,18 +824,21 @@
       <c r="BI1" s="5">
         <v>45939</v>
       </c>
+      <c r="BJ1" s="5">
+        <v>45941</v>
+      </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1018,18 +1021,21 @@
       <c r="BI2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1049,7 +1055,7 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VU3,"R")</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I26" si="7">COUNTIF(K3:VV3,"RH")</f>
@@ -1204,26 +1210,29 @@
         <v>40</v>
       </c>
       <c r="BG3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BH3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="BI3" s="4" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1406,18 +1415,21 @@
       <c r="BI4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -1600,14 +1612,17 @@
       <c r="BI5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1615,7 +1630,7 @@
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
@@ -1794,18 +1809,21 @@
       <c r="BI6" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="BJ6" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -1988,14 +2006,17 @@
       <c r="BI7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -2011,7 +2032,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -2182,18 +2203,21 @@
       <c r="BI8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2376,18 +2400,21 @@
       <c r="BI9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2570,18 +2597,21 @@
       <c r="BI10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -2764,8 +2794,11 @@
       <c r="BI11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2926,13 +2959,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2948,7 +2981,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3119,18 +3152,21 @@
       <c r="BI13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3313,18 +3349,21 @@
       <c r="BI14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3507,18 +3546,21 @@
       <c r="BI15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -3701,14 +3743,17 @@
       <c r="BI16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -3724,7 +3769,7 @@
       </c>
       <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="5"/>
@@ -3895,18 +3940,21 @@
       <c r="BI17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -4089,18 +4137,21 @@
       <c r="BI18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -4283,18 +4334,21 @@
       <c r="BI19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -4477,14 +4531,17 @@
       <c r="BI20" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="BJ20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -4504,7 +4561,7 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="6"/>
@@ -4671,18 +4728,21 @@
       <c r="BI21" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="BJ21" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -4865,14 +4925,17 @@
       <c r="BI22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -4888,7 +4951,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -5059,18 +5122,21 @@
       <c r="BI23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BJ23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -5253,18 +5319,21 @@
       <c r="BI24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -5447,18 +5516,21 @@
       <c r="BI25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -5641,8 +5713,11 @@
       <c r="BI26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -5769,8 +5844,11 @@
       <c r="BI27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -5831,8 +5909,11 @@
       <c r="BI28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BJ28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5891,6 +5972,9 @@
         <v>7</v>
       </c>
       <c r="BI29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90E0BB0-275E-B24A-997B-C006FED5E689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258F66F3-1B35-1540-9A35-96CFC688139A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Malik Boussaid</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -628,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BJ29"/>
+  <dimension ref="A1:BL29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM4" sqref="BM4"/>
+      <pane xSplit="1" topLeftCell="BH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BN22" sqref="BN22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:64" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,18 +830,24 @@
       <c r="BJ1" s="5">
         <v>45941</v>
       </c>
+      <c r="BK1" s="5">
+        <v>45944</v>
+      </c>
+      <c r="BL1" s="5">
+        <v>45945</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1024,18 +1033,24 @@
       <c r="BJ2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1221,18 +1236,24 @@
       <c r="BJ3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BK3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1418,18 +1439,24 @@
       <c r="BJ4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -1615,18 +1642,24 @@
       <c r="BJ5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -1812,18 +1845,24 @@
       <c r="BJ6" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="BK6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2009,14 +2048,20 @@
       <c r="BJ7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -2032,7 +2077,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -2206,18 +2251,24 @@
       <c r="BJ8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BK8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BL8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2403,18 +2454,24 @@
       <c r="BJ9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2600,18 +2657,24 @@
       <c r="BJ10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -2797,8 +2860,14 @@
       <c r="BJ11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2959,13 +3028,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -2981,7 +3050,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3155,18 +3224,24 @@
       <c r="BJ13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BK13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BL13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3352,18 +3427,24 @@
       <c r="BJ14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3549,18 +3630,24 @@
       <c r="BJ15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -3746,14 +3833,20 @@
       <c r="BJ16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -3769,7 +3862,7 @@
       </c>
       <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="5"/>
@@ -3943,18 +4036,24 @@
       <c r="BJ17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BK17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BL17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -4140,18 +4239,24 @@
       <c r="BJ18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -4337,18 +4442,24 @@
       <c r="BJ19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -4534,18 +4645,24 @@
       <c r="BJ20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="4"/>
@@ -4731,18 +4848,24 @@
       <c r="BJ21" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="BK21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL21" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -4928,14 +5051,20 @@
       <c r="BJ22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -4951,7 +5080,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -5125,18 +5254,24 @@
       <c r="BJ23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BK23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BL23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -5322,18 +5457,24 @@
       <c r="BJ24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -5519,18 +5660,24 @@
       <c r="BJ25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -5716,8 +5863,14 @@
       <c r="BJ26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -5847,8 +6000,14 @@
       <c r="BJ27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -5912,8 +6071,14 @@
       <c r="BJ28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BK28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -5975,6 +6140,12 @@
         <v>7</v>
       </c>
       <c r="BJ29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BL29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258F66F3-1B35-1540-9A35-96CFC688139A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730489DD-0EFE-DF42-9F87-2E20661ECFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BL29"/>
+  <dimension ref="A1:BN29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BN22" sqref="BN22"/>
+      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BM30" sqref="BM30:BN30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,18 +836,24 @@
       <c r="BL1" s="5">
         <v>45945</v>
       </c>
+      <c r="BM1" s="5">
+        <v>45946</v>
+      </c>
+      <c r="BN1" s="5">
+        <v>45947</v>
+      </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1039,18 +1045,24 @@
       <c r="BL2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1070,7 +1082,7 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VU3,"R")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I26" si="7">COUNTIF(K3:VV3,"RH")</f>
@@ -1242,18 +1254,24 @@
       <c r="BL3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1445,18 +1463,24 @@
       <c r="BL4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -1648,18 +1672,24 @@
       <c r="BL5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -1667,7 +1697,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
@@ -1851,18 +1881,24 @@
       <c r="BL6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN6" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2054,14 +2090,20 @@
       <c r="BL7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -2077,7 +2119,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -2257,18 +2299,24 @@
       <c r="BL8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BM8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2460,18 +2508,24 @@
       <c r="BL9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2663,18 +2717,24 @@
       <c r="BL10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -2866,8 +2926,14 @@
       <c r="BL11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3028,13 +3094,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3050,7 +3116,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3230,18 +3296,24 @@
       <c r="BL13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BM13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3433,18 +3505,24 @@
       <c r="BL14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3636,18 +3714,24 @@
       <c r="BL15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -3839,14 +3923,20 @@
       <c r="BL16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -3862,7 +3952,7 @@
       </c>
       <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="5"/>
@@ -4042,18 +4132,24 @@
       <c r="BL17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BM17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN17" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -4245,18 +4341,24 @@
       <c r="BL18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -4448,18 +4550,24 @@
       <c r="BL19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -4651,18 +4759,24 @@
       <c r="BL20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="4"/>
@@ -4682,7 +4796,7 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="7"/>
@@ -4854,18 +4968,24 @@
       <c r="BL21" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="BM21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="BN21" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -5057,14 +5177,20 @@
       <c r="BL22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -5080,7 +5206,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -5260,14 +5386,20 @@
       <c r="BL23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BM23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
@@ -5283,7 +5415,7 @@
       </c>
       <c r="F24" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="5"/>
@@ -5463,18 +5595,24 @@
       <c r="BL24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -5666,18 +5804,24 @@
       <c r="BL25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -5869,8 +6013,14 @@
       <c r="BL26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -6006,8 +6156,14 @@
       <c r="BL27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -6077,8 +6233,14 @@
       <c r="BL28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BM28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -6146,6 +6308,12 @@
         <v>7</v>
       </c>
       <c r="BL29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730489DD-0EFE-DF42-9F87-2E20661ECFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880CD647-251F-5B43-BC69-11AAB38AE8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BN29"/>
+  <dimension ref="A1:BO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM30" sqref="BM30:BN30"/>
+      <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BQ26" sqref="BQ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:67" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,18 +842,21 @@
       <c r="BN1" s="5">
         <v>45947</v>
       </c>
+      <c r="BO1" s="5">
+        <v>45951</v>
+      </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1051,18 +1054,21 @@
       <c r="BN2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1260,18 +1266,21 @@
       <c r="BN3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BO3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1469,18 +1478,21 @@
       <c r="BN4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -1678,18 +1690,21 @@
       <c r="BN5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -1887,18 +1902,21 @@
       <c r="BN6" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="BO6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2096,14 +2114,17 @@
       <c r="BN7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -2119,7 +2140,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -2305,18 +2326,21 @@
       <c r="BN8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BO8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2514,18 +2538,21 @@
       <c r="BN9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2723,18 +2750,21 @@
       <c r="BN10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -2932,8 +2962,11 @@
       <c r="BN11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3094,13 +3127,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3116,7 +3149,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3302,18 +3335,21 @@
       <c r="BN13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BO13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3511,18 +3547,21 @@
       <c r="BN14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3720,18 +3759,21 @@
       <c r="BN15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -3929,14 +3971,17 @@
       <c r="BN16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -3964,7 +4009,7 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="8"/>
@@ -4138,18 +4183,21 @@
       <c r="BN17" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BO17" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -4347,14 +4395,17 @@
       <c r="BN18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
@@ -4370,7 +4421,7 @@
       </c>
       <c r="F19" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="5"/>
@@ -4556,18 +4607,21 @@
       <c r="BN19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -4765,14 +4819,17 @@
       <c r="BN20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -4788,7 +4845,7 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
@@ -4974,18 +5031,21 @@
       <c r="BN21" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BO21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -5183,14 +5243,17 @@
       <c r="BN22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -5206,7 +5269,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -5392,14 +5455,17 @@
       <c r="BN23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BO23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
@@ -5415,7 +5481,7 @@
       </c>
       <c r="F24" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="5"/>
@@ -5601,18 +5667,21 @@
       <c r="BN24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BO24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -5810,18 +5879,21 @@
       <c r="BN25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -6019,8 +6091,11 @@
       <c r="BN26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -6162,8 +6237,11 @@
       <c r="BN27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -6239,8 +6317,11 @@
       <c r="BN28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BO28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -6314,6 +6395,9 @@
         <v>7</v>
       </c>
       <c r="BN29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880CD647-251F-5B43-BC69-11AAB38AE8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7338BA-9E69-FF47-8526-4B8EE51FA700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BO29"/>
+  <dimension ref="A1:BP29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BQ26" sqref="BQ26"/>
+      <selection pane="topRight" activeCell="BS24" sqref="BS24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:68" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,18 +845,21 @@
       <c r="BO1" s="5">
         <v>45951</v>
       </c>
+      <c r="BP1" s="5">
+        <v>45952</v>
+      </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1057,18 +1060,21 @@
       <c r="BO2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1269,18 +1275,21 @@
       <c r="BO3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1481,18 +1490,21 @@
       <c r="BO4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -1693,14 +1705,17 @@
       <c r="BO5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1716,7 +1731,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -1905,18 +1920,21 @@
       <c r="BO6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2117,14 +2135,17 @@
       <c r="BO7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -2140,7 +2161,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -2329,18 +2350,21 @@
       <c r="BO8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2541,18 +2565,21 @@
       <c r="BO9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2753,18 +2780,21 @@
       <c r="BO10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -2965,8 +2995,11 @@
       <c r="BO11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3127,13 +3160,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3149,7 +3182,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3338,18 +3371,21 @@
       <c r="BO13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3550,18 +3586,21 @@
       <c r="BO14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3762,14 +3801,17 @@
       <c r="BO15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
@@ -3785,7 +3827,7 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="5"/>
@@ -3974,14 +4016,17 @@
       <c r="BO16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -4009,7 +4054,7 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="8"/>
@@ -4186,18 +4231,21 @@
       <c r="BO17" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BP17" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -4398,14 +4446,17 @@
       <c r="BO18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
@@ -4421,7 +4472,7 @@
       </c>
       <c r="F19" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="5"/>
@@ -4610,18 +4661,21 @@
       <c r="BO19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -4822,14 +4876,17 @@
       <c r="BO20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -4845,7 +4902,7 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
@@ -5034,18 +5091,21 @@
       <c r="BO21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -5246,14 +5306,17 @@
       <c r="BO22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -5269,7 +5332,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -5458,14 +5521,17 @@
       <c r="BO23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
@@ -5481,7 +5547,7 @@
       </c>
       <c r="F24" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="5"/>
@@ -5670,18 +5736,21 @@
       <c r="BO24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BP24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -5882,18 +5951,21 @@
       <c r="BO25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -6094,8 +6166,11 @@
       <c r="BO26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -6240,8 +6315,11 @@
       <c r="BO27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -6320,8 +6398,11 @@
       <c r="BO28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BP28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -6398,6 +6479,9 @@
         <v>7</v>
       </c>
       <c r="BO29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BP29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7338BA-9E69-FF47-8526-4B8EE51FA700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDCECEF-4752-0545-A12C-5D496C4B60C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BP29"/>
+  <dimension ref="A1:BQ29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BS24" sqref="BS24"/>
+      <selection pane="topRight" activeCell="BT25" sqref="BT25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:69" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,18 +848,21 @@
       <c r="BP1" s="5">
         <v>45952</v>
       </c>
+      <c r="BQ1" s="5">
+        <v>45954</v>
+      </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1063,18 +1066,21 @@
       <c r="BP2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BQ2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1278,18 +1284,21 @@
       <c r="BP3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BQ3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1493,18 +1502,21 @@
       <c r="BP4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BQ4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -1708,14 +1720,17 @@
       <c r="BP5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BQ5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1731,7 +1746,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -1923,18 +1938,21 @@
       <c r="BP6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2138,14 +2156,17 @@
       <c r="BP7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BQ7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -2161,7 +2182,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -2353,18 +2374,21 @@
       <c r="BP8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2568,18 +2592,21 @@
       <c r="BP9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BQ9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2783,18 +2810,21 @@
       <c r="BP10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BQ10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -2998,8 +3028,11 @@
       <c r="BP11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BQ11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3160,13 +3193,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3182,7 +3215,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3374,18 +3407,21 @@
       <c r="BP13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3589,18 +3625,21 @@
       <c r="BP14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BQ14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3804,18 +3843,21 @@
       <c r="BP15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BQ15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4019,14 +4061,17 @@
       <c r="BP16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
@@ -4054,7 +4099,7 @@
       </c>
       <c r="I17" s="4">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="8"/>
@@ -4234,18 +4279,21 @@
       <c r="BP17" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BQ17" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -4449,18 +4497,21 @@
       <c r="BP18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BQ18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -4664,18 +4715,21 @@
       <c r="BP19" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -4879,14 +4933,17 @@
       <c r="BP20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BQ20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -4902,7 +4959,7 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
@@ -5094,18 +5151,21 @@
       <c r="BP21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -5309,14 +5369,17 @@
       <c r="BP22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BQ22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -5332,7 +5395,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -5524,14 +5587,17 @@
       <c r="BP23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
@@ -5547,7 +5613,7 @@
       </c>
       <c r="F24" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="5"/>
@@ -5739,18 +5805,21 @@
       <c r="BP24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BQ24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -5954,18 +6023,21 @@
       <c r="BP25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BQ25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -6169,8 +6241,11 @@
       <c r="BP26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BQ26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -6318,8 +6393,11 @@
       <c r="BP27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BQ27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -6401,8 +6479,11 @@
       <c r="BP28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BQ28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -6482,6 +6563,9 @@
         <v>7</v>
       </c>
       <c r="BP29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDCECEF-4752-0545-A12C-5D496C4B60C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DB157B-B838-E242-A4B8-9DAAD785A8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BQ29"/>
+  <dimension ref="A1:BR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BT25" sqref="BT25"/>
+      <pane xSplit="1" topLeftCell="BO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BT27" sqref="BT27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,18 +851,21 @@
       <c r="BQ1" s="5">
         <v>45954</v>
       </c>
+      <c r="BR1" s="5">
+        <v>45958</v>
+      </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1069,18 +1072,21 @@
       <c r="BQ2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1287,18 +1293,21 @@
       <c r="BQ3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1505,18 +1514,21 @@
       <c r="BQ4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -1723,14 +1735,17 @@
       <c r="BQ5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1746,7 +1761,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -1941,18 +1956,21 @@
       <c r="BQ6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2159,14 +2177,17 @@
       <c r="BQ7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -2182,7 +2203,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -2377,18 +2398,21 @@
       <c r="BQ8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2595,18 +2619,21 @@
       <c r="BQ9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2813,18 +2840,21 @@
       <c r="BQ10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3031,8 +3061,11 @@
       <c r="BQ11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3193,13 +3226,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3215,7 +3248,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3410,18 +3443,21 @@
       <c r="BQ13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3628,18 +3664,21 @@
       <c r="BQ14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3846,18 +3885,21 @@
       <c r="BQ15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4064,18 +4106,21 @@
       <c r="BQ16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -4282,14 +4327,17 @@
       <c r="BQ17" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BR17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
@@ -4305,7 +4353,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="5"/>
@@ -4500,14 +4548,17 @@
       <c r="BQ18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
@@ -4519,7 +4570,7 @@
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="1"/>
@@ -4718,18 +4769,21 @@
       <c r="BQ19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR19" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -4936,14 +4990,17 @@
       <c r="BQ20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -4959,7 +5016,7 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
@@ -5154,18 +5211,21 @@
       <c r="BQ21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -5372,14 +5432,17 @@
       <c r="BQ22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -5407,7 +5470,7 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="8"/>
@@ -5590,18 +5653,21 @@
       <c r="BQ23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR23" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -5808,18 +5874,21 @@
       <c r="BQ24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BR24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -6026,18 +6095,21 @@
       <c r="BQ25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -6244,8 +6316,11 @@
       <c r="BQ26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -6396,8 +6471,11 @@
       <c r="BQ27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -6482,8 +6560,11 @@
       <c r="BQ28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BR28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -6566,6 +6647,9 @@
         <v>7</v>
       </c>
       <c r="BQ29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DB157B-B838-E242-A4B8-9DAAD785A8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF915323-29F3-654A-BA9A-8FCD8F274FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BR29"/>
+  <dimension ref="A1:BS29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BT27" sqref="BT27"/>
+      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BV17" sqref="BV17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,18 +854,21 @@
       <c r="BR1" s="5">
         <v>45958</v>
       </c>
+      <c r="BS1" s="5">
+        <v>45959</v>
+      </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1075,18 +1078,21 @@
       <c r="BR2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1296,18 +1302,21 @@
       <c r="BR3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1517,18 +1526,21 @@
       <c r="BR4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -1738,14 +1750,17 @@
       <c r="BR5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1761,7 +1776,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -1959,18 +1974,21 @@
       <c r="BR6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BS6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2180,14 +2198,17 @@
       <c r="BR7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -2203,7 +2224,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -2401,18 +2422,21 @@
       <c r="BR8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BS8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2622,18 +2646,21 @@
       <c r="BR9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2843,18 +2870,21 @@
       <c r="BR10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3064,8 +3094,11 @@
       <c r="BR11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3226,13 +3259,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3248,7 +3281,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3446,18 +3479,21 @@
       <c r="BR13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BS13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3667,18 +3703,21 @@
       <c r="BR14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3888,18 +3927,21 @@
       <c r="BR15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4109,18 +4151,21 @@
       <c r="BR16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -4330,18 +4375,21 @@
       <c r="BR17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -4551,18 +4599,21 @@
       <c r="BR18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BS18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -4772,18 +4823,21 @@
       <c r="BR19" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="BS19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -4993,14 +5047,17 @@
       <c r="BR20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -5016,7 +5073,7 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
@@ -5214,18 +5271,21 @@
       <c r="BR21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BS21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -5435,14 +5495,17 @@
       <c r="BR22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -5470,7 +5533,7 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="8"/>
@@ -5656,18 +5719,21 @@
       <c r="BR23" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BS23" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -5877,18 +5943,21 @@
       <c r="BR24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -6098,18 +6167,21 @@
       <c r="BR25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -6319,8 +6391,11 @@
       <c r="BR26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -6474,8 +6549,11 @@
       <c r="BR27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -6563,8 +6641,11 @@
       <c r="BR28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BS28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -6650,6 +6731,9 @@
         <v>7</v>
       </c>
       <c r="BR29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF915323-29F3-654A-BA9A-8FCD8F274FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15D0B1D-E45A-C749-A6BF-A1CB02801D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BS29"/>
+  <dimension ref="A1:BU29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BV17" sqref="BV17"/>
+      <selection pane="topRight" activeCell="BW22" sqref="BW22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:73" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,18 +857,24 @@
       <c r="BS1" s="5">
         <v>45959</v>
       </c>
+      <c r="BT1" s="5">
+        <v>45960</v>
+      </c>
+      <c r="BU1" s="5">
+        <v>45961</v>
+      </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1081,18 +1087,24 @@
       <c r="BS2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1112,7 +1124,7 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VU3,"R")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I26" si="7">COUNTIF(K3:VV3,"RH")</f>
@@ -1305,18 +1317,24 @@
       <c r="BS3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1529,22 +1547,28 @@
       <c r="BS4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
@@ -1753,14 +1777,20 @@
       <c r="BS5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BU5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1776,7 +1806,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -1977,22 +2007,28 @@
       <c r="BS6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
         <f>COUNTIF(K7:VR7,"A")</f>
@@ -2201,14 +2237,20 @@
       <c r="BS7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU7" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -2224,7 +2266,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -2425,18 +2467,24 @@
       <c r="BS8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2649,18 +2697,24 @@
       <c r="BS9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2873,18 +2927,24 @@
       <c r="BS10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3097,8 +3157,14 @@
       <c r="BS11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3259,13 +3325,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3281,7 +3347,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3482,18 +3548,24 @@
       <c r="BS13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3706,18 +3778,24 @@
       <c r="BS14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -3930,18 +4008,24 @@
       <c r="BS15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4154,18 +4238,24 @@
       <c r="BS16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -4378,18 +4468,24 @@
       <c r="BS17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -4602,18 +4698,24 @@
       <c r="BS18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -4621,7 +4723,7 @@
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="1"/>
@@ -4826,18 +4928,24 @@
       <c r="BS19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -5050,14 +5158,20 @@
       <c r="BS20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -5073,7 +5187,7 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
@@ -5274,22 +5388,28 @@
       <c r="BS21" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BT21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BU21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
@@ -5498,14 +5618,20 @@
       <c r="BS22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BU22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -5533,7 +5659,7 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="8"/>
@@ -5722,18 +5848,24 @@
       <c r="BS23" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BT23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU23" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -5946,14 +6078,20 @@
       <c r="BS24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -5965,7 +6103,7 @@
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
@@ -6170,18 +6308,24 @@
       <c r="BS25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU25" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -6197,7 +6341,7 @@
       </c>
       <c r="G26" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="6"/>
@@ -6394,8 +6538,14 @@
       <c r="BS26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU26" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -6552,8 +6702,14 @@
       <c r="BS27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BU27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -6644,8 +6800,14 @@
       <c r="BS28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BT28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -6735,6 +6897,12 @@
       </c>
       <c r="BS29" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="BT29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU29" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15D0B1D-E45A-C749-A6BF-A1CB02801D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD945D9-28D4-DA45-A917-C1A09E3C7CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BU29"/>
+  <dimension ref="A1:BV29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BW22" sqref="BW22"/>
+      <selection pane="topRight" activeCell="BX26" sqref="BX26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:74" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,18 +863,21 @@
       <c r="BU1" s="5">
         <v>45961</v>
       </c>
+      <c r="BV1" s="5">
+        <v>45965</v>
+      </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1093,14 +1096,17 @@
       <c r="BU2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BV2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
@@ -1124,7 +1130,7 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VU3,"R")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I26" si="7">COUNTIF(K3:VV3,"RH")</f>
@@ -1323,18 +1329,21 @@
       <c r="BU3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BV3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1553,14 +1562,17 @@
       <c r="BU4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BV4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1576,7 +1588,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1783,14 +1795,17 @@
       <c r="BU5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BV5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1806,7 +1821,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2013,18 +2028,21 @@
       <c r="BU6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BV6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2243,14 +2261,17 @@
       <c r="BU7" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="BV7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -2278,7 +2299,7 @@
       </c>
       <c r="I8" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="8"/>
@@ -2473,14 +2494,17 @@
       <c r="BU8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BV8" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
@@ -2500,7 +2524,7 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="6"/>
@@ -2703,18 +2727,21 @@
       <c r="BU9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BV9" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2933,18 +2960,21 @@
       <c r="BU10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BV10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3163,8 +3193,11 @@
       <c r="BU11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BV11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3325,13 +3358,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3347,7 +3380,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3554,18 +3587,21 @@
       <c r="BU13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BV13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3784,18 +3820,21 @@
       <c r="BU14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BV14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -4014,14 +4053,17 @@
       <c r="BU15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BV15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
@@ -4037,7 +4079,7 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="5"/>
@@ -4244,18 +4286,21 @@
       <c r="BU16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BV16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -4474,14 +4519,17 @@
       <c r="BU17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BV17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
@@ -4497,7 +4545,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="5"/>
@@ -4704,18 +4752,21 @@
       <c r="BU18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BV18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -4934,18 +4985,21 @@
       <c r="BU19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BV19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -5164,14 +5218,17 @@
       <c r="BU20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BV20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="3"/>
@@ -5187,7 +5244,7 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="5"/>
@@ -5382,30 +5439,23 @@
       <c r="BQ21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="BR21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="BS21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="BT21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="BU21" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="BR21" s="4"/>
+      <c r="BS21" s="4"/>
+      <c r="BT21" s="4"/>
+      <c r="BU21" s="4"/>
+      <c r="BV21" s="4"/>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -5624,14 +5674,17 @@
       <c r="BU22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BV22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -5659,7 +5712,7 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="8"/>
@@ -5854,14 +5907,17 @@
       <c r="BU23" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BV23" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
@@ -5873,7 +5929,7 @@
       </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="1"/>
@@ -6084,18 +6140,21 @@
       <c r="BU24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BV24" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -6314,18 +6373,21 @@
       <c r="BU25" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="BV25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -6544,8 +6606,11 @@
       <c r="BU26" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="BV26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -6708,8 +6773,11 @@
       <c r="BU27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BV27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -6806,8 +6874,11 @@
       <c r="BU28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BV28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -6902,6 +6973,9 @@
         <v>7</v>
       </c>
       <c r="BU29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV29" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD945D9-28D4-DA45-A917-C1A09E3C7CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6721C175-0129-2644-86D7-440904942EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BV29"/>
+  <dimension ref="A1:BW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BX26" sqref="BX26"/>
+      <selection pane="topRight" activeCell="BY28" sqref="BY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:75" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,18 +866,21 @@
       <c r="BV1" s="5">
         <v>45965</v>
       </c>
+      <c r="BW1" s="5">
+        <v>45966</v>
+      </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1099,14 +1102,17 @@
       <c r="BV2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BW2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
@@ -1130,7 +1136,7 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VU3,"R")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I26" si="7">COUNTIF(K3:VV3,"RH")</f>
@@ -1332,18 +1338,21 @@
       <c r="BV3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BW3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1565,14 +1574,17 @@
       <c r="BV4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BW4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1588,7 +1600,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1798,14 +1810,17 @@
       <c r="BV5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1821,7 +1836,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2031,18 +2046,21 @@
       <c r="BV6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2264,14 +2282,17 @@
       <c r="BV7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BW7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -2299,7 +2320,7 @@
       </c>
       <c r="I8" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="8"/>
@@ -2497,18 +2518,21 @@
       <c r="BV8" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BW8" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2730,18 +2754,21 @@
       <c r="BV9" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="BW9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2963,18 +2990,21 @@
       <c r="BV10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BW10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3196,8 +3226,11 @@
       <c r="BV11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BW11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3358,13 +3391,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3380,7 +3413,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3590,18 +3623,21 @@
       <c r="BV13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3823,18 +3859,21 @@
       <c r="BV14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BW14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -4056,18 +4095,21 @@
       <c r="BV15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BW15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4289,18 +4331,21 @@
       <c r="BV16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -4522,14 +4567,17 @@
       <c r="BV17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BW17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
@@ -4545,7 +4593,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="5"/>
@@ -4755,18 +4803,21 @@
       <c r="BV18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BW18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -4988,14 +5039,17 @@
       <c r="BV19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BW19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
@@ -5011,7 +5065,7 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="5"/>
@@ -5221,8 +5275,11 @@
       <c r="BV20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BW20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -5444,18 +5501,19 @@
       <c r="BT21" s="4"/>
       <c r="BU21" s="4"/>
       <c r="BV21" s="4"/>
+      <c r="BW21" s="4"/>
     </row>
-    <row r="22" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -5677,14 +5735,17 @@
       <c r="BV22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BW22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -5712,7 +5773,7 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="8"/>
@@ -5910,18 +5971,21 @@
       <c r="BV23" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BW23" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -6143,18 +6207,21 @@
       <c r="BV24" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="BW24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -6376,18 +6443,21 @@
       <c r="BV25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BW25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -6609,8 +6679,11 @@
       <c r="BV26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BW26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -6776,8 +6849,11 @@
       <c r="BV27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BW27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -6877,8 +6953,11 @@
       <c r="BV28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BW28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -6976,6 +7055,9 @@
         <v>35</v>
       </c>
       <c r="BV29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BW29" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6721C175-0129-2644-86D7-440904942EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3C61BD-CFCA-924C-85BF-D8A30CC1C2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BW29"/>
+  <dimension ref="A1:BX29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BY28" sqref="BY28"/>
+      <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CA19" sqref="CA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:76" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,18 +869,21 @@
       <c r="BW1" s="5">
         <v>45966</v>
       </c>
+      <c r="BX1" s="5">
+        <v>45968</v>
+      </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1105,18 +1108,21 @@
       <c r="BW2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BX2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1336,23 +1342,26 @@
         <v>40</v>
       </c>
       <c r="BV3" s="4" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="BW3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BX3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1577,14 +1586,17 @@
       <c r="BW4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BX4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1600,7 +1612,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1813,14 +1825,17 @@
       <c r="BW5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1836,7 +1851,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2049,18 +2064,21 @@
       <c r="BW6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2285,14 +2303,17 @@
       <c r="BW7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BX7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -2320,7 +2341,7 @@
       </c>
       <c r="I8" s="4">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="8"/>
@@ -2521,18 +2542,21 @@
       <c r="BW8" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BX8" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2757,18 +2781,21 @@
       <c r="BW9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BX9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -2993,18 +3020,21 @@
       <c r="BW10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BX10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3229,8 +3259,11 @@
       <c r="BW11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BX11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3391,13 +3424,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3413,7 +3446,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3626,14 +3659,17 @@
       <c r="BW13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
@@ -3653,7 +3689,7 @@
       </c>
       <c r="G14" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="6"/>
@@ -3862,18 +3898,21 @@
       <c r="BW14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BX14" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -4098,18 +4137,21 @@
       <c r="BW15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BX15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4334,18 +4376,21 @@
       <c r="BW16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BX16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -4570,14 +4615,17 @@
       <c r="BW17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BX17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
@@ -4593,7 +4641,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="5"/>
@@ -4806,18 +4854,21 @@
       <c r="BW18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -5042,18 +5093,21 @@
       <c r="BW19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BX19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -5278,8 +5332,11 @@
       <c r="BW20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BX20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -5502,18 +5559,19 @@
       <c r="BU21" s="4"/>
       <c r="BV21" s="4"/>
       <c r="BW21" s="4"/>
+      <c r="BX21" s="4"/>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -5738,14 +5796,17 @@
       <c r="BW22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BX22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -5773,7 +5834,7 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="8"/>
@@ -5974,18 +6035,21 @@
       <c r="BW23" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BX23" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -6210,18 +6274,21 @@
       <c r="BW24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BX24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -6446,18 +6513,21 @@
       <c r="BW25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BX25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -6682,8 +6752,11 @@
       <c r="BW26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BX26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -6852,8 +6925,11 @@
       <c r="BW27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BX27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -6956,8 +7032,11 @@
       <c r="BW28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BX28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -7058,6 +7137,9 @@
         <v>35</v>
       </c>
       <c r="BW29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BX29" s="4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3C61BD-CFCA-924C-85BF-D8A30CC1C2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB07DBB6-DFEF-7648-9243-A4B96FDD53D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BX29"/>
+  <dimension ref="A1:BY29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CA19" sqref="CA19"/>
+      <selection pane="topRight" activeCell="CB7" sqref="CB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:77" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,18 +872,21 @@
       <c r="BX1" s="5">
         <v>45968</v>
       </c>
+      <c r="BY1" s="5">
+        <v>45973</v>
+      </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1111,18 +1114,21 @@
       <c r="BX2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BY2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1350,18 +1356,21 @@
       <c r="BX3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="BY3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1589,14 +1598,17 @@
       <c r="BX4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BY4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1612,7 +1624,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1828,14 +1840,17 @@
       <c r="BX5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1851,7 +1866,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2067,18 +2082,21 @@
       <c r="BX6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2306,18 +2324,21 @@
       <c r="BX7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BY7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2545,18 +2566,21 @@
       <c r="BX8" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BY8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2784,18 +2808,21 @@
       <c r="BX9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BY9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3023,18 +3050,21 @@
       <c r="BX10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BY10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3262,8 +3292,11 @@
       <c r="BX11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BY11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3424,13 +3457,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3446,7 +3479,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3662,18 +3695,21 @@
       <c r="BX13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3901,14 +3937,17 @@
       <c r="BX14" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="BY14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
@@ -3924,7 +3963,7 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="5"/>
@@ -4140,18 +4179,21 @@
       <c r="BX15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BY15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4379,18 +4421,21 @@
       <c r="BX16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BY16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -4618,18 +4663,21 @@
       <c r="BX17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BY17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -4857,18 +4905,21 @@
       <c r="BX18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BY18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -5096,18 +5147,21 @@
       <c r="BX19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BY19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -5335,8 +5389,11 @@
       <c r="BX20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BY20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -5560,18 +5617,19 @@
       <c r="BV21" s="4"/>
       <c r="BW21" s="4"/>
       <c r="BX21" s="4"/>
+      <c r="BY21" s="4"/>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -5799,18 +5857,21 @@
       <c r="BX22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BY22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="4"/>
@@ -6038,18 +6099,21 @@
       <c r="BX23" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="BY23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -6277,18 +6341,21 @@
       <c r="BX24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BY24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -6516,18 +6583,21 @@
       <c r="BX25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BY25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -6755,8 +6825,11 @@
       <c r="BX26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BY26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -6928,8 +7001,11 @@
       <c r="BX27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BY27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -7035,8 +7111,11 @@
       <c r="BX28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BY28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:76" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -7141,6 +7220,9 @@
       </c>
       <c r="BX29" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="BY29" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB07DBB6-DFEF-7648-9243-A4B96FDD53D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A839A38F-8B44-5C4C-B400-EAAB98597D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BY29"/>
+  <dimension ref="A1:BZ29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CB7" sqref="CB7"/>
+      <selection pane="topRight" activeCell="CB21" sqref="CB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:78" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,18 +875,21 @@
       <c r="BY1" s="5">
         <v>45973</v>
       </c>
+      <c r="BZ1" s="5">
+        <v>45974</v>
+      </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1117,18 +1120,21 @@
       <c r="BY2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1359,18 +1365,21 @@
       <c r="BY3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1601,14 +1610,17 @@
       <c r="BY4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1624,7 +1636,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1843,14 +1855,17 @@
       <c r="BY5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1866,7 +1881,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2085,18 +2100,21 @@
       <c r="BY6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2327,18 +2345,21 @@
       <c r="BY7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2569,18 +2590,21 @@
       <c r="BY8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2811,18 +2835,21 @@
       <c r="BY9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3053,18 +3080,21 @@
       <c r="BY10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3295,8 +3325,11 @@
       <c r="BY11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3457,13 +3490,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3479,7 +3512,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3698,18 +3731,21 @@
       <c r="BY13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3940,14 +3976,17 @@
       <c r="BY14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
@@ -3963,7 +4002,7 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="5"/>
@@ -4182,18 +4221,21 @@
       <c r="BY15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="BZ15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4424,18 +4466,21 @@
       <c r="BY16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -4666,18 +4711,21 @@
       <c r="BY17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -4908,18 +4956,21 @@
       <c r="BY18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -5150,18 +5201,21 @@
       <c r="BY19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -5392,8 +5446,11 @@
       <c r="BY20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -5618,18 +5675,19 @@
       <c r="BW21" s="4"/>
       <c r="BX21" s="4"/>
       <c r="BY21" s="4"/>
+      <c r="BZ21" s="4"/>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -5860,18 +5918,21 @@
       <c r="BY22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="4"/>
@@ -6102,18 +6163,21 @@
       <c r="BY23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -6344,18 +6408,21 @@
       <c r="BY24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -6586,18 +6653,21 @@
       <c r="BY25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -6828,8 +6898,11 @@
       <c r="BY26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -7004,8 +7077,11 @@
       <c r="BY27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -7114,8 +7190,11 @@
       <c r="BY28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="BZ28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -7222,6 +7301,9 @@
         <v>35</v>
       </c>
       <c r="BY29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BZ29" s="4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A839A38F-8B44-5C4C-B400-EAAB98597D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7151D5BC-1603-5C49-AC68-3873D25F08A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:BZ29"/>
+  <dimension ref="A1:CA29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CB21" sqref="CB21"/>
+      <selection pane="topRight" activeCell="CC24" sqref="CC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:79" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,18 +878,21 @@
       <c r="BZ1" s="5">
         <v>45974</v>
       </c>
+      <c r="CA1" s="5">
+        <v>45976</v>
+      </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1123,18 +1126,21 @@
       <c r="BZ2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1368,18 +1374,21 @@
       <c r="BZ3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1613,14 +1622,17 @@
       <c r="BZ4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1636,7 +1648,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1858,14 +1870,17 @@
       <c r="BZ5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1881,7 +1896,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2103,18 +2118,21 @@
       <c r="BZ6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2348,18 +2366,21 @@
       <c r="BZ7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2593,18 +2614,21 @@
       <c r="BZ8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2838,18 +2862,21 @@
       <c r="BZ9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3083,18 +3110,21 @@
       <c r="BZ10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3328,8 +3358,11 @@
       <c r="BZ11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3490,13 +3523,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3512,7 +3545,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3734,18 +3767,21 @@
       <c r="BZ13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -3979,14 +4015,17 @@
       <c r="BZ14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
@@ -4002,7 +4041,7 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="5"/>
@@ -4224,18 +4263,21 @@
       <c r="BZ15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CA15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4469,18 +4511,21 @@
       <c r="BZ16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -4714,18 +4759,21 @@
       <c r="BZ17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -4959,18 +5007,21 @@
       <c r="BZ18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -5204,18 +5255,21 @@
       <c r="BZ19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -5449,8 +5503,11 @@
       <c r="BZ20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -5676,18 +5733,19 @@
       <c r="BX21" s="4"/>
       <c r="BY21" s="4"/>
       <c r="BZ21" s="4"/>
+      <c r="CA21" s="4"/>
     </row>
-    <row r="22" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -5921,14 +5979,17 @@
       <c r="BZ22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -5944,7 +6005,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -6166,18 +6227,21 @@
       <c r="BZ23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -6411,18 +6475,21 @@
       <c r="BZ24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -6656,18 +6723,21 @@
       <c r="BZ25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -6901,8 +6971,11 @@
       <c r="BZ26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -7080,8 +7153,11 @@
       <c r="BZ27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -7193,8 +7269,11 @@
       <c r="BZ28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CA28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:78" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -7304,6 +7383,9 @@
         <v>34</v>
       </c>
       <c r="BZ29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CA29" s="4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7151D5BC-1603-5C49-AC68-3873D25F08A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E19BB5-9E1E-C34C-BB9E-920DDD40B81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CA29"/>
+  <dimension ref="A1:CB29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CC24" sqref="CC24"/>
+      <selection pane="topRight" activeCell="CD28" sqref="CD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:80" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,18 +881,21 @@
       <c r="CA1" s="5">
         <v>45976</v>
       </c>
+      <c r="CB1" s="5">
+        <v>45979</v>
+      </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1129,18 +1132,21 @@
       <c r="CA2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1377,18 +1383,21 @@
       <c r="CA3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1625,14 +1634,17 @@
       <c r="CA4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1648,7 +1660,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1873,14 +1885,17 @@
       <c r="CA5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1896,7 +1911,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2121,18 +2136,21 @@
       <c r="CA6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2369,18 +2387,21 @@
       <c r="CA7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2617,18 +2638,21 @@
       <c r="CA8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2865,18 +2889,21 @@
       <c r="CA9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3113,18 +3140,21 @@
       <c r="CA10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3361,8 +3391,11 @@
       <c r="CA11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3523,13 +3556,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3545,7 +3578,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3770,18 +3803,21 @@
       <c r="CA13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4018,18 +4054,21 @@
       <c r="CA14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -4266,18 +4305,21 @@
       <c r="CA15" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4514,18 +4556,21 @@
       <c r="CA16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -4762,18 +4807,21 @@
       <c r="CA17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -5010,18 +5058,21 @@
       <c r="CA18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -5258,18 +5309,21 @@
       <c r="CA19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -5506,8 +5560,11 @@
       <c r="CA20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -5734,18 +5791,19 @@
       <c r="BY21" s="4"/>
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
+      <c r="CB21" s="4"/>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -5982,18 +6040,21 @@
       <c r="CA22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="4"/>
@@ -6230,18 +6291,21 @@
       <c r="CA23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CB23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -6478,18 +6542,21 @@
       <c r="CA24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -6726,18 +6793,21 @@
       <c r="CA25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -6974,8 +7044,11 @@
       <c r="CA26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -7156,8 +7229,11 @@
       <c r="CA27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -7272,8 +7348,11 @@
       <c r="CA28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CB28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -7387,6 +7466,9 @@
       </c>
       <c r="CA29" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="CB29" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E19BB5-9E1E-C34C-BB9E-920DDD40B81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80446E1E-F3CE-C14C-9C55-E51EA9FC01BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CB29"/>
+  <dimension ref="A1:CC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CD28" sqref="CD28"/>
+      <selection pane="topRight" activeCell="CC24" sqref="CC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:81" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,18 +884,21 @@
       <c r="CB1" s="5">
         <v>45979</v>
       </c>
+      <c r="CC1" s="5">
+        <v>45980</v>
+      </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1135,18 +1138,21 @@
       <c r="CB2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1386,18 +1392,21 @@
       <c r="CB3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1637,14 +1646,17 @@
       <c r="CB4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1660,7 +1672,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1888,14 +1900,17 @@
       <c r="CB5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CC5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1911,7 +1926,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2139,18 +2154,21 @@
       <c r="CB6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CC6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2390,18 +2408,21 @@
       <c r="CB7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2641,18 +2662,21 @@
       <c r="CB8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2892,18 +2916,21 @@
       <c r="CB9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3143,18 +3170,21 @@
       <c r="CB10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3394,8 +3424,11 @@
       <c r="CB11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3556,13 +3589,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3578,7 +3611,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3806,18 +3839,21 @@
       <c r="CB13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CC13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4057,18 +4093,21 @@
       <c r="CB14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -4308,18 +4347,21 @@
       <c r="CB15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4559,18 +4601,21 @@
       <c r="CB16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -4810,18 +4855,21 @@
       <c r="CB17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -5061,18 +5109,21 @@
       <c r="CB18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -5312,18 +5363,21 @@
       <c r="CB19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -5563,8 +5617,11 @@
       <c r="CB20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -5792,18 +5849,19 @@
       <c r="BZ21" s="4"/>
       <c r="CA21" s="4"/>
       <c r="CB21" s="4"/>
+      <c r="CC21" s="4"/>
     </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -6043,18 +6101,21 @@
       <c r="CB22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="4"/>
@@ -6294,18 +6355,21 @@
       <c r="CB23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -6545,18 +6609,21 @@
       <c r="CB24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -6796,18 +6863,21 @@
       <c r="CB25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -7047,8 +7117,11 @@
       <c r="CB26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -7232,8 +7305,11 @@
       <c r="CB27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -7351,8 +7427,11 @@
       <c r="CB28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CC28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -7468,6 +7547,9 @@
         <v>34</v>
       </c>
       <c r="CB29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80446E1E-F3CE-C14C-9C55-E51EA9FC01BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495A327F-658E-0D49-9C07-BA89A624F0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CC29"/>
+  <dimension ref="A1:CD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CC24" sqref="CC24"/>
+      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CF25" sqref="CF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:82" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,18 +887,21 @@
       <c r="CC1" s="5">
         <v>45980</v>
       </c>
+      <c r="CD1" s="5">
+        <v>45981</v>
+      </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1141,18 +1144,21 @@
       <c r="CC2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1395,18 +1401,21 @@
       <c r="CC3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1649,14 +1658,17 @@
       <c r="CC4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1672,7 +1684,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1903,14 +1915,17 @@
       <c r="CC5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1926,7 +1941,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2157,18 +2172,21 @@
       <c r="CC6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2411,18 +2429,21 @@
       <c r="CC7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2665,18 +2686,21 @@
       <c r="CC8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2919,18 +2943,21 @@
       <c r="CC9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3173,18 +3200,21 @@
       <c r="CC10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3427,8 +3457,11 @@
       <c r="CC11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3589,13 +3622,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3611,7 +3644,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3842,18 +3875,21 @@
       <c r="CC13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CD13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4096,18 +4132,21 @@
       <c r="CC14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -4350,18 +4389,21 @@
       <c r="CC15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4604,18 +4646,21 @@
       <c r="CC16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -4858,18 +4903,21 @@
       <c r="CC17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -5112,18 +5160,21 @@
       <c r="CC18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -5366,18 +5417,21 @@
       <c r="CC19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -5620,8 +5674,11 @@
       <c r="CC20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -5850,18 +5907,19 @@
       <c r="CA21" s="4"/>
       <c r="CB21" s="4"/>
       <c r="CC21" s="4"/>
+      <c r="CD21" s="4"/>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -6104,18 +6162,21 @@
       <c r="CC22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="4"/>
@@ -6358,18 +6419,21 @@
       <c r="CC23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -6612,18 +6676,21 @@
       <c r="CC24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -6866,18 +6933,21 @@
       <c r="CC25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -7120,8 +7190,11 @@
       <c r="CC26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -7308,8 +7381,11 @@
       <c r="CC27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -7430,8 +7506,11 @@
       <c r="CC28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CD28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -7550,6 +7629,9 @@
         <v>7</v>
       </c>
       <c r="CC29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CD29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495A327F-658E-0D49-9C07-BA89A624F0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991DFB5E-EB8E-EE43-85D7-A0A4F704D892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CD29"/>
+  <dimension ref="A1:CE29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CF25" sqref="CF25"/>
+      <pane xSplit="1" topLeftCell="CA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CG25" sqref="CG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:83" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,18 +890,21 @@
       <c r="CD1" s="5">
         <v>45981</v>
       </c>
+      <c r="CE1" s="5">
+        <v>45982</v>
+      </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1147,18 +1150,21 @@
       <c r="CD2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1404,14 +1410,17 @@
       <c r="CD3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
@@ -1435,7 +1444,7 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="7"/>
@@ -1661,14 +1670,17 @@
       <c r="CD4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE4" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1684,7 +1696,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="5"/>
@@ -1918,14 +1930,17 @@
       <c r="CD5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE5" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1941,7 +1956,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2175,18 +2190,21 @@
       <c r="CD6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2432,14 +2450,17 @@
       <c r="CD7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -2463,7 +2484,7 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="7"/>
@@ -2689,18 +2710,21 @@
       <c r="CD8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE8" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2946,18 +2970,21 @@
       <c r="CD9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3203,18 +3230,21 @@
       <c r="CD10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3460,8 +3490,11 @@
       <c r="CD11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3622,13 +3655,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3644,7 +3677,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3878,18 +3911,21 @@
       <c r="CD13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CE13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4135,18 +4171,21 @@
       <c r="CD14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -4392,18 +4431,21 @@
       <c r="CD15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4649,18 +4691,21 @@
       <c r="CD16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -4906,18 +4951,21 @@
       <c r="CD17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -5163,18 +5211,21 @@
       <c r="CD18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -5420,18 +5471,21 @@
       <c r="CD19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -5677,8 +5731,11 @@
       <c r="CD20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -5908,22 +5965,23 @@
       <c r="CB21" s="4"/>
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
+      <c r="CE21" s="4"/>
     </row>
-    <row r="22" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
@@ -5939,7 +5997,7 @@
       </c>
       <c r="H22" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="7"/>
@@ -6043,7 +6101,7 @@
         <v>7</v>
       </c>
       <c r="AP22" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AQ22" s="4" t="s">
         <v>7</v>
@@ -6165,14 +6223,17 @@
       <c r="CD22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -6180,7 +6241,7 @@
       </c>
       <c r="D23" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
@@ -6422,18 +6483,21 @@
       <c r="CD23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE23" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -6679,18 +6743,21 @@
       <c r="CD24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -6936,18 +7003,21 @@
       <c r="CD25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -7193,8 +7263,11 @@
       <c r="CD26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -7384,8 +7457,11 @@
       <c r="CD27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -7509,8 +7585,11 @@
       <c r="CD28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CE28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -7632,6 +7711,9 @@
         <v>7</v>
       </c>
       <c r="CD29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CE29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991DFB5E-EB8E-EE43-85D7-A0A4F704D892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339B58EE-9E56-F245-A256-C0BDEA621BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -634,8 +634,8 @@
   <dimension ref="A1:CE29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CG25" sqref="CG25"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7271,6 +7271,42 @@
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="B27" s="4">
+        <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
+        <v>63</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
+        <v>35</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
+        <v>5</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" ref="E27:E29" si="14">COUNTIF(K27:VR27,"A")</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" ref="F27:F29" si="15">COUNTIF(K27:VS27,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" ref="G27:G29" si="16">COUNTIF(K27:VT27,"M")</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" ref="H27:H29" si="17">COUNTIF(K27:VU27,"R")</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" ref="I27:I29" si="18">COUNTIF(K27:VV27,"RH")</f>
+        <v>22</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" ref="J27:J29" si="19">COUNTIF(K27:VV27,"S")</f>
+        <v>0</v>
+      </c>
       <c r="U27" s="4" t="s">
         <v>34</v>
       </c>
@@ -7465,6 +7501,42 @@
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="B28" s="4">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="AQ28" s="4" t="s">
         <v>42</v>
       </c>
@@ -7592,6 +7664,42 @@
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="AQ29" s="4" t="s">
         <v>7</v>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339B58EE-9E56-F245-A256-C0BDEA621BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E12727-DB31-6949-9CC6-57E36E2793D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CE29"/>
+  <dimension ref="A1:CF29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L30" sqref="L30"/>
+      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CH28" sqref="CH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:84" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,18 +893,21 @@
       <c r="CE1" s="5">
         <v>45982</v>
       </c>
+      <c r="CF1" s="5">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1153,18 +1156,21 @@
       <c r="CE2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1413,18 +1419,21 @@
       <c r="CE3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1673,14 +1682,17 @@
       <c r="CE4" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="CF4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1708,7 +1720,7 @@
       </c>
       <c r="I5" s="4">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="8"/>
@@ -1933,14 +1945,17 @@
       <c r="CE5" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1956,7 +1971,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2193,18 +2208,21 @@
       <c r="CE6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2453,18 +2471,21 @@
       <c r="CE7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2713,18 +2734,21 @@
       <c r="CE8" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="CF8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -2973,18 +2997,21 @@
       <c r="CE9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3233,18 +3260,21 @@
       <c r="CE10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3493,8 +3523,11 @@
       <c r="CE11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3655,13 +3688,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3677,7 +3710,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3914,18 +3947,21 @@
       <c r="CE13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CF13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4174,18 +4210,21 @@
       <c r="CE14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -4434,18 +4473,21 @@
       <c r="CE15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4694,18 +4736,21 @@
       <c r="CE16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -4954,14 +4999,17 @@
       <c r="CE17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
@@ -4981,7 +5029,7 @@
       </c>
       <c r="G18" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="6"/>
@@ -5214,18 +5262,21 @@
       <c r="CE18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF18" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -5474,18 +5525,21 @@
       <c r="CE19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -5734,8 +5788,11 @@
       <c r="CE20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -5966,18 +6023,19 @@
       <c r="CC21" s="4"/>
       <c r="CD21" s="4"/>
       <c r="CE21" s="4"/>
+      <c r="CF21" s="4"/>
     </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -6226,18 +6284,21 @@
       <c r="CE22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="4"/>
@@ -6486,18 +6547,21 @@
       <c r="CE23" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="CF23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -6746,14 +6810,17 @@
       <c r="CE24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -6769,7 +6836,7 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="5"/>
@@ -7006,18 +7073,21 @@
       <c r="CE25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -7266,18 +7336,21 @@
       <c r="CE26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
@@ -7496,18 +7569,21 @@
       <c r="CE27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -7660,18 +7736,21 @@
       <c r="CE28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CF28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -7822,6 +7901,9 @@
         <v>7</v>
       </c>
       <c r="CE29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CF29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E12727-DB31-6949-9CC6-57E36E2793D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F971AB-32A9-8648-8E24-351FB4DE2BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CF29"/>
+  <dimension ref="A1:CG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH28" sqref="CH28"/>
+      <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CJ18" sqref="CJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:85" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,18 +896,21 @@
       <c r="CF1" s="5">
         <v>45986</v>
       </c>
+      <c r="CG1" s="5">
+        <v>45987</v>
+      </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1159,18 +1162,21 @@
       <c r="CF2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1422,18 +1428,21 @@
       <c r="CF3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1685,14 +1694,17 @@
       <c r="CF4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
@@ -1720,7 +1732,7 @@
       </c>
       <c r="I5" s="4">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="8"/>
@@ -1948,14 +1960,17 @@
       <c r="CF5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CG5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1983,7 +1998,7 @@
       </c>
       <c r="I6" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="8"/>
@@ -2211,18 +2226,21 @@
       <c r="CF6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG6" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2474,18 +2492,21 @@
       <c r="CF7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2737,18 +2758,21 @@
       <c r="CF8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3000,18 +3024,21 @@
       <c r="CF9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3263,18 +3290,21 @@
       <c r="CF10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3526,8 +3556,11 @@
       <c r="CF11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3688,13 +3721,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3710,7 +3743,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3950,18 +3983,21 @@
       <c r="CF13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4213,18 +4249,21 @@
       <c r="CF14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -4476,18 +4515,21 @@
       <c r="CF15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4739,18 +4781,21 @@
       <c r="CF16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -5002,18 +5047,21 @@
       <c r="CF17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -5265,18 +5313,21 @@
       <c r="CF18" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="CG18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -5528,18 +5579,21 @@
       <c r="CF19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -5791,8 +5845,11 @@
       <c r="CF20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -6024,18 +6081,19 @@
       <c r="CD21" s="4"/>
       <c r="CE21" s="4"/>
       <c r="CF21" s="4"/>
+      <c r="CG21" s="4"/>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -6287,18 +6345,21 @@
       <c r="CF22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="4"/>
@@ -6550,18 +6611,21 @@
       <c r="CF23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG23" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -6813,14 +6877,17 @@
       <c r="CF24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -6836,7 +6903,7 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="5"/>
@@ -7076,18 +7143,21 @@
       <c r="CF25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CG25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -7339,18 +7409,21 @@
       <c r="CF26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
@@ -7572,18 +7645,21 @@
       <c r="CF27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -7739,18 +7815,21 @@
       <c r="CF28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CG28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:85" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -7904,6 +7983,9 @@
         <v>7</v>
       </c>
       <c r="CF29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F971AB-32A9-8648-8E24-351FB4DE2BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53C2C17-60EC-9741-9FE6-68E18D554A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CG29"/>
+  <dimension ref="A1:CJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CJ18" sqref="CJ18"/>
+      <selection pane="topRight" activeCell="CL24" sqref="CL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:88" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,18 +899,27 @@
       <c r="CG1" s="5">
         <v>45987</v>
       </c>
+      <c r="CH1" s="5">
+        <v>45988</v>
+      </c>
+      <c r="CI1" s="5">
+        <v>45989</v>
+      </c>
+      <c r="CJ1" s="5">
+        <v>45993</v>
+      </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1165,18 +1174,27 @@
       <c r="CG2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1431,18 +1449,27 @@
       <c r="CG3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1697,18 +1724,27 @@
       <c r="CG4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -1732,7 +1768,7 @@
       </c>
       <c r="I5" s="4">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="8"/>
@@ -1963,14 +1999,23 @@
       <c r="CG5" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CH5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CI5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CJ5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -1998,7 +2043,7 @@
       </c>
       <c r="I6" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="8"/>
@@ -2229,18 +2274,27 @@
       <c r="CG6" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CH6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CI6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CJ6" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2495,18 +2549,27 @@
       <c r="CG7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2761,18 +2824,27 @@
       <c r="CG8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3027,18 +3099,27 @@
       <c r="CG9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3293,18 +3374,27 @@
       <c r="CG10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3559,8 +3649,17 @@
       <c r="CG11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3721,13 +3820,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3743,7 +3842,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -3986,18 +4085,27 @@
       <c r="CG13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CJ13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4252,18 +4360,27 @@
       <c r="CG14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -4518,18 +4635,27 @@
       <c r="CG15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4784,18 +4910,27 @@
       <c r="CG16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -5050,18 +5185,27 @@
       <c r="CG17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -5316,18 +5460,27 @@
       <c r="CG18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -5582,18 +5735,27 @@
       <c r="CG19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -5848,8 +6010,17 @@
       <c r="CG20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -6082,18 +6253,21 @@
       <c r="CE21" s="4"/>
       <c r="CF21" s="4"/>
       <c r="CG21" s="4"/>
+      <c r="CH21" s="4"/>
+      <c r="CI21" s="4"/>
+      <c r="CJ21" s="4"/>
     </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -6348,18 +6522,27 @@
       <c r="CG22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="4"/>
@@ -6379,11 +6562,11 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="8"/>
@@ -6614,18 +6797,27 @@
       <c r="CG23" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="CJ23" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -6880,14 +7072,23 @@
       <c r="CG24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -6903,7 +7104,7 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="5"/>
@@ -7146,18 +7347,27 @@
       <c r="CG25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CH25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CI25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CJ25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -7169,7 +7379,7 @@
       </c>
       <c r="F26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="5"/>
@@ -7412,18 +7622,27 @@
       <c r="CG26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CJ26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
@@ -7648,18 +7867,27 @@
       <c r="CG27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -7818,18 +8046,27 @@
       <c r="CG28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CH28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -7986,6 +8223,15 @@
         <v>7</v>
       </c>
       <c r="CG29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53C2C17-60EC-9741-9FE6-68E18D554A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADC51B2-14DD-6441-9F9B-CBAC5ADB5BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CJ29"/>
+  <dimension ref="A1:CK29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CL24" sqref="CL24"/>
+      <selection pane="topRight" activeCell="CM25" sqref="CM25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:89" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,18 +908,21 @@
       <c r="CJ1" s="5">
         <v>45993</v>
       </c>
+      <c r="CK1" s="5">
+        <v>45994</v>
+      </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1183,18 +1186,21 @@
       <c r="CJ2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1458,18 +1464,21 @@
       <c r="CJ3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1733,18 +1742,21 @@
       <c r="CJ4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2008,14 +2020,17 @@
       <c r="CJ5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -2043,7 +2058,7 @@
       </c>
       <c r="I6" s="4">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="8"/>
@@ -2283,18 +2298,21 @@
       <c r="CJ6" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CK6" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2558,18 +2576,21 @@
       <c r="CJ7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2833,18 +2854,21 @@
       <c r="CJ8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3108,18 +3132,21 @@
       <c r="CJ9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3383,18 +3410,21 @@
       <c r="CJ10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3658,8 +3688,11 @@
       <c r="CJ11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3820,13 +3853,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3842,7 +3875,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -4094,18 +4127,21 @@
       <c r="CJ13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4369,18 +4405,21 @@
       <c r="CJ14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -4644,18 +4683,21 @@
       <c r="CJ15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4919,18 +4961,21 @@
       <c r="CJ16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -5194,18 +5239,21 @@
       <c r="CJ17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -5469,18 +5517,21 @@
       <c r="CJ18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -5744,18 +5795,21 @@
       <c r="CJ19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -6019,8 +6073,11 @@
       <c r="CJ20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -6256,18 +6313,19 @@
       <c r="CH21" s="4"/>
       <c r="CI21" s="4"/>
       <c r="CJ21" s="4"/>
+      <c r="CK21" s="4"/>
     </row>
-    <row r="22" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -6531,14 +6589,17 @@
       <c r="CJ22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -6550,7 +6611,7 @@
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
@@ -6806,18 +6867,21 @@
       <c r="CJ23" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CK23" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="24" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -7081,14 +7145,17 @@
       <c r="CJ24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -7104,7 +7171,7 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="5"/>
@@ -7356,14 +7423,17 @@
       <c r="CJ25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CK25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
@@ -7383,7 +7453,7 @@
       </c>
       <c r="G26" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="6"/>
@@ -7631,18 +7701,21 @@
       <c r="CJ26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK26" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="27" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
@@ -7876,18 +7949,21 @@
       <c r="CJ27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -8055,18 +8131,21 @@
       <c r="CJ28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CK28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -8232,6 +8311,9 @@
         <v>7</v>
       </c>
       <c r="CJ29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADC51B2-14DD-6441-9F9B-CBAC5ADB5BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6477920F-C9FE-E546-B121-B59C9248BDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CK29"/>
+  <dimension ref="A1:CL29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CM25" sqref="CM25"/>
+      <selection pane="topRight" activeCell="CM27" sqref="CM27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:90" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,18 +911,21 @@
       <c r="CK1" s="5">
         <v>45994</v>
       </c>
+      <c r="CL1" s="5">
+        <v>45996</v>
+      </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1189,14 +1192,17 @@
       <c r="CK2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
@@ -1220,7 +1226,7 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VU3,"R")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I26" si="7">COUNTIF(K3:VV3,"RH")</f>
@@ -1467,18 +1473,21 @@
       <c r="CK3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1745,18 +1754,21 @@
       <c r="CK4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2023,14 +2035,17 @@
       <c r="CK5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -2058,7 +2073,7 @@
       </c>
       <c r="I6" s="4">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="8"/>
@@ -2301,18 +2316,21 @@
       <c r="CK6" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CL6" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2579,18 +2597,21 @@
       <c r="CK7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2857,18 +2878,21 @@
       <c r="CK8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3135,18 +3159,21 @@
       <c r="CK9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3413,18 +3440,21 @@
       <c r="CK10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3691,8 +3721,11 @@
       <c r="CK11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3853,13 +3886,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3875,7 +3908,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -4130,18 +4163,21 @@
       <c r="CK13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4408,18 +4444,21 @@
       <c r="CK14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -4686,18 +4725,21 @@
       <c r="CK15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -4964,18 +5006,21 @@
       <c r="CK16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -5242,18 +5287,21 @@
       <c r="CK17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -5520,18 +5568,21 @@
       <c r="CK18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -5798,18 +5849,21 @@
       <c r="CK19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -6076,8 +6130,11 @@
       <c r="CK20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -6314,18 +6371,19 @@
       <c r="CI21" s="4"/>
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4"/>
+      <c r="CL21" s="4"/>
     </row>
-    <row r="22" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -6592,14 +6650,17 @@
       <c r="CK22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -6615,7 +6676,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -6870,18 +6931,21 @@
       <c r="CK23" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="CL23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -7148,14 +7212,17 @@
       <c r="CK24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -7171,7 +7238,7 @@
       </c>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="5"/>
@@ -7426,14 +7493,17 @@
       <c r="CK25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CL25" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
@@ -7453,7 +7523,7 @@
       </c>
       <c r="G26" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="6"/>
@@ -7704,18 +7774,21 @@
       <c r="CK26" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="CL26" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
@@ -7952,18 +8025,21 @@
       <c r="CK27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -8134,18 +8210,21 @@
       <c r="CK28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CL28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -8314,6 +8393,9 @@
         <v>7</v>
       </c>
       <c r="CK29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6477920F-C9FE-E546-B121-B59C9248BDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C290A-69AB-B24B-BA6C-B3B47B8B2AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CL29"/>
+  <dimension ref="A1:CM29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CM27" sqref="CM27"/>
+      <selection pane="topRight" activeCell="CO27" sqref="CO27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:91" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,18 +914,21 @@
       <c r="CL1" s="5">
         <v>45996</v>
       </c>
+      <c r="CM1" s="5">
+        <v>46000</v>
+      </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1195,14 +1198,17 @@
       <c r="CL2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
@@ -1226,7 +1232,7 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VU3,"R")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I26" si="7">COUNTIF(K3:VV3,"RH")</f>
@@ -1476,18 +1482,21 @@
       <c r="CL3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="CM3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1757,18 +1766,21 @@
       <c r="CL4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2038,18 +2050,21 @@
       <c r="CL5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -2319,18 +2334,21 @@
       <c r="CL6" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CM6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2600,18 +2618,21 @@
       <c r="CL7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2881,18 +2902,21 @@
       <c r="CL8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3162,18 +3186,21 @@
       <c r="CL9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3443,18 +3470,21 @@
       <c r="CL10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3724,8 +3754,11 @@
       <c r="CL11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3886,13 +3919,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3908,7 +3941,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -4166,18 +4199,21 @@
       <c r="CL13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4447,18 +4483,21 @@
       <c r="CL14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -4728,18 +4767,21 @@
       <c r="CL15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -5009,18 +5051,21 @@
       <c r="CL16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -5290,18 +5335,21 @@
       <c r="CL17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -5571,18 +5619,21 @@
       <c r="CL18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -5852,18 +5903,21 @@
       <c r="CL19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -6133,8 +6187,11 @@
       <c r="CL20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -6372,18 +6429,19 @@
       <c r="CJ21" s="4"/>
       <c r="CK21" s="4"/>
       <c r="CL21" s="4"/>
+      <c r="CM21" s="4"/>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -6653,14 +6711,17 @@
       <c r="CL22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -6676,7 +6737,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -6934,18 +6995,21 @@
       <c r="CL23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -7215,14 +7279,17 @@
       <c r="CL24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -7250,7 +7317,7 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="8"/>
@@ -7496,18 +7563,21 @@
       <c r="CL25" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CM25" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -7777,18 +7847,21 @@
       <c r="CL26" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="CM26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
@@ -8028,18 +8101,21 @@
       <c r="CL27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -8213,18 +8289,21 @@
       <c r="CL28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CM28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -8396,6 +8475,9 @@
         <v>7</v>
       </c>
       <c r="CL29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C290A-69AB-B24B-BA6C-B3B47B8B2AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20072918-DA66-4F4B-9CB6-F9808AD6DC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CM29"/>
+  <dimension ref="A1:CO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CO27" sqref="CO27"/>
+      <pane xSplit="1" topLeftCell="CK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CS11" sqref="CS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:93" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,18 +917,24 @@
       <c r="CM1" s="5">
         <v>46000</v>
       </c>
+      <c r="CN1" s="5">
+        <v>46002</v>
+      </c>
+      <c r="CO1" s="5">
+        <v>46003</v>
+      </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1201,18 +1207,24 @@
       <c r="CM2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1483,20 +1495,26 @@
         <v>40</v>
       </c>
       <c r="CM3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO3" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1769,18 +1787,24 @@
       <c r="CM4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2053,18 +2077,24 @@
       <c r="CM5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -2084,7 +2114,7 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="7"/>
@@ -2337,18 +2367,24 @@
       <c r="CM6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO6" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2621,18 +2657,24 @@
       <c r="CM7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2652,7 +2694,7 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="7"/>
@@ -2905,18 +2947,24 @@
       <c r="CM8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO8" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3189,18 +3237,24 @@
       <c r="CM9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3473,18 +3527,24 @@
       <c r="CM10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3757,8 +3817,14 @@
       <c r="CM11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3919,13 +3985,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -3941,7 +4007,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -4202,18 +4268,24 @@
       <c r="CM13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CN13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4486,18 +4558,24 @@
       <c r="CM14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -4770,18 +4848,24 @@
       <c r="CM15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -5054,18 +5138,24 @@
       <c r="CM16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -5338,18 +5428,24 @@
       <c r="CM17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -5622,18 +5718,24 @@
       <c r="CM18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -5906,18 +6008,24 @@
       <c r="CM19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -6190,8 +6298,14 @@
       <c r="CM20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -6430,18 +6544,20 @@
       <c r="CK21" s="4"/>
       <c r="CL21" s="4"/>
       <c r="CM21" s="4"/>
+      <c r="CN21" s="4"/>
+      <c r="CO21" s="4"/>
     </row>
-    <row r="22" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -6714,14 +6830,20 @@
       <c r="CM22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -6737,7 +6859,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -6998,18 +7120,24 @@
       <c r="CM23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CN23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -7282,14 +7410,20 @@
       <c r="CM24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -7317,7 +7451,7 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="8"/>
@@ -7566,18 +7700,24 @@
       <c r="CM25" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CN25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CO25" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -7850,18 +7990,24 @@
       <c r="CM26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
@@ -8104,18 +8250,24 @@
       <c r="CM27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -8292,18 +8444,24 @@
       <c r="CM28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CN28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -8478,6 +8636,12 @@
         <v>7</v>
       </c>
       <c r="CM29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CO29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20072918-DA66-4F4B-9CB6-F9808AD6DC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0877F8-8672-884B-92A2-5E812531A0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CO29"/>
+  <dimension ref="A1:CP29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CS11" sqref="CS11"/>
+      <selection pane="topRight" activeCell="CR24" sqref="CR24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:94" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,18 +923,21 @@
       <c r="CO1" s="5">
         <v>46003</v>
       </c>
+      <c r="CP1" s="5">
+        <v>46007</v>
+      </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1213,18 +1216,21 @@
       <c r="CO2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1503,18 +1509,21 @@
       <c r="CO3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="CP3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1793,18 +1802,21 @@
       <c r="CO4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2083,18 +2095,21 @@
       <c r="CO5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -2373,18 +2388,21 @@
       <c r="CO6" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="CP6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2663,18 +2681,21 @@
       <c r="CO7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2953,18 +2974,21 @@
       <c r="CO8" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="CP8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3243,18 +3267,21 @@
       <c r="CO9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3533,18 +3560,21 @@
       <c r="CO10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3823,8 +3853,11 @@
       <c r="CO11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -3985,13 +4018,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4007,7 +4040,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -4274,18 +4307,21 @@
       <c r="CO13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4564,18 +4600,21 @@
       <c r="CO14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -4854,14 +4893,17 @@
       <c r="CO15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
@@ -4877,7 +4919,7 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="5"/>
@@ -5144,18 +5186,21 @@
       <c r="CO16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -5434,18 +5479,21 @@
       <c r="CO17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -5724,18 +5772,21 @@
       <c r="CO18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -6014,18 +6065,21 @@
       <c r="CO19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -6304,8 +6358,11 @@
       <c r="CO20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -6546,18 +6603,19 @@
       <c r="CM21" s="4"/>
       <c r="CN21" s="4"/>
       <c r="CO21" s="4"/>
+      <c r="CP21" s="4"/>
     </row>
-    <row r="22" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -6836,14 +6894,17 @@
       <c r="CO22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -6859,7 +6920,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -7126,18 +7187,21 @@
       <c r="CO23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CP23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -7416,18 +7480,21 @@
       <c r="CO24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -7706,18 +7773,21 @@
       <c r="CO25" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CP25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -7996,18 +8066,21 @@
       <c r="CO26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
@@ -8256,18 +8329,21 @@
       <c r="CO27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -8450,18 +8526,21 @@
       <c r="CO28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CP28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -8642,6 +8721,9 @@
         <v>7</v>
       </c>
       <c r="CO29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CP29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0877F8-8672-884B-92A2-5E812531A0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD77787-4317-E643-9DF7-A173B234AD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CP29"/>
+  <dimension ref="A1:CQ29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CR24" sqref="CR24"/>
+      <selection pane="topRight" activeCell="CS22" sqref="CS22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:95" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,18 +926,21 @@
       <c r="CP1" s="5">
         <v>46007</v>
       </c>
+      <c r="CQ1" s="5">
+        <v>46008</v>
+      </c>
     </row>
-    <row r="2" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1219,18 +1222,21 @@
       <c r="CP2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1512,18 +1518,21 @@
       <c r="CP3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1805,18 +1814,21 @@
       <c r="CP4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2098,18 +2110,21 @@
       <c r="CP5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -2391,18 +2406,21 @@
       <c r="CP6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2684,18 +2702,21 @@
       <c r="CP7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2977,18 +2998,21 @@
       <c r="CP8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3270,18 +3294,21 @@
       <c r="CP9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3563,18 +3590,21 @@
       <c r="CP10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3856,8 +3886,11 @@
       <c r="CP11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4018,13 +4051,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4040,7 +4073,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -4310,18 +4343,21 @@
       <c r="CP13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4603,18 +4639,21 @@
       <c r="CP14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -4896,14 +4935,17 @@
       <c r="CP15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
@@ -4919,7 +4961,7 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="5"/>
@@ -5189,18 +5231,21 @@
       <c r="CP16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -5482,18 +5527,21 @@
       <c r="CP17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -5775,18 +5823,21 @@
       <c r="CP18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -6068,18 +6119,21 @@
       <c r="CP19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -6361,8 +6415,11 @@
       <c r="CP20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -6604,18 +6661,19 @@
       <c r="CN21" s="4"/>
       <c r="CO21" s="4"/>
       <c r="CP21" s="4"/>
+      <c r="CQ21" s="4"/>
     </row>
-    <row r="22" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -6897,14 +6955,17 @@
       <c r="CP22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -6920,7 +6981,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -7190,18 +7251,21 @@
       <c r="CP23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CQ23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -7483,18 +7547,21 @@
       <c r="CP24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -7776,18 +7843,21 @@
       <c r="CP25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -8069,18 +8139,21 @@
       <c r="CP26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
@@ -8332,18 +8405,21 @@
       <c r="CP27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -8529,18 +8605,21 @@
       <c r="CP28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CQ28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:94" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -8724,6 +8803,9 @@
         <v>7</v>
       </c>
       <c r="CP29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ29" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD77787-4317-E643-9DF7-A173B234AD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720C5B89-FC79-2A48-9973-AF8E790C3DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="46">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CQ29"/>
+  <dimension ref="A1:CS30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CS22" sqref="CS22"/>
+      <selection pane="topRight" activeCell="CX28" sqref="CX28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:97" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,18 +929,24 @@
       <c r="CQ1" s="5">
         <v>46008</v>
       </c>
+      <c r="CR1" s="5">
+        <v>46009</v>
+      </c>
+      <c r="CS1" s="5">
+        <v>46010</v>
+      </c>
     </row>
-    <row r="2" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1225,18 +1231,24 @@
       <c r="CQ2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1521,18 +1533,24 @@
       <c r="CQ3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1817,18 +1835,24 @@
       <c r="CQ4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2113,18 +2137,24 @@
       <c r="CQ5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -2144,7 +2174,7 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="7"/>
@@ -2409,18 +2439,24 @@
       <c r="CQ6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS6" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2705,18 +2741,24 @@
       <c r="CQ7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2736,7 +2778,7 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="7"/>
@@ -3001,18 +3043,24 @@
       <c r="CQ8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS8" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3297,18 +3345,24 @@
       <c r="CQ9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3593,18 +3647,24 @@
       <c r="CQ10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3889,8 +3949,14 @@
       <c r="CQ11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4051,13 +4117,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4073,7 +4139,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -4346,18 +4412,24 @@
       <c r="CQ13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4642,18 +4714,24 @@
       <c r="CQ14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -4938,18 +5016,24 @@
       <c r="CQ15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -5234,18 +5318,24 @@
       <c r="CQ16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -5530,18 +5620,24 @@
       <c r="CQ17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -5826,18 +5922,24 @@
       <c r="CQ18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -6122,18 +6224,24 @@
       <c r="CQ19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -6418,8 +6526,14 @@
       <c r="CQ20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -6662,18 +6776,20 @@
       <c r="CO21" s="4"/>
       <c r="CP21" s="4"/>
       <c r="CQ21" s="4"/>
+      <c r="CR21" s="4"/>
+      <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -6958,14 +7074,20 @@
       <c r="CQ22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="9"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="10"/>
@@ -6981,7 +7103,7 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="5"/>
@@ -7254,18 +7376,24 @@
       <c r="CQ23" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CR23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CS23" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -7550,18 +7678,24 @@
       <c r="CQ24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="4"/>
@@ -7846,18 +7980,24 @@
       <c r="CQ25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS25" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -8142,22 +8282,28 @@
       <c r="CQ26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" ref="E27:E29" si="14">COUNTIF(K27:VR27,"A")</f>
@@ -8408,18 +8554,24 @@
       <c r="CQ27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="CS27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -8608,18 +8760,24 @@
       <c r="CQ28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CR28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -8807,6 +8965,22 @@
       </c>
       <c r="CQ29" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="CR29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CS29" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:97" x14ac:dyDescent="0.2">
+      <c r="CR30">
+        <f>COUNTIF(CR5:CR29,"P")</f>
+        <v>20</v>
+      </c>
+      <c r="CS30">
+        <f>COUNTIF(CS5:CS29,"P")</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720C5B89-FC79-2A48-9973-AF8E790C3DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD84E7D3-F032-9644-A1E7-69B66F100509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -631,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CS30"/>
+  <dimension ref="A1:CS29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CX28" sqref="CX28"/>
+      <selection pane="topRight" activeCell="CU26" sqref="CU26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8973,16 +8973,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.2">
-      <c r="CR30">
-        <f>COUNTIF(CR5:CR29,"P")</f>
-        <v>20</v>
-      </c>
-      <c r="CS30">
-        <f>COUNTIF(CS5:CS29,"P")</f>
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A21:A29">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD84E7D3-F032-9644-A1E7-69B66F100509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DEC51B-AD1D-A646-BE36-E0D713715964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="47">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>Theo Owono</t>
   </si>
 </sst>
 </file>
@@ -631,11 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CS29"/>
+  <dimension ref="A1:CT30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CU26" sqref="CU26"/>
+      <pane xSplit="1" topLeftCell="CS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CW28" sqref="CW28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +646,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:98" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,18 +938,21 @@
       <c r="CS1" s="5">
         <v>46010</v>
       </c>
+      <c r="CT1" s="5">
+        <v>46024</v>
+      </c>
     </row>
-    <row r="2" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1237,18 +1243,21 @@
       <c r="CS2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1539,18 +1548,21 @@
       <c r="CS3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1841,18 +1853,21 @@
       <c r="CS4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2143,18 +2158,21 @@
       <c r="CS5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -2445,18 +2463,21 @@
       <c r="CS6" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="CT6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2747,18 +2768,21 @@
       <c r="CS7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -3049,18 +3073,21 @@
       <c r="CS8" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="CT8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3351,14 +3378,17 @@
       <c r="CS9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
@@ -3386,7 +3416,7 @@
       </c>
       <c r="I10" s="4">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="8"/>
@@ -3653,18 +3683,21 @@
       <c r="CS10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT10" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="11" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3955,8 +3988,11 @@
       <c r="CS11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4117,13 +4153,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4139,7 +4175,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -4418,18 +4454,21 @@
       <c r="CS13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CT13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4720,18 +4759,21 @@
       <c r="CS14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -5022,14 +5064,17 @@
       <c r="CS15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
@@ -5045,7 +5090,7 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="5"/>
@@ -5324,18 +5369,21 @@
       <c r="CS16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -5626,18 +5674,21 @@
       <c r="CS17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -5928,18 +5979,21 @@
       <c r="CS18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -6230,18 +6284,21 @@
       <c r="CS19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -6532,8 +6589,11 @@
       <c r="CS20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -6779,17 +6839,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -7080,8 +7140,11 @@
       <c r="CS22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -7383,17 +7446,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -7684,14 +7747,17 @@
       <c r="CS24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -7703,7 +7769,7 @@
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
@@ -7986,18 +8052,21 @@
       <c r="CS25" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT25" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -8288,18 +8357,21 @@
       <c r="CS26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
@@ -8560,18 +8632,21 @@
       <c r="CS27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -8766,18 +8841,21 @@
       <c r="CS28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -8972,9 +9050,20 @@
       <c r="CS29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CT29" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="CT30" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A21:A29">
+  <conditionalFormatting sqref="A21:A30">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DEC51B-AD1D-A646-BE36-E0D713715964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D143F5C6-D205-3A48-AEC4-C00F1ED8A5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="47">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -634,11 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CT30"/>
+  <dimension ref="A1:CV30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CW28" sqref="CW28"/>
+      <pane xSplit="1" topLeftCell="CT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CX27" sqref="CX27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,7 +646,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:100" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,18 +941,24 @@
       <c r="CT1" s="5">
         <v>46024</v>
       </c>
+      <c r="CU1" s="5">
+        <v>46027</v>
+      </c>
+      <c r="CV1" s="5">
+        <v>46028</v>
+      </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1246,18 +1252,24 @@
       <c r="CT2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1551,18 +1563,24 @@
       <c r="CT3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1856,18 +1874,24 @@
       <c r="CT4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2161,18 +2185,24 @@
       <c r="CT5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -2180,7 +2210,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
@@ -2466,18 +2496,24 @@
       <c r="CT6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2771,18 +2807,24 @@
       <c r="CT7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -3076,14 +3118,20 @@
       <c r="CT8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
@@ -3103,7 +3151,7 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="6"/>
@@ -3381,18 +3429,24 @@
       <c r="CT9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CV9" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3686,18 +3740,24 @@
       <c r="CT10" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CU10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -3991,8 +4051,14 @@
       <c r="CT11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4153,13 +4219,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4175,7 +4241,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -4457,18 +4523,24 @@
       <c r="CT13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CU13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CV13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4762,18 +4834,24 @@
       <c r="CT14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -5067,18 +5145,24 @@
       <c r="CT15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -5102,7 +5186,7 @@
       </c>
       <c r="I16" s="4">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="8"/>
@@ -5372,18 +5456,24 @@
       <c r="CT16" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CU16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="CV16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -5677,18 +5767,24 @@
       <c r="CT17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -5982,18 +6078,24 @@
       <c r="CT18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -6287,18 +6389,24 @@
       <c r="CT19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -6592,8 +6700,14 @@
       <c r="CT20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -6839,17 +6953,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -7143,8 +7257,14 @@
       <c r="CT22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -7446,17 +7566,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -7750,14 +7870,20 @@
       <c r="CT24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -7769,7 +7895,7 @@
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
@@ -8055,14 +8181,20 @@
       <c r="CT25" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="CU25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV25" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
@@ -8082,7 +8214,7 @@
       </c>
       <c r="G26" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="6"/>
@@ -8360,18 +8492,24 @@
       <c r="CT26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CV26" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="27" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
@@ -8635,18 +8773,24 @@
       <c r="CT27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -8844,18 +8988,24 @@
       <c r="CT28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -9053,12 +9203,24 @@
       <c r="CT29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CU29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:100" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="CT30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV30" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D143F5C6-D205-3A48-AEC4-C00F1ED8A5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D8740C-E694-4445-AE86-D17FC4661C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="47">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -634,11 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CV30"/>
+  <dimension ref="A1:CW30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CX27" sqref="CX27"/>
+      <pane xSplit="1" topLeftCell="CW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CW27" sqref="CW27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,7 +646,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:101" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -947,18 +947,21 @@
       <c r="CV1" s="5">
         <v>46028</v>
       </c>
+      <c r="CW1" s="5">
+        <v>46029</v>
+      </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1258,18 +1261,21 @@
       <c r="CV2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1569,18 +1575,21 @@
       <c r="CV3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1880,18 +1889,21 @@
       <c r="CV4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2191,18 +2203,21 @@
       <c r="CV5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -2502,18 +2517,21 @@
       <c r="CV6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2813,18 +2831,21 @@
       <c r="CV7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -3124,14 +3145,17 @@
       <c r="CV8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
@@ -3159,7 +3183,7 @@
       </c>
       <c r="I9" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="8"/>
@@ -3435,18 +3459,21 @@
       <c r="CV9" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="CW9" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3746,18 +3773,21 @@
       <c r="CV10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4057,8 +4087,11 @@
       <c r="CV11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4219,13 +4252,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4241,7 +4274,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -4529,18 +4562,21 @@
       <c r="CV13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CW13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4840,18 +4876,21 @@
       <c r="CV14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -5151,14 +5190,17 @@
       <c r="CV15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
@@ -5166,7 +5208,7 @@
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
@@ -5462,18 +5504,21 @@
       <c r="CV16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW16" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="17" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -5773,18 +5818,21 @@
       <c r="CV17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -6084,18 +6132,21 @@
       <c r="CV18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -6395,18 +6446,21 @@
       <c r="CV19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -6706,8 +6760,11 @@
       <c r="CV20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -6953,17 +7010,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -7263,8 +7320,11 @@
       <c r="CV22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -7566,17 +7626,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -7876,14 +7936,17 @@
       <c r="CV24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -7895,7 +7958,7 @@
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="1"/>
@@ -8187,18 +8250,21 @@
       <c r="CV25" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="CW25" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="26" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -8498,18 +8564,21 @@
       <c r="CV26" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="CW26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
@@ -8779,18 +8848,21 @@
       <c r="CV27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -8994,18 +9066,21 @@
       <c r="CV28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -9209,8 +9284,11 @@
       <c r="CV29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CW29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -9221,6 +9299,9 @@
         <v>7</v>
       </c>
       <c r="CV30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CW30" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D8740C-E694-4445-AE86-D17FC4661C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114B882D-B94D-1D40-9AF7-33480E91F81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="47">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -634,11 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CW30"/>
+  <dimension ref="A1:CX30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CW27" sqref="CW27"/>
+      <selection pane="topRight" activeCell="CX28" sqref="CX28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,7 +646,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:102" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,18 +950,21 @@
       <c r="CW1" s="5">
         <v>46029</v>
       </c>
+      <c r="CX1" s="5">
+        <v>46030</v>
+      </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1264,18 +1267,21 @@
       <c r="CW2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1578,18 +1584,21 @@
       <c r="CW3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1892,18 +1901,21 @@
       <c r="CW4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2206,14 +2218,17 @@
       <c r="CW5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -2237,7 +2252,7 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="7"/>
@@ -2520,18 +2535,21 @@
       <c r="CW6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX6" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2834,14 +2852,17 @@
       <c r="CW7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -2865,7 +2886,7 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="7"/>
@@ -3148,14 +3169,17 @@
       <c r="CW8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX8" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
@@ -3183,7 +3207,7 @@
       </c>
       <c r="I9" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="8"/>
@@ -3462,18 +3486,21 @@
       <c r="CW9" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CX9" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3776,18 +3803,21 @@
       <c r="CW10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4090,8 +4120,11 @@
       <c r="CW11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4252,13 +4285,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4274,7 +4307,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -4565,18 +4598,21 @@
       <c r="CW13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CX13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4879,18 +4915,21 @@
       <c r="CW14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -5193,14 +5232,17 @@
       <c r="CW15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
@@ -5228,7 +5270,7 @@
       </c>
       <c r="I16" s="4">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="8"/>
@@ -5507,18 +5549,21 @@
       <c r="CW16" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="CX16" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -5821,18 +5866,21 @@
       <c r="CW17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -6135,18 +6183,21 @@
       <c r="CW18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -6449,18 +6500,21 @@
       <c r="CW19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -6763,8 +6817,11 @@
       <c r="CW20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7010,17 +7067,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -7323,8 +7380,11 @@
       <c r="CW22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -7626,17 +7686,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -7939,14 +7999,17 @@
       <c r="CW24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -7970,7 +8033,7 @@
       </c>
       <c r="H25" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="7"/>
@@ -8253,18 +8316,21 @@
       <c r="CW25" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="CX25" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="26" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -8567,18 +8633,21 @@
       <c r="CW26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
@@ -8851,18 +8920,21 @@
       <c r="CW27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -9069,18 +9141,21 @@
       <c r="CW28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -9287,8 +9362,11 @@
       <c r="CW29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CX29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:101" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -9302,6 +9380,9 @@
         <v>7</v>
       </c>
       <c r="CW30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CX30" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114B882D-B94D-1D40-9AF7-33480E91F81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37BC49D-DBF6-EE4F-BF99-6BB4DE798761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="47">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -634,11 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CX30"/>
+  <dimension ref="A1:CZ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CX28" sqref="CX28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DC27" sqref="DC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,7 +646,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:104" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,18 +953,24 @@
       <c r="CX1" s="5">
         <v>46030</v>
       </c>
+      <c r="CY1" s="3">
+        <v>46034</v>
+      </c>
+      <c r="CZ1" s="3">
+        <v>46035</v>
+      </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1270,18 +1276,24 @@
       <c r="CX2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1587,18 +1599,24 @@
       <c r="CX3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1904,18 +1922,24 @@
       <c r="CX4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2221,18 +2245,24 @@
       <c r="CX5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -2240,7 +2270,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
@@ -2538,18 +2568,24 @@
       <c r="CX6" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="CY6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="CZ6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2557,7 +2593,7 @@
       </c>
       <c r="E7" s="4">
         <f>COUNTIF(K7:VR7,"A")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="1"/>
@@ -2855,18 +2891,24 @@
       <c r="CX7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="CZ7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -3172,18 +3214,24 @@
       <c r="CX8" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="CY8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3489,18 +3537,24 @@
       <c r="CX9" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CY9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3806,18 +3860,24 @@
       <c r="CX10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4123,8 +4183,14 @@
       <c r="CX11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4285,13 +4351,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4307,7 +4373,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -4601,18 +4667,24 @@
       <c r="CX13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="CY13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4918,18 +4990,24 @@
       <c r="CX14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -5235,18 +5313,24 @@
       <c r="CX15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -5552,18 +5636,24 @@
       <c r="CX16" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="CY16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -5869,18 +5959,24 @@
       <c r="CX17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -5892,7 +5988,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="5"/>
@@ -6186,18 +6282,24 @@
       <c r="CX18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CZ18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -6503,18 +6605,24 @@
       <c r="CX19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -6820,8 +6928,14 @@
       <c r="CX20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7067,13 +7181,13 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
@@ -7081,7 +7195,7 @@
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
@@ -7093,7 +7207,7 @@
       </c>
       <c r="G22" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="6"/>
@@ -7383,8 +7497,14 @@
       <c r="CX22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="CZ22" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="23" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -7686,17 +7806,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -8002,14 +8122,20 @@
       <c r="CX24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -8033,7 +8159,7 @@
       </c>
       <c r="H25" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="7"/>
@@ -8319,18 +8445,24 @@
       <c r="CX25" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="CY25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="CZ25" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="26" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -8636,18 +8768,24 @@
       <c r="CX26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
@@ -8923,18 +9061,24 @@
       <c r="CX27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -9144,18 +9288,24 @@
       <c r="CX28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -9365,8 +9515,14 @@
       <c r="CX29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="CY29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:102" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -9383,6 +9539,12 @@
         <v>7</v>
       </c>
       <c r="CX30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CY30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="CZ30" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37BC49D-DBF6-EE4F-BF99-6BB4DE798761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A772DE7B-057A-2541-87B8-4384C2A35374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="47">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -634,11 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:CZ30"/>
+  <dimension ref="A1:DA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DC27" sqref="DC27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DD22" sqref="DD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,7 +646,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:105" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,18 +959,21 @@
       <c r="CZ1" s="3">
         <v>46035</v>
       </c>
+      <c r="DA1" s="3">
+        <v>46036</v>
+      </c>
     </row>
-    <row r="2" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -1282,18 +1285,21 @@
       <c r="CZ2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1605,18 +1611,21 @@
       <c r="CZ3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1928,18 +1937,21 @@
       <c r="CZ4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2251,18 +2263,21 @@
       <c r="CZ5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -2574,18 +2589,21 @@
       <c r="CZ6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2897,18 +2915,21 @@
       <c r="CZ7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -3220,18 +3241,21 @@
       <c r="CZ8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3543,18 +3567,21 @@
       <c r="CZ9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3866,18 +3893,21 @@
       <c r="CZ10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4189,8 +4219,11 @@
       <c r="CZ11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4351,13 +4384,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4373,7 +4406,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -4673,18 +4706,21 @@
       <c r="CZ13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DA13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -4996,18 +5032,21 @@
       <c r="CZ14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -5319,18 +5358,21 @@
       <c r="CZ15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -5642,18 +5684,21 @@
       <c r="CZ16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -5965,18 +6010,21 @@
       <c r="CZ17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -6288,18 +6336,21 @@
       <c r="CZ18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -6611,18 +6662,21 @@
       <c r="CZ19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -6934,8 +6988,11 @@
       <c r="CZ20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7181,17 +7238,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -7503,8 +7560,11 @@
       <c r="CZ22" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="DA22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -7806,17 +7866,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -8128,14 +8188,17 @@
       <c r="CZ24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -8159,7 +8222,7 @@
       </c>
       <c r="H25" s="4">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="7"/>
@@ -8451,14 +8514,17 @@
       <c r="CZ25" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="DA25" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="26" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
@@ -8474,7 +8540,7 @@
       </c>
       <c r="F26" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="5"/>
@@ -8774,18 +8840,21 @@
       <c r="CZ26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="27" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
@@ -9067,18 +9136,21 @@
       <c r="CZ27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -9294,18 +9366,21 @@
       <c r="CZ28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -9521,8 +9596,11 @@
       <c r="CZ29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DA29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -9545,6 +9623,9 @@
         <v>7</v>
       </c>
       <c r="CZ30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DA30" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A772DE7B-057A-2541-87B8-4384C2A35374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C8712E-41AF-684F-8B40-C22DFFFDC42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -637,8 +637,8 @@
   <dimension ref="A1:DA30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DD22" sqref="DD22"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9604,6 +9604,42 @@
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B30" s="4">
+        <f t="shared" ref="B30" si="20">COUNTA(K30:VQ30)</f>
+        <v>8</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" ref="C30" si="21">COUNTIF(K30:VQ30,"P")</f>
+        <v>8</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" ref="D30" si="22">COUNTIF(K30:VQ30,"REP")</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" ref="E30" si="23">COUNTIF(K30:VR30,"A")</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" ref="F30" si="24">COUNTIF(K30:VS30,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" ref="G30" si="25">COUNTIF(K30:VT30,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" ref="H30" si="26">COUNTIF(K30:VU30,"R")</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" ref="I30" si="27">COUNTIF(K30:VV30,"RH")</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" ref="J30" si="28">COUNTIF(K30:VV30,"S")</f>
+        <v>0</v>
+      </c>
       <c r="CT30" s="4" t="s">
         <v>7</v>
       </c>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C8712E-41AF-684F-8B40-C22DFFFDC42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59149C8-8F15-7243-B3A9-0E120C2D1A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="47">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -634,11 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DA30"/>
+  <dimension ref="A1:DC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I34" sqref="I34"/>
+      <pane xSplit="1" topLeftCell="DB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DE27" sqref="DE27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,7 +646,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:107" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,18 +962,24 @@
       <c r="DA1" s="3">
         <v>46036</v>
       </c>
+      <c r="DB1" s="3">
+        <v>46041</v>
+      </c>
+      <c r="DC1" s="3">
+        <v>46042</v>
+      </c>
     </row>
-    <row r="2" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VQ2)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VQ2,"P")</f>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VQ2,"REP")</f>
@@ -985,7 +991,7 @@
       </c>
       <c r="F2" s="4">
         <f t="shared" ref="F2:F26" si="1">COUNTIF(K2:VS2,"B")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" s="4">
         <f>COUNTIF(K2:VT2,"M")</f>
@@ -1280,26 +1286,32 @@
         <v>7</v>
       </c>
       <c r="CY2" s="4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="CZ2" s="4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="DA2" s="4" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="DB2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC2" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
@@ -1614,18 +1626,24 @@
       <c r="DA3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1940,18 +1958,24 @@
       <c r="DA4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2266,18 +2290,24 @@
       <c r="DA5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -2285,7 +2315,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VS6,"B")</f>
@@ -2592,18 +2622,24 @@
       <c r="DA6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="DC6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -2918,18 +2954,24 @@
       <c r="DA7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -3244,18 +3286,24 @@
       <c r="DA8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3570,18 +3618,24 @@
       <c r="DA9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3896,18 +3950,24 @@
       <c r="DA10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4222,8 +4282,14 @@
       <c r="DA11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4384,13 +4450,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4406,7 +4472,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -4418,7 +4484,7 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="8"/>
@@ -4709,18 +4775,24 @@
       <c r="DA13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DB13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC13" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="14" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -5035,18 +5107,24 @@
       <c r="DA14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -5361,18 +5439,24 @@
       <c r="DA15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -5687,18 +5771,24 @@
       <c r="DA16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -6013,14 +6103,20 @@
       <c r="DA17" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC17" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="18" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
@@ -6036,7 +6132,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="5"/>
@@ -6339,18 +6435,24 @@
       <c r="DA18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DC18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -6665,18 +6767,24 @@
       <c r="DA19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -6991,8 +7099,14 @@
       <c r="DA20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7238,17 +7352,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -7563,8 +7677,14 @@
       <c r="DA22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -7866,17 +7986,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -8191,8 +8311,14 @@
       <c r="DA24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -8517,18 +8643,20 @@
       <c r="DA25" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="DB25" s="4"/>
+      <c r="DC25" s="4"/>
     </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -8552,7 +8680,7 @@
       </c>
       <c r="I26" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="8"/>
@@ -8843,22 +8971,28 @@
       <c r="DA26" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DB26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="DC26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" ref="E27:E29" si="14">COUNTIF(K27:VR27,"A")</f>
@@ -9139,18 +9273,24 @@
       <c r="DA27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="DC27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -9166,7 +9306,7 @@
       </c>
       <c r="G28" s="4">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="17"/>
@@ -9369,18 +9509,24 @@
       <c r="DA28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="DC28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -9599,18 +9745,24 @@
       <c r="DA29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DB29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30" si="20">COUNTA(K30:VQ30)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ref="C30" si="21">COUNTIF(K30:VQ30,"P")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30" si="22">COUNTIF(K30:VQ30,"REP")</f>
@@ -9662,6 +9814,12 @@
         <v>7</v>
       </c>
       <c r="DA30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DB30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC30" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59149C8-8F15-7243-B3A9-0E120C2D1A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D612AA-E088-5D40-8F82-DFB62D65EC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="47">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -634,11 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DC30"/>
+  <dimension ref="A1:DE30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DE27" sqref="DE27"/>
+      <pane xSplit="1" topLeftCell="DE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DH10" sqref="DH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,7 +646,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:109" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,50 +963,56 @@
         <v>46036</v>
       </c>
       <c r="DB1" s="3">
+        <v>46038</v>
+      </c>
+      <c r="DC1" s="3">
         <v>46041</v>
       </c>
-      <c r="DC1" s="3">
+      <c r="DD1" s="3">
         <v>46042</v>
       </c>
+      <c r="DE1" s="3">
+        <v>46043</v>
+      </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
-        <f>COUNTA(K2:VQ2)</f>
-        <v>97</v>
+        <f>COUNTA(K2:VR2)</f>
+        <v>99</v>
       </c>
       <c r="C2" s="4">
-        <f>COUNTIF(K2:VQ2,"P")</f>
+        <f>COUNTIF(K2:VR2,"P")</f>
         <v>92</v>
       </c>
       <c r="D2" s="6">
-        <f>COUNTIF(K2:VQ2,"REP")</f>
+        <f>COUNTIF(K2:VR2,"REP")</f>
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E26" si="0">COUNTIF(K2:VR2,"A")</f>
+        <f t="shared" ref="E2:E26" si="0">COUNTIF(K2:VS2,"A")</f>
         <v>0</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F26" si="1">COUNTIF(K2:VS2,"B")</f>
-        <v>5</v>
+        <f t="shared" ref="F2:F26" si="1">COUNTIF(K2:VT2,"B")</f>
+        <v>7</v>
       </c>
       <c r="G2" s="4">
-        <f>COUNTIF(K2:VT2,"M")</f>
+        <f>COUNTIF(K2:VU2,"M")</f>
         <v>0</v>
       </c>
       <c r="H2" s="4">
-        <f>COUNTIF(K2:VU2,"R")</f>
+        <f>COUNTIF(K2:VV2,"R")</f>
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <f>COUNTIF(K2:VV2,"RH")</f>
+        <f>COUNTIF(K2:VW2,"RH")</f>
         <v>0</v>
       </c>
       <c r="J2" s="4">
-        <f>COUNTIF(K2:VV2,"S")</f>
+        <f>COUNTIF(K2:VW2,"S")</f>
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -1300,21 +1306,27 @@
       <c r="DC2" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DD2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DE2" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VQ3)</f>
-        <v>97</v>
+        <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VR3)</f>
+        <v>99</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VQ3,"P")</f>
-        <v>81</v>
+        <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VR3,"P")</f>
+        <v>83</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VQ3,"REP")</f>
+        <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VR3,"REP")</f>
         <v>0</v>
       </c>
       <c r="E3" s="4">
@@ -1326,19 +1338,19 @@
         <v>2</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G26" si="5">COUNTIF(K3:VT3,"M")</f>
+        <f t="shared" ref="G3:G26" si="5">COUNTIF(K3:VU3,"M")</f>
         <v>2</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VU3,"R")</f>
+        <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VV3,"R")</f>
         <v>12</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" ref="I3:I26" si="7">COUNTIF(K3:VV3,"RH")</f>
+        <f t="shared" ref="I3:I26" si="7">COUNTIF(K3:VW3,"RH")</f>
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J26" si="8">COUNTIF(K3:VV3,"S")</f>
+        <f t="shared" ref="J3:J26" si="8">COUNTIF(K3:VW3,"S")</f>
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -1632,18 +1644,24 @@
       <c r="DC3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DD3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1964,18 +1982,24 @@
       <c r="DC4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DD4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2296,14 +2320,20 @@
       <c r="DC5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DD5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -2318,16 +2348,16 @@
         <v>6</v>
       </c>
       <c r="F6" s="4">
-        <f>COUNTIF(K6:VS6,"B")</f>
+        <f>COUNTIF(K6:VT6,"B")</f>
         <v>26</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="7"/>
@@ -2623,30 +2653,36 @@
         <v>7</v>
       </c>
       <c r="DB6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="DC6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="DC6" s="4" t="s">
-        <v>7</v>
+      <c r="DD6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE6" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E7" s="4">
-        <f>COUNTIF(K7:VR7,"A")</f>
+        <f>COUNTIF(K7:VS7,"A")</f>
         <v>2</v>
       </c>
       <c r="F7" s="4">
@@ -2960,18 +2996,24 @@
       <c r="DC7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DD7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -2991,7 +3033,7 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="7"/>
@@ -3287,23 +3329,29 @@
         <v>7</v>
       </c>
       <c r="DB8" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="DC8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DD8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3624,18 +3672,24 @@
       <c r="DC9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DD9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -3956,18 +4010,24 @@
       <c r="DC10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DD10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4288,8 +4348,14 @@
       <c r="DC11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DD11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4450,13 +4516,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4472,7 +4538,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -4484,7 +4550,7 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="8"/>
@@ -4779,20 +4845,26 @@
         <v>35</v>
       </c>
       <c r="DC13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DD13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="DE13" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -5113,18 +5185,24 @@
       <c r="DC14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DD14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -5445,18 +5523,24 @@
       <c r="DC15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DD15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -5777,18 +5861,24 @@
       <c r="DC16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DD16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="4"/>
@@ -6103,24 +6193,22 @@
       <c r="DA17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="DB17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="DC17" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="DB17" s="4"/>
+      <c r="DC17" s="4"/>
+      <c r="DD17" s="4"/>
+      <c r="DE17" s="4"/>
     </row>
-    <row r="18" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -6132,7 +6220,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="5"/>
@@ -6436,23 +6524,29 @@
         <v>7</v>
       </c>
       <c r="DB18" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="DC18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DD18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DE18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -6773,18 +6867,24 @@
       <c r="DC19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DD19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -7105,8 +7205,14 @@
       <c r="DC20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DD20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7352,17 +7458,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VQ22)</f>
-        <v>97</v>
+        <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VR22)</f>
+        <v>99</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VQ22,"P")</f>
-        <v>93</v>
+        <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VR22,"P")</f>
+        <v>95</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -7683,8 +7789,14 @@
       <c r="DC22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DD22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -7986,17 +8098,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -8317,14 +8429,20 @@
       <c r="DC24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DD24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="9"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="10"/>
@@ -8348,7 +8466,7 @@
       </c>
       <c r="H25" s="4">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="7"/>
@@ -8643,20 +8761,24 @@
       <c r="DA25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="DB25" s="4"/>
+      <c r="DB25" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="DC25" s="4"/>
+      <c r="DD25" s="4"/>
+      <c r="DE25" s="4"/>
     </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -8668,7 +8790,7 @@
       </c>
       <c r="F26" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="5"/>
@@ -8972,50 +9094,56 @@
         <v>35</v>
       </c>
       <c r="DB26" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="DC26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="DD26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE26" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VQ27)</f>
-        <v>87</v>
+        <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VR27)</f>
+        <v>89</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VQ27,"P")</f>
-        <v>57</v>
+        <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VR27,"P")</f>
+        <v>59</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VQ27,"REP")</f>
+        <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VR27,"REP")</f>
         <v>7</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" ref="E27:E29" si="14">COUNTIF(K27:VR27,"A")</f>
+        <f t="shared" ref="E27:E29" si="14">COUNTIF(K27:VS27,"A")</f>
         <v>0</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" ref="F27:F29" si="15">COUNTIF(K27:VS27,"B")</f>
+        <f t="shared" ref="F27:F29" si="15">COUNTIF(K27:VT27,"B")</f>
         <v>0</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" ref="G27:G29" si="16">COUNTIF(K27:VT27,"M")</f>
+        <f t="shared" ref="G27:G29" si="16">COUNTIF(K27:VU27,"M")</f>
         <v>1</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" ref="H27:H29" si="17">COUNTIF(K27:VU27,"R")</f>
+        <f t="shared" ref="H27:H29" si="17">COUNTIF(K27:VV27,"R")</f>
         <v>0</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" ref="I27:I29" si="18">COUNTIF(K27:VV27,"RH")</f>
+        <f t="shared" ref="I27:I29" si="18">COUNTIF(K27:VW27,"RH")</f>
         <v>22</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" ref="J27:J29" si="19">COUNTIF(K27:VV27,"S")</f>
+        <f t="shared" ref="J27:J29" si="19">COUNTIF(K27:VW27,"S")</f>
         <v>0</v>
       </c>
       <c r="U27" s="4" t="s">
@@ -9274,23 +9402,29 @@
         <v>7</v>
       </c>
       <c r="DB27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="DC27" s="4" t="s">
+      <c r="DD27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE27" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -9510,23 +9644,29 @@
         <v>7</v>
       </c>
       <c r="DB28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DC28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="DC28" s="4" t="s">
+      <c r="DD28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE28" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -9751,45 +9891,51 @@
       <c r="DC29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DD29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
-        <f t="shared" ref="B30" si="20">COUNTA(K30:VQ30)</f>
-        <v>10</v>
+        <f t="shared" ref="B30" si="20">COUNTA(K30:VR30)</f>
+        <v>12</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" ref="C30" si="21">COUNTIF(K30:VQ30,"P")</f>
-        <v>10</v>
+        <f t="shared" ref="C30" si="21">COUNTIF(K30:VR30,"P")</f>
+        <v>12</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" ref="D30" si="22">COUNTIF(K30:VQ30,"REP")</f>
+        <f t="shared" ref="D30" si="22">COUNTIF(K30:VR30,"REP")</f>
         <v>0</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" ref="E30" si="23">COUNTIF(K30:VR30,"A")</f>
+        <f t="shared" ref="E30" si="23">COUNTIF(K30:VS30,"A")</f>
         <v>0</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" ref="F30" si="24">COUNTIF(K30:VS30,"B")</f>
+        <f t="shared" ref="F30" si="24">COUNTIF(K30:VT30,"B")</f>
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" ref="G30" si="25">COUNTIF(K30:VT30,"M")</f>
+        <f t="shared" ref="G30" si="25">COUNTIF(K30:VU30,"M")</f>
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" ref="H30" si="26">COUNTIF(K30:VU30,"R")</f>
+        <f t="shared" ref="H30" si="26">COUNTIF(K30:VV30,"R")</f>
         <v>0</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" ref="I30" si="27">COUNTIF(K30:VV30,"RH")</f>
+        <f t="shared" ref="I30" si="27">COUNTIF(K30:VW30,"RH")</f>
         <v>0</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" ref="J30" si="28">COUNTIF(K30:VV30,"S")</f>
+        <f t="shared" ref="J30" si="28">COUNTIF(K30:VW30,"S")</f>
         <v>0</v>
       </c>
       <c r="CT30" s="4" t="s">
@@ -9820,6 +9966,12 @@
         <v>7</v>
       </c>
       <c r="DC30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DD30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DE30" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D612AA-E088-5D40-8F82-DFB62D65EC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D3B030-2641-084D-B66B-A55B56505B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="48">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Theo Owono</t>
+  </si>
+  <si>
+    <t>Mehdi Boussaid</t>
   </si>
 </sst>
 </file>
@@ -634,11 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DE30"/>
+  <dimension ref="A1:DG31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <pane xSplit="1" topLeftCell="DE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DH10" sqref="DH10"/>
+      <selection pane="topRight" activeCell="DI29" sqref="DI29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,7 +649,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:111" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,18 +977,24 @@
       <c r="DE1" s="3">
         <v>46043</v>
       </c>
+      <c r="DF1" s="3">
+        <v>46048</v>
+      </c>
+      <c r="DG1" s="3">
+        <v>46049</v>
+      </c>
     </row>
-    <row r="2" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VR2)</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VR2,"P")</f>
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VR2,"REP")</f>
@@ -997,7 +1006,7 @@
       </c>
       <c r="F2" s="4">
         <f t="shared" ref="F2:F26" si="1">COUNTIF(K2:VT2,"B")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G2" s="4">
         <f>COUNTIF(K2:VU2,"M")</f>
@@ -1304,26 +1313,32 @@
         <v>35</v>
       </c>
       <c r="DC2" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="DD2" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="DE2" s="4" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="DF2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VR3)</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VR3,"P")</f>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VR3,"REP")</f>
@@ -1650,18 +1665,24 @@
       <c r="DE3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -1988,18 +2009,24 @@
       <c r="DE4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2326,18 +2353,24 @@
       <c r="DE5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -2345,7 +2378,7 @@
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VT6,"B")</f>
@@ -2664,18 +2697,24 @@
       <c r="DE6" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="DF6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="DG6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -3002,18 +3041,24 @@
       <c r="DE7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -3340,18 +3385,24 @@
       <c r="DE8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3678,18 +3729,24 @@
       <c r="DE9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -4016,18 +4073,24 @@
       <c r="DE10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4354,8 +4417,14 @@
       <c r="DE11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4516,13 +4585,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4550,7 +4619,7 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="8"/>
@@ -4853,18 +4922,24 @@
       <c r="DE13" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="DF13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="DG13" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="14" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -5191,18 +5266,24 @@
       <c r="DE14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -5529,18 +5610,24 @@
       <c r="DE15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -5867,8 +5954,14 @@
       <c r="DE16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -6197,14 +6290,16 @@
       <c r="DC17" s="4"/>
       <c r="DD17" s="4"/>
       <c r="DE17" s="4"/>
+      <c r="DF17" s="4"/>
+      <c r="DG17" s="4"/>
     </row>
-    <row r="18" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
@@ -6220,7 +6315,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="5"/>
@@ -6232,7 +6327,7 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="8"/>
@@ -6535,18 +6630,24 @@
       <c r="DE18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DF18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DG18" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -6873,18 +6974,24 @@
       <c r="DE19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -7211,8 +7318,14 @@
       <c r="DE20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7458,17 +7571,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VR22)</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VR22,"P")</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -7795,8 +7908,14 @@
       <c r="DE22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -8098,17 +8217,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -8435,8 +8554,14 @@
       <c r="DE24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -8767,14 +8892,16 @@
       <c r="DC25" s="4"/>
       <c r="DD25" s="4"/>
       <c r="DE25" s="4"/>
+      <c r="DF25" s="4"/>
+      <c r="DG25" s="4"/>
     </row>
-    <row r="26" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
@@ -8786,7 +8913,7 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="1"/>
@@ -9105,18 +9232,24 @@
       <c r="DE26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="DG26" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VR27)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VR27,"P")</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VR27,"REP")</f>
@@ -9413,18 +9546,24 @@
       <c r="DE27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -9655,18 +9794,24 @@
       <c r="DE28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -9897,18 +10042,24 @@
       <c r="DE29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:109" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30" si="20">COUNTA(K30:VR30)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ref="C30" si="21">COUNTIF(K30:VR30,"P")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30" si="22">COUNTIF(K30:VR30,"REP")</f>
@@ -9974,9 +10125,62 @@
       <c r="DE30" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DF30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG30" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" ref="B31" si="29">COUNTA(K31:VR31)</f>
+        <v>2</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" ref="C31" si="30">COUNTIF(K31:VR31,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" ref="D31" si="31">COUNTIF(K31:VR31,"REP")</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" ref="E31" si="32">COUNTIF(K31:VS31,"A")</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" ref="F31" si="33">COUNTIF(K31:VT31,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" ref="G31" si="34">COUNTIF(K31:VU31,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" ref="H31" si="35">COUNTIF(K31:VV31,"R")</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" ref="I31" si="36">COUNTIF(K31:VW31,"RH")</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" ref="J31" si="37">COUNTIF(K31:VW31,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="DF31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DG31" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A21:A30">
+  <conditionalFormatting sqref="A21:A31">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D3B030-2641-084D-B66B-A55B56505B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94DEDD1-E9A9-0242-8CC3-077826CAA32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="48">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -637,11 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DG31"/>
+  <dimension ref="A1:DH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DI29" sqref="DI29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DJ28" sqref="DJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,7 +649,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:112" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,18 +983,21 @@
       <c r="DG1" s="3">
         <v>46049</v>
       </c>
+      <c r="DH1" s="3">
+        <v>46050</v>
+      </c>
     </row>
-    <row r="2" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VR2)</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VR2,"P")</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VR2,"REP")</f>
@@ -1327,18 +1330,21 @@
       <c r="DG2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VR3)</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VR3,"P")</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VR3,"REP")</f>
@@ -1671,18 +1677,21 @@
       <c r="DG3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -2015,18 +2024,21 @@
       <c r="DG4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2359,18 +2371,21 @@
       <c r="DG5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="4"/>
@@ -2703,18 +2718,21 @@
       <c r="DG6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH6" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -3047,18 +3065,21 @@
       <c r="DG7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -3391,18 +3412,21 @@
       <c r="DG8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3735,18 +3759,21 @@
       <c r="DG9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -4079,18 +4106,21 @@
       <c r="DG10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4423,8 +4453,11 @@
       <c r="DG11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4585,13 +4618,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4619,7 +4652,7 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="8"/>
@@ -4928,18 +4961,21 @@
       <c r="DG13" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="DH13" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="14" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -5272,18 +5308,21 @@
       <c r="DG14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -5616,18 +5655,21 @@
       <c r="DG15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" si="4"/>
@@ -5960,8 +6002,11 @@
       <c r="DG16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH16" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="17" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -6292,14 +6337,15 @@
       <c r="DE17" s="4"/>
       <c r="DF17" s="4"/>
       <c r="DG17" s="4"/>
+      <c r="DH17" s="4"/>
     </row>
-    <row r="18" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
@@ -6327,7 +6373,7 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="8"/>
@@ -6636,18 +6682,21 @@
       <c r="DG18" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="DH18" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -6980,18 +7029,21 @@
       <c r="DG19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -7324,8 +7376,11 @@
       <c r="DG20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7571,17 +7626,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VR22)</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VR22,"P")</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -7914,8 +7969,11 @@
       <c r="DG22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -8217,17 +8275,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -8560,8 +8618,11 @@
       <c r="DG24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -8894,14 +8955,15 @@
       <c r="DE25" s="4"/>
       <c r="DF25" s="4"/>
       <c r="DG25" s="4"/>
+      <c r="DH25" s="4"/>
     </row>
-    <row r="26" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
@@ -8913,7 +8975,7 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="1"/>
@@ -9238,18 +9300,21 @@
       <c r="DG26" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="DH26" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VR27)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VR27,"P")</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VR27,"REP")</f>
@@ -9552,18 +9617,21 @@
       <c r="DG27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -9800,18 +9868,21 @@
       <c r="DG28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -10048,18 +10119,21 @@
       <c r="DG29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30" si="20">COUNTA(K30:VR30)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ref="C30" si="21">COUNTIF(K30:VR30,"P")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30" si="22">COUNTIF(K30:VR30,"REP")</f>
@@ -10131,18 +10205,21 @@
       <c r="DG30" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DH30" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ref="B31" si="29">COUNTA(K31:VR31)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ref="C31" si="30">COUNTIF(K31:VR31,"P")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" ref="D31" si="31">COUNTIF(K31:VR31,"REP")</f>
@@ -10176,6 +10253,9 @@
         <v>7</v>
       </c>
       <c r="DG31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DH31" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94DEDD1-E9A9-0242-8CC3-077826CAA32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8391E2-BC5A-E04E-A137-7A01E1B5EFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="48">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -637,11 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DH31"/>
+  <dimension ref="A1:DI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DJ28" sqref="DJ28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DK27" sqref="DK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,7 +649,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:113" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,18 +986,21 @@
       <c r="DH1" s="3">
         <v>46050</v>
       </c>
+      <c r="DI1" s="3">
+        <v>46052</v>
+      </c>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VR2)</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VR2,"P")</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VR2,"REP")</f>
@@ -1333,14 +1336,17 @@
       <c r="DH2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VR3)</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VR3,"P")</f>
@@ -1364,7 +1370,7 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VV3,"R")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I26" si="7">COUNTIF(K3:VW3,"RH")</f>
@@ -1680,18 +1686,21 @@
       <c r="DH3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -2027,18 +2036,21 @@
       <c r="DH4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2374,14 +2386,17 @@
       <c r="DH5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -2397,7 +2412,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VT6,"B")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2721,18 +2736,21 @@
       <c r="DH6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -3068,18 +3086,21 @@
       <c r="DH7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -3415,18 +3436,21 @@
       <c r="DH8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3762,18 +3786,21 @@
       <c r="DH9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -4109,14 +4136,17 @@
       <c r="DH10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
@@ -4132,7 +4162,7 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="5"/>
@@ -4456,8 +4486,11 @@
       <c r="DH11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4618,13 +4651,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4652,7 +4685,7 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="8"/>
@@ -4964,18 +4997,21 @@
       <c r="DH13" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="DI13" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="14" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -5311,18 +5347,21 @@
       <c r="DH14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -5658,8 +5697,11 @@
       <c r="DH15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -6005,8 +6047,9 @@
       <c r="DH16" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI16" s="4"/>
     </row>
-    <row r="17" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -6338,14 +6381,15 @@
       <c r="DF17" s="4"/>
       <c r="DG17" s="4"/>
       <c r="DH17" s="4"/>
+      <c r="DI17" s="4"/>
     </row>
-    <row r="18" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
@@ -6361,7 +6405,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="5"/>
@@ -6685,18 +6729,21 @@
       <c r="DH18" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="DI18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -7032,18 +7079,21 @@
       <c r="DH19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -7379,8 +7429,11 @@
       <c r="DH20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7626,17 +7679,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VR22)</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VR22,"P")</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -7972,8 +8025,11 @@
       <c r="DH22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -8275,17 +8331,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -8621,8 +8677,11 @@
       <c r="DH24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -8956,14 +9015,15 @@
       <c r="DF25" s="4"/>
       <c r="DG25" s="4"/>
       <c r="DH25" s="4"/>
+      <c r="DI25" s="4"/>
     </row>
-    <row r="26" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
@@ -8975,7 +9035,7 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="1"/>
@@ -9303,18 +9363,21 @@
       <c r="DH26" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="DI26" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VR27)</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VR27,"P")</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VR27,"REP")</f>
@@ -9620,18 +9683,21 @@
       <c r="DH27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -9871,18 +9937,21 @@
       <c r="DH28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -10122,18 +10191,21 @@
       <c r="DH29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30" si="20">COUNTA(K30:VR30)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ref="C30" si="21">COUNTIF(K30:VR30,"P")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30" si="22">COUNTIF(K30:VR30,"REP")</f>
@@ -10208,18 +10280,21 @@
       <c r="DH30" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DI30" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ref="B31" si="29">COUNTA(K31:VR31)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ref="C31" si="30">COUNTIF(K31:VR31,"P")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" ref="D31" si="31">COUNTIF(K31:VR31,"REP")</f>
@@ -10256,6 +10331,9 @@
         <v>7</v>
       </c>
       <c r="DH31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DI31" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8391E2-BC5A-E04E-A137-7A01E1B5EFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73B2B97-D2F0-BF41-A0E9-97E4E267F6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="48">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -637,11 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DI31"/>
+  <dimension ref="A1:DJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DK27" sqref="DK27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DM25" sqref="DM25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,7 +649,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:114" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,18 +989,21 @@
       <c r="DI1" s="3">
         <v>46052</v>
       </c>
+      <c r="DJ1" s="3">
+        <v>46056</v>
+      </c>
     </row>
-    <row r="2" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VR2)</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VR2,"P")</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VR2,"REP")</f>
@@ -1339,18 +1342,21 @@
       <c r="DI2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DJ2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VR3)</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VR3,"P")</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VR3,"REP")</f>
@@ -1689,18 +1695,21 @@
       <c r="DI3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="DJ3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -2039,18 +2048,21 @@
       <c r="DI4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DJ4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2389,14 +2401,17 @@
       <c r="DI5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DJ5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -2412,7 +2427,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VT6,"B")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2739,18 +2754,21 @@
       <c r="DI6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DJ6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -3089,18 +3107,21 @@
       <c r="DI7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DJ7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -3439,18 +3460,21 @@
       <c r="DI8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DJ8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3789,18 +3813,21 @@
       <c r="DI9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DJ9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -4139,18 +4166,21 @@
       <c r="DI10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DJ10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4489,8 +4519,11 @@
       <c r="DI11" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DJ11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4651,13 +4684,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4685,7 +4718,7 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="8"/>
@@ -5000,18 +5033,21 @@
       <c r="DI13" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="DJ13" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="14" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -5350,18 +5386,21 @@
       <c r="DI14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DJ14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -5700,8 +5739,11 @@
       <c r="DI15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DJ15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -6048,8 +6090,9 @@
         <v>7</v>
       </c>
       <c r="DI16" s="4"/>
+      <c r="DJ16" s="4"/>
     </row>
-    <row r="17" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -6382,18 +6425,19 @@
       <c r="DG17" s="4"/>
       <c r="DH17" s="4"/>
       <c r="DI17" s="4"/>
+      <c r="DJ17" s="4"/>
     </row>
-    <row r="18" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -6732,18 +6776,21 @@
       <c r="DI18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DJ18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -7082,14 +7129,17 @@
       <c r="DI19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DJ19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
@@ -7105,7 +7155,7 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="5"/>
@@ -7432,8 +7482,11 @@
       <c r="DI20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DJ20" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="21" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7679,17 +7732,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VR22)</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VR22,"P")</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -8028,8 +8081,11 @@
       <c r="DI22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DJ22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -8331,17 +8387,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -8680,8 +8736,11 @@
       <c r="DI24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DJ24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -9016,18 +9075,19 @@
       <c r="DG25" s="4"/>
       <c r="DH25" s="4"/>
       <c r="DI25" s="4"/>
+      <c r="DJ25" s="4"/>
     </row>
-    <row r="26" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -9366,18 +9426,21 @@
       <c r="DI26" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="DJ26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VR27)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VR27,"P")</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VR27,"REP")</f>
@@ -9686,18 +9749,21 @@
       <c r="DI27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DJ27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -9940,18 +10006,21 @@
       <c r="DI28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DJ28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -10194,18 +10263,21 @@
       <c r="DI29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DJ29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30" si="20">COUNTA(K30:VR30)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ref="C30" si="21">COUNTIF(K30:VR30,"P")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30" si="22">COUNTIF(K30:VR30,"REP")</f>
@@ -10283,18 +10355,21 @@
       <c r="DI30" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DJ30" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ref="B31" si="29">COUNTA(K31:VR31)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ref="C31" si="30">COUNTIF(K31:VR31,"P")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" ref="D31" si="31">COUNTIF(K31:VR31,"REP")</f>
@@ -10334,6 +10409,9 @@
         <v>7</v>
       </c>
       <c r="DI31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DJ31" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73B2B97-D2F0-BF41-A0E9-97E4E267F6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096C37C5-9860-4F4D-9861-1082418F1A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="48">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -637,11 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DJ31"/>
+  <dimension ref="A1:DK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DM25" sqref="DM25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DN19" sqref="DN19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,7 +649,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:115" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,18 +992,21 @@
       <c r="DJ1" s="3">
         <v>46056</v>
       </c>
+      <c r="DK1" s="3">
+        <v>46057</v>
+      </c>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VR2)</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VR2,"P")</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VR2,"REP")</f>
@@ -1345,18 +1348,21 @@
       <c r="DJ2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VR3)</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VR3,"P")</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VR3,"REP")</f>
@@ -1698,18 +1704,21 @@
       <c r="DJ3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -2051,18 +2060,21 @@
       <c r="DJ4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2404,14 +2416,17 @@
       <c r="DJ5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -2427,7 +2442,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VT6,"B")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2757,18 +2772,21 @@
       <c r="DJ6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DK6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -3110,18 +3128,21 @@
       <c r="DJ7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -3463,18 +3484,21 @@
       <c r="DJ8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3816,18 +3840,21 @@
       <c r="DJ9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -4169,18 +4196,21 @@
       <c r="DJ10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4522,8 +4552,11 @@
       <c r="DJ11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4684,17 +4717,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="4"/>
@@ -5036,18 +5069,21 @@
       <c r="DJ13" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="DK13" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -5389,18 +5425,21 @@
       <c r="DJ14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -5742,8 +5781,11 @@
       <c r="DJ15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -6091,8 +6133,9 @@
       </c>
       <c r="DI16" s="4"/>
       <c r="DJ16" s="4"/>
+      <c r="DK16" s="4"/>
     </row>
-    <row r="17" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -6426,18 +6469,19 @@
       <c r="DH17" s="4"/>
       <c r="DI17" s="4"/>
       <c r="DJ17" s="4"/>
+      <c r="DK17" s="4"/>
     </row>
-    <row r="18" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -6779,18 +6823,21 @@
       <c r="DJ18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -7132,18 +7179,21 @@
       <c r="DJ19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -7485,8 +7535,11 @@
       <c r="DJ20" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DK20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7732,17 +7785,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VR22)</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VR22,"P")</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -8084,8 +8137,11 @@
       <c r="DJ22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -8387,17 +8443,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -8739,8 +8795,11 @@
       <c r="DJ24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -9076,18 +9135,19 @@
       <c r="DH25" s="4"/>
       <c r="DI25" s="4"/>
       <c r="DJ25" s="4"/>
+      <c r="DK25" s="4"/>
     </row>
-    <row r="26" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -9429,18 +9489,21 @@
       <c r="DJ26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VR27)</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VR27,"P")</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VR27,"REP")</f>
@@ -9752,18 +9815,21 @@
       <c r="DJ27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -10009,18 +10075,21 @@
       <c r="DJ28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -10266,18 +10335,21 @@
       <c r="DJ29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30" si="20">COUNTA(K30:VR30)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ref="C30" si="21">COUNTIF(K30:VR30,"P")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30" si="22">COUNTIF(K30:VR30,"REP")</f>
@@ -10358,18 +10430,21 @@
       <c r="DJ30" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DK30" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ref="B31" si="29">COUNTA(K31:VR31)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ref="C31" si="30">COUNTIF(K31:VR31,"P")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" ref="D31" si="31">COUNTIF(K31:VR31,"REP")</f>
@@ -10412,6 +10487,9 @@
         <v>7</v>
       </c>
       <c r="DJ31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DK31" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096C37C5-9860-4F4D-9861-1082418F1A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E292D0-E766-C84C-A740-277AE61D5816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="48">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -637,11 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DK31"/>
+  <dimension ref="A1:DM31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DN19" sqref="DN19"/>
+      <pane xSplit="1" topLeftCell="DL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DO18" sqref="DO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,7 +649,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:115" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:117" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,18 +995,24 @@
       <c r="DK1" s="3">
         <v>46057</v>
       </c>
+      <c r="DL1" s="3">
+        <v>46058</v>
+      </c>
+      <c r="DM1" s="3">
+        <v>46059</v>
+      </c>
     </row>
-    <row r="2" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VR2)</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VR2,"P")</f>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VR2,"REP")</f>
@@ -1351,18 +1357,24 @@
       <c r="DK2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VR3)</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VR3,"P")</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VR3,"REP")</f>
@@ -1382,7 +1394,7 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VV3,"R")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I26" si="7">COUNTIF(K3:VW3,"RH")</f>
@@ -1707,18 +1719,24 @@
       <c r="DK3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM3" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -2063,18 +2081,24 @@
       <c r="DK4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2419,14 +2443,20 @@
       <c r="DK5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -2442,7 +2472,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VT6,"B")</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2775,18 +2805,24 @@
       <c r="DK6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DL6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DM6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -3131,18 +3167,24 @@
       <c r="DK7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -3487,18 +3529,24 @@
       <c r="DK8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3843,18 +3891,24 @@
       <c r="DK9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -4199,18 +4253,24 @@
       <c r="DK10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4555,8 +4615,14 @@
       <c r="DK11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4717,21 +4783,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
@@ -5072,18 +5138,24 @@
       <c r="DK13" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM13" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="14" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -5428,18 +5500,24 @@
       <c r="DK14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -5784,8 +5862,14 @@
       <c r="DK15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -6134,8 +6218,10 @@
       <c r="DI16" s="4"/>
       <c r="DJ16" s="4"/>
       <c r="DK16" s="4"/>
+      <c r="DL16" s="4"/>
+      <c r="DM16" s="4"/>
     </row>
-    <row r="17" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -6470,14 +6556,16 @@
       <c r="DI17" s="4"/>
       <c r="DJ17" s="4"/>
       <c r="DK17" s="4"/>
+      <c r="DL17" s="4"/>
+      <c r="DM17" s="4"/>
     </row>
-    <row r="18" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
@@ -6493,7 +6581,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="5"/>
@@ -6826,18 +6914,24 @@
       <c r="DK18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DM18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -7182,18 +7276,24 @@
       <c r="DK19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -7538,8 +7638,14 @@
       <c r="DK20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7785,17 +7891,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VR22)</f>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VR22,"P")</f>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -8140,8 +8246,14 @@
       <c r="DK22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -8443,17 +8555,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -8798,8 +8910,14 @@
       <c r="DK24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -9136,18 +9254,20 @@
       <c r="DI25" s="4"/>
       <c r="DJ25" s="4"/>
       <c r="DK25" s="4"/>
+      <c r="DL25" s="4"/>
+      <c r="DM25" s="4"/>
     </row>
-    <row r="26" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -9492,18 +9612,24 @@
       <c r="DK26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VR27)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VR27,"P")</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VR27,"REP")</f>
@@ -9818,18 +9944,24 @@
       <c r="DK27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -10078,18 +10210,24 @@
       <c r="DK28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -10338,18 +10476,24 @@
       <c r="DK29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30" si="20">COUNTA(K30:VR30)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ref="C30" si="21">COUNTIF(K30:VR30,"P")</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30" si="22">COUNTIF(K30:VR30,"REP")</f>
@@ -10433,18 +10577,24 @@
       <c r="DK30" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DL30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM30" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ref="B31" si="29">COUNTA(K31:VR31)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ref="C31" si="30">COUNTIF(K31:VR31,"P")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" ref="D31" si="31">COUNTIF(K31:VR31,"REP")</f>
@@ -10490,6 +10640,12 @@
         <v>7</v>
       </c>
       <c r="DK31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DL31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM31" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E292D0-E766-C84C-A740-277AE61D5816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B454A70-EAA9-FC4C-9B8B-D5279B7214B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="49">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Mehdi Boussaid</t>
+  </si>
+  <si>
+    <t>Nathanael Beta</t>
   </si>
 </sst>
 </file>
@@ -637,11 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DM31"/>
+  <dimension ref="A1:DM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DO18" sqref="DO18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DO29" sqref="DO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10649,8 +10652,61 @@
         <v>7</v>
       </c>
     </row>
+    <row r="32" spans="1:117" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" ref="B32" si="38">COUNTA(K32:VR32)</f>
+        <v>4</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" ref="C32" si="39">COUNTIF(K32:VR32,"P")</f>
+        <v>4</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" ref="D32" si="40">COUNTIF(K32:VR32,"REP")</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" ref="E32" si="41">COUNTIF(K32:VS32,"A")</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" ref="F32" si="42">COUNTIF(K32:VT32,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" ref="G32" si="43">COUNTIF(K32:VU32,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" ref="H32" si="44">COUNTIF(K32:VV32,"R")</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" ref="I32" si="45">COUNTIF(K32:VW32,"RH")</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" ref="J32" si="46">COUNTIF(K32:VW32,"S")</f>
+        <v>0</v>
+      </c>
+      <c r="DJ32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DK32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DL32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM32" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A21:A31">
+  <conditionalFormatting sqref="A21:A32">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B454A70-EAA9-FC4C-9B8B-D5279B7214B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B76A71-B94B-F842-833A-130431996884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -179,10 +179,10 @@
     <t>Theo Owono</t>
   </si>
   <si>
-    <t>Mehdi Boussaid</t>
+    <t>Nathanael Beta</t>
   </si>
   <si>
-    <t>Nathanael Beta</t>
+    <t xml:space="preserve">Mehdi Boussaid </t>
   </si>
 </sst>
 </file>
@@ -10589,7 +10589,7 @@
     </row>
     <row r="31" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ref="B31" si="29">COUNTA(K31:VR31)</f>
@@ -10654,7 +10654,7 @@
     </row>
     <row r="32" spans="1:117" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" ref="B32" si="38">COUNTA(K32:VR32)</f>
@@ -10706,7 +10706,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A21:A32">
+  <conditionalFormatting sqref="A21:A30 A32">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B76A71-B94B-F842-833A-130431996884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509010E6-741A-404E-A1F1-E1FFFF56DC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="49">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -640,11 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DM32"/>
+  <dimension ref="A1:DN32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DO29" sqref="DO29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DP28" sqref="DP28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,7 +652,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:117" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:118" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,18 +1004,21 @@
       <c r="DM1" s="3">
         <v>46059</v>
       </c>
+      <c r="DN1" s="3">
+        <v>46063</v>
+      </c>
     </row>
-    <row r="2" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VR2)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VR2,"P")</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VR2,"REP")</f>
@@ -1366,18 +1369,21 @@
       <c r="DM2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VR3)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VR3,"P")</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VR3,"REP")</f>
@@ -1728,18 +1734,21 @@
       <c r="DM3" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="DN3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -2090,18 +2099,21 @@
       <c r="DM4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2452,14 +2464,17 @@
       <c r="DM5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -2475,7 +2490,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VT6,"B")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2814,18 +2829,21 @@
       <c r="DM6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DN6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -3176,18 +3194,21 @@
       <c r="DM7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -3538,18 +3559,21 @@
       <c r="DM8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3900,18 +3924,21 @@
       <c r="DM9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -4262,18 +4289,21 @@
       <c r="DM10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4624,8 +4654,11 @@
       <c r="DM11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4786,17 +4819,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="4"/>
@@ -5147,18 +5180,21 @@
       <c r="DM13" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="DN13" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -5509,18 +5545,21 @@
       <c r="DM14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -5871,8 +5910,11 @@
       <c r="DM15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -6223,8 +6265,9 @@
       <c r="DK16" s="4"/>
       <c r="DL16" s="4"/>
       <c r="DM16" s="4"/>
+      <c r="DN16" s="4"/>
     </row>
-    <row r="17" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -6561,14 +6604,15 @@
       <c r="DK17" s="4"/>
       <c r="DL17" s="4"/>
       <c r="DM17" s="4"/>
+      <c r="DN17" s="4"/>
     </row>
-    <row r="18" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
@@ -6584,7 +6628,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="5"/>
@@ -6923,14 +6967,17 @@
       <c r="DM18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DN18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
@@ -6950,7 +6997,7 @@
       </c>
       <c r="G19" s="4">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="6"/>
@@ -7285,18 +7332,21 @@
       <c r="DM19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN19" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="20" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -7647,8 +7697,11 @@
       <c r="DM20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7894,17 +7947,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VR22)</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VR22,"P")</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -8255,8 +8308,11 @@
       <c r="DM22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -8558,13 +8614,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
@@ -8580,7 +8636,7 @@
       </c>
       <c r="F24" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="5"/>
@@ -8919,8 +8975,11 @@
       <c r="DM24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN24" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="25" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -9259,18 +9318,19 @@
       <c r="DK25" s="4"/>
       <c r="DL25" s="4"/>
       <c r="DM25" s="4"/>
+      <c r="DN25" s="4"/>
     </row>
-    <row r="26" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -9621,18 +9681,21 @@
       <c r="DM26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VR27)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VR27,"P")</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VR27,"REP")</f>
@@ -9953,18 +10016,21 @@
       <c r="DM27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -10219,18 +10285,21 @@
       <c r="DM28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -10485,18 +10554,21 @@
       <c r="DM29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30" si="20">COUNTA(K30:VR30)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ref="C30" si="21">COUNTIF(K30:VR30,"P")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30" si="22">COUNTIF(K30:VR30,"REP")</f>
@@ -10586,18 +10658,21 @@
       <c r="DM30" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN30" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ref="B31" si="29">COUNTA(K31:VR31)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ref="C31" si="30">COUNTIF(K31:VR31,"P")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" ref="D31" si="31">COUNTIF(K31:VR31,"REP")</f>
@@ -10651,18 +10726,21 @@
       <c r="DM31" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DN31" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="32" spans="1:117" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" ref="B32" si="38">COUNTA(K32:VR32)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" ref="C32" si="39">COUNTIF(K32:VR32,"P")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" ref="D32" si="40">COUNTIF(K32:VR32,"REP")</f>
@@ -10702,6 +10780,9 @@
         <v>7</v>
       </c>
       <c r="DM32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DN32" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509010E6-741A-404E-A1F1-E1FFFF56DC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D400B8A6-A5A0-7342-91BA-BE2F9249D06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="49">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -640,11 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DN32"/>
+  <dimension ref="A1:DP32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DP28" sqref="DP28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="DO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DR22" sqref="DR22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,7 +652,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:120" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,18 +1007,24 @@
       <c r="DN1" s="3">
         <v>46063</v>
       </c>
+      <c r="DO1" s="3">
+        <v>46064</v>
+      </c>
+      <c r="DP1" s="3">
+        <v>46065</v>
+      </c>
     </row>
-    <row r="2" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VR2)</f>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VR2,"P")</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VR2,"REP")</f>
@@ -1372,18 +1378,24 @@
       <c r="DN2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VR3)</f>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VR3,"P")</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VR3,"REP")</f>
@@ -1399,7 +1411,7 @@
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G26" si="5">COUNTIF(K3:VU3,"M")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VV3,"R")</f>
@@ -1737,18 +1749,24 @@
       <c r="DN3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP3" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -2102,18 +2120,24 @@
       <c r="DN4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2467,14 +2491,20 @@
       <c r="DN5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -2490,7 +2520,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VT6,"B")</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2832,18 +2862,24 @@
       <c r="DN6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DO6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DP6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -3197,18 +3233,24 @@
       <c r="DN7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="4"/>
@@ -3224,7 +3266,7 @@
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="6"/>
@@ -3562,18 +3604,24 @@
       <c r="DN8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="DP8" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3927,18 +3975,24 @@
       <c r="DN9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -4292,18 +4346,24 @@
       <c r="DN10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4657,8 +4717,14 @@
       <c r="DN11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4819,13 +4885,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4833,7 +4899,7 @@
       </c>
       <c r="D13" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
@@ -4853,7 +4919,7 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="8"/>
@@ -5183,18 +5249,24 @@
       <c r="DN13" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="DP13" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -5548,18 +5620,24 @@
       <c r="DN14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -5913,8 +5991,14 @@
       <c r="DN15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -6266,8 +6350,10 @@
       <c r="DL16" s="4"/>
       <c r="DM16" s="4"/>
       <c r="DN16" s="4"/>
+      <c r="DO16" s="4"/>
+      <c r="DP16" s="4"/>
     </row>
-    <row r="17" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -6605,14 +6691,16 @@
       <c r="DL17" s="4"/>
       <c r="DM17" s="4"/>
       <c r="DN17" s="4"/>
+      <c r="DO17" s="4"/>
+      <c r="DP17" s="4"/>
     </row>
-    <row r="18" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
@@ -6628,7 +6716,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="5"/>
@@ -6970,18 +7058,24 @@
       <c r="DN18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DO18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DP18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -7335,18 +7429,24 @@
       <c r="DN19" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="DO19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -7358,7 +7458,7 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="5"/>
@@ -7700,8 +7800,14 @@
       <c r="DN20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DP20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -7947,17 +8053,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VR22)</f>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VR22,"P")</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -7969,7 +8075,7 @@
       </c>
       <c r="F22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="5"/>
@@ -8311,8 +8417,14 @@
       <c r="DN22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DP22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -8614,17 +8726,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -8978,8 +9090,14 @@
       <c r="DN24" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DO24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -9319,18 +9437,20 @@
       <c r="DL25" s="4"/>
       <c r="DM25" s="4"/>
       <c r="DN25" s="4"/>
+      <c r="DO25" s="4"/>
+      <c r="DP25" s="4"/>
     </row>
-    <row r="26" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -9684,18 +9804,24 @@
       <c r="DN26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VR27)</f>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VR27,"P")</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VR27,"REP")</f>
@@ -10019,18 +10145,24 @@
       <c r="DN27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -10288,18 +10420,24 @@
       <c r="DN28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -10557,18 +10695,24 @@
       <c r="DN29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30" si="20">COUNTA(K30:VR30)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ref="C30" si="21">COUNTIF(K30:VR30,"P")</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30" si="22">COUNTIF(K30:VR30,"REP")</f>
@@ -10661,18 +10805,24 @@
       <c r="DN30" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP30" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ref="B31" si="29">COUNTA(K31:VR31)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ref="C31" si="30">COUNTIF(K31:VR31,"P")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" ref="D31" si="31">COUNTIF(K31:VR31,"REP")</f>
@@ -10729,18 +10879,24 @@
       <c r="DN31" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DO31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP31" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="32" spans="1:118" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" ref="B32" si="38">COUNTA(K32:VR32)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" ref="C32" si="39">COUNTIF(K32:VR32,"P")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" ref="D32" si="40">COUNTIF(K32:VR32,"REP")</f>
@@ -10783,6 +10939,12 @@
         <v>7</v>
       </c>
       <c r="DN32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DO32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP32" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D400B8A6-A5A0-7342-91BA-BE2F9249D06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E413F5-E038-4D4F-9055-F50D901C65F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="49">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -640,11 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DP32"/>
+  <dimension ref="A1:DQ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DR22" sqref="DR22"/>
+      <pane xSplit="1" topLeftCell="DP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DT8" sqref="DT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,7 +652,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:120" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:121" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,18 +1013,21 @@
       <c r="DP1" s="3">
         <v>46065</v>
       </c>
+      <c r="DQ1" s="3">
+        <v>46066</v>
+      </c>
     </row>
-    <row r="2" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VR2)</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VR2,"P")</f>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VR2,"REP")</f>
@@ -1384,14 +1387,17 @@
       <c r="DP2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VR3)</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VR3,"P")</f>
@@ -1411,7 +1417,7 @@
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G26" si="5">COUNTIF(K3:VU3,"M")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H26" si="6">COUNTIF(K3:VV3,"R")</f>
@@ -1755,18 +1761,21 @@
       <c r="DP3" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="DQ3" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -2126,18 +2135,21 @@
       <c r="DP4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2497,14 +2509,17 @@
       <c r="DP5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -2520,7 +2535,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VT6,"B")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2868,18 +2883,21 @@
       <c r="DP6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DQ6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -3239,14 +3257,17 @@
       <c r="DP7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -3270,7 +3291,7 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="7"/>
@@ -3610,18 +3631,21 @@
       <c r="DP8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ8" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -3981,18 +4005,21 @@
       <c r="DP9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -4352,18 +4379,21 @@
       <c r="DP10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4723,8 +4753,11 @@
       <c r="DP11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4885,13 +4918,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4919,7 +4952,7 @@
       </c>
       <c r="I13" s="4">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="8"/>
@@ -5255,18 +5288,21 @@
       <c r="DP13" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="DQ13" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="14" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -5626,18 +5662,21 @@
       <c r="DP14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -5997,8 +6036,11 @@
       <c r="DP15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -6352,8 +6394,9 @@
       <c r="DN16" s="4"/>
       <c r="DO16" s="4"/>
       <c r="DP16" s="4"/>
+      <c r="DQ16" s="4"/>
     </row>
-    <row r="17" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -6693,14 +6736,15 @@
       <c r="DN17" s="4"/>
       <c r="DO17" s="4"/>
       <c r="DP17" s="4"/>
+      <c r="DQ17" s="4"/>
     </row>
-    <row r="18" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
@@ -6716,7 +6760,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="5"/>
@@ -7064,18 +7108,21 @@
       <c r="DP18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DQ18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="19" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -7435,18 +7482,21 @@
       <c r="DP19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -7806,8 +7856,11 @@
       <c r="DP20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -8053,17 +8106,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VR22)</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VR22,"P")</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -8423,8 +8476,11 @@
       <c r="DP22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -8726,17 +8782,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -9096,8 +9152,11 @@
       <c r="DP24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -9439,18 +9498,19 @@
       <c r="DN25" s="4"/>
       <c r="DO25" s="4"/>
       <c r="DP25" s="4"/>
+      <c r="DQ25" s="4"/>
     </row>
-    <row r="26" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -9810,18 +9870,21 @@
       <c r="DP26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VR27)</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VR27,"P")</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VR27,"REP")</f>
@@ -10151,18 +10214,21 @@
       <c r="DP27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -10426,18 +10492,21 @@
       <c r="DP28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -10701,18 +10770,21 @@
       <c r="DP29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30" si="20">COUNTA(K30:VR30)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ref="C30" si="21">COUNTIF(K30:VR30,"P")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30" si="22">COUNTIF(K30:VR30,"REP")</f>
@@ -10811,18 +10883,21 @@
       <c r="DP30" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ30" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ref="B31" si="29">COUNTA(K31:VR31)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ref="C31" si="30">COUNTIF(K31:VR31,"P")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" ref="D31" si="31">COUNTIF(K31:VR31,"REP")</f>
@@ -10885,18 +10960,21 @@
       <c r="DP31" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DQ31" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="32" spans="1:120" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" ref="B32" si="38">COUNTA(K32:VR32)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" ref="C32" si="39">COUNTIF(K32:VR32,"P")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" ref="D32" si="40">COUNTIF(K32:VR32,"REP")</f>
@@ -10945,6 +11023,9 @@
         <v>7</v>
       </c>
       <c r="DP32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DQ32" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E413F5-E038-4D4F-9055-F50D901C65F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2511EE-CC5D-6741-8C57-2D07C99543DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2932" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="49">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -640,11 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DQ32"/>
+  <dimension ref="A1:DR32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DT8" sqref="DT8"/>
+      <pane xSplit="1" topLeftCell="DQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DT29" sqref="DT29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,7 +652,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:122" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,18 +1016,21 @@
       <c r="DQ1" s="3">
         <v>46066</v>
       </c>
+      <c r="DR1" s="3">
+        <v>46070</v>
+      </c>
     </row>
-    <row r="2" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VR2)</f>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VR2,"P")</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VR2,"REP")</f>
@@ -1390,18 +1393,21 @@
       <c r="DQ2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VR3)</f>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VR3,"P")</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VR3,"REP")</f>
@@ -1764,18 +1770,21 @@
       <c r="DQ3" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="DR3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -2138,18 +2147,21 @@
       <c r="DQ4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2512,14 +2524,17 @@
       <c r="DQ5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -2535,7 +2550,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VT6,"B")</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2886,18 +2901,21 @@
       <c r="DQ6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DR6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -3260,14 +3278,17 @@
       <c r="DQ7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -3283,7 +3304,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -3634,18 +3655,21 @@
       <c r="DQ8" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="DR8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -4008,14 +4032,17 @@
       <c r="DQ9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
@@ -4031,7 +4058,7 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="5"/>
@@ -4382,18 +4409,21 @@
       <c r="DQ10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4756,8 +4786,11 @@
       <c r="DQ11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4918,13 +4951,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4940,7 +4973,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -5291,18 +5324,21 @@
       <c r="DQ13" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="DR13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -5665,18 +5701,21 @@
       <c r="DQ14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -6039,8 +6078,11 @@
       <c r="DQ15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -6395,8 +6437,9 @@
       <c r="DO16" s="4"/>
       <c r="DP16" s="4"/>
       <c r="DQ16" s="4"/>
+      <c r="DR16" s="4"/>
     </row>
-    <row r="17" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -6737,14 +6780,15 @@
       <c r="DO17" s="4"/>
       <c r="DP17" s="4"/>
       <c r="DQ17" s="4"/>
+      <c r="DR17" s="4"/>
     </row>
-    <row r="18" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
@@ -6772,7 +6816,7 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="8"/>
@@ -7111,18 +7155,21 @@
       <c r="DQ18" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DR18" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -7485,18 +7532,21 @@
       <c r="DQ19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -7859,8 +7909,11 @@
       <c r="DQ20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -8106,17 +8159,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VR22)</f>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VR22,"P")</f>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -8479,8 +8532,11 @@
       <c r="DQ22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -8782,17 +8838,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -9155,8 +9211,11 @@
       <c r="DQ24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -9499,18 +9558,19 @@
       <c r="DO25" s="4"/>
       <c r="DP25" s="4"/>
       <c r="DQ25" s="4"/>
+      <c r="DR25" s="4"/>
     </row>
-    <row r="26" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -9873,18 +9933,21 @@
       <c r="DQ26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VR27)</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VR27,"P")</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VR27,"REP")</f>
@@ -10217,18 +10280,21 @@
       <c r="DQ27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -10495,18 +10561,21 @@
       <c r="DQ28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -10773,18 +10842,21 @@
       <c r="DQ29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30" si="20">COUNTA(K30:VR30)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ref="C30" si="21">COUNTIF(K30:VR30,"P")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30" si="22">COUNTIF(K30:VR30,"REP")</f>
@@ -10886,18 +10958,21 @@
       <c r="DQ30" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR30" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ref="B31" si="29">COUNTA(K31:VR31)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ref="C31" si="30">COUNTIF(K31:VR31,"P")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" ref="D31" si="31">COUNTIF(K31:VR31,"REP")</f>
@@ -10963,18 +11038,21 @@
       <c r="DQ31" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DR31" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="32" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" ref="B32" si="38">COUNTA(K32:VR32)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" ref="C32" si="39">COUNTIF(K32:VR32,"P")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" ref="D32" si="40">COUNTIF(K32:VR32,"REP")</f>
@@ -11026,6 +11104,9 @@
         <v>7</v>
       </c>
       <c r="DQ32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DR32" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2511EE-CC5D-6741-8C57-2D07C99543DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114DCD3E-4E12-B342-84AD-F1A1370AAFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="49">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -640,11 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DR32"/>
+  <dimension ref="A1:DS32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DT29" sqref="DT29"/>
+      <pane xSplit="1" topLeftCell="DP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DT11" sqref="DT11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,7 +652,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:123" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,18 +1019,21 @@
       <c r="DR1" s="3">
         <v>46070</v>
       </c>
+      <c r="DS1" s="3">
+        <v>46071</v>
+      </c>
     </row>
-    <row r="2" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VR2)</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VR2,"P")</f>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VR2,"REP")</f>
@@ -1396,18 +1399,21 @@
       <c r="DR2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VR3)</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VR3,"P")</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VR3,"REP")</f>
@@ -1773,18 +1779,21 @@
       <c r="DR3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -2150,18 +2159,21 @@
       <c r="DR4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2527,14 +2539,17 @@
       <c r="DR5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -2550,7 +2565,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VT6,"B")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2904,18 +2919,21 @@
       <c r="DR6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DS6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -3281,14 +3299,17 @@
       <c r="DR7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -3304,7 +3325,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -3658,18 +3679,21 @@
       <c r="DR8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DS8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -4035,18 +4059,21 @@
       <c r="DR9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -4412,18 +4439,21 @@
       <c r="DR10" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DS10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4789,8 +4819,11 @@
       <c r="DR11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4951,13 +4984,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -4973,7 +5006,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -5327,18 +5360,21 @@
       <c r="DR13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DS13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -5704,18 +5740,21 @@
       <c r="DR14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -6081,8 +6120,11 @@
       <c r="DR15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -6438,8 +6480,9 @@
       <c r="DP16" s="4"/>
       <c r="DQ16" s="4"/>
       <c r="DR16" s="4"/>
+      <c r="DS16" s="4"/>
     </row>
-    <row r="17" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -6781,18 +6824,19 @@
       <c r="DP17" s="4"/>
       <c r="DQ17" s="4"/>
       <c r="DR17" s="4"/>
+      <c r="DS17" s="4"/>
     </row>
-    <row r="18" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -7158,18 +7202,21 @@
       <c r="DR18" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="DS18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -7535,18 +7582,21 @@
       <c r="DR19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -7912,8 +7962,11 @@
       <c r="DR20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -8159,17 +8212,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VR22)</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VR22,"P")</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -8535,8 +8588,11 @@
       <c r="DR22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -8838,17 +8894,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -9214,8 +9270,11 @@
       <c r="DR24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -9559,18 +9618,19 @@
       <c r="DP25" s="4"/>
       <c r="DQ25" s="4"/>
       <c r="DR25" s="4"/>
+      <c r="DS25" s="4"/>
     </row>
-    <row r="26" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -9936,18 +9996,21 @@
       <c r="DR26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VR27)</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VR27,"P")</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VR27,"REP")</f>
@@ -10283,18 +10346,21 @@
       <c r="DR27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -10564,18 +10630,21 @@
       <c r="DR28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -10845,18 +10914,21 @@
       <c r="DR29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30" si="20">COUNTA(K30:VR30)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ref="C30" si="21">COUNTIF(K30:VR30,"P")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30" si="22">COUNTIF(K30:VR30,"REP")</f>
@@ -10961,18 +11033,21 @@
       <c r="DR30" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS30" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ref="B31" si="29">COUNTA(K31:VR31)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ref="C31" si="30">COUNTIF(K31:VR31,"P")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" ref="D31" si="31">COUNTIF(K31:VR31,"REP")</f>
@@ -11041,18 +11116,21 @@
       <c r="DR31" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DS31" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="32" spans="1:122" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:123" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" ref="B32" si="38">COUNTA(K32:VR32)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" ref="C32" si="39">COUNTIF(K32:VR32,"P")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" ref="D32" si="40">COUNTIF(K32:VR32,"REP")</f>
@@ -11107,6 +11185,9 @@
         <v>7</v>
       </c>
       <c r="DR32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DS32" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114DCD3E-4E12-B342-84AD-F1A1370AAFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E03D76-B492-6E44-8904-40DA6C4E1093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="49">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -640,11 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DS32"/>
+  <dimension ref="A1:DT32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DT11" sqref="DT11"/>
+      <pane xSplit="1" topLeftCell="DS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DV28" sqref="DV28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,7 +652,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:123" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:124" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,18 +1022,21 @@
       <c r="DS1" s="3">
         <v>46071</v>
       </c>
+      <c r="DT1" s="3">
+        <v>46072</v>
+      </c>
     </row>
-    <row r="2" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VR2)</f>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VR2,"P")</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VR2,"REP")</f>
@@ -1402,18 +1405,21 @@
       <c r="DS2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VR3)</f>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VR3,"P")</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VR3,"REP")</f>
@@ -1782,18 +1788,21 @@
       <c r="DS3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -2162,18 +2171,21 @@
       <c r="DS4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2542,14 +2554,17 @@
       <c r="DS5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -2565,7 +2580,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VT6,"B")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2922,18 +2937,21 @@
       <c r="DS6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DT6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -3302,14 +3320,17 @@
       <c r="DS7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -3325,7 +3346,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -3682,18 +3703,21 @@
       <c r="DS8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DT8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -4062,18 +4086,21 @@
       <c r="DS9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -4442,18 +4469,21 @@
       <c r="DS10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4822,8 +4852,11 @@
       <c r="DS11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -4984,13 +5017,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -5006,7 +5039,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -5363,18 +5396,21 @@
       <c r="DS13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DT13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -5743,18 +5779,21 @@
       <c r="DS14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -6123,8 +6162,11 @@
       <c r="DS15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -6481,8 +6523,9 @@
       <c r="DQ16" s="4"/>
       <c r="DR16" s="4"/>
       <c r="DS16" s="4"/>
+      <c r="DT16" s="4"/>
     </row>
-    <row r="17" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -6825,14 +6868,15 @@
       <c r="DQ17" s="4"/>
       <c r="DR17" s="4"/>
       <c r="DS17" s="4"/>
+      <c r="DT17" s="4"/>
     </row>
-    <row r="18" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
@@ -6840,7 +6884,7 @@
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
@@ -7205,18 +7249,21 @@
       <c r="DS18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT18" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="19" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -7585,18 +7632,21 @@
       <c r="DS19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -7965,8 +8015,11 @@
       <c r="DS20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -8212,13 +8265,13 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VR22)</f>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VR22,"P")</f>
@@ -8226,7 +8279,7 @@
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
@@ -8591,8 +8644,11 @@
       <c r="DS22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT22" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="23" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -8894,17 +8950,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -9273,8 +9329,11 @@
       <c r="DS24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -9619,18 +9678,19 @@
       <c r="DQ25" s="4"/>
       <c r="DR25" s="4"/>
       <c r="DS25" s="4"/>
+      <c r="DT25" s="4"/>
     </row>
-    <row r="26" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -9999,18 +10059,21 @@
       <c r="DS26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VR27)</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VR27,"P")</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VR27,"REP")</f>
@@ -10349,18 +10412,21 @@
       <c r="DS27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -10633,18 +10699,21 @@
       <c r="DS28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -10917,18 +10986,21 @@
       <c r="DS29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30" si="20">COUNTA(K30:VR30)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ref="C30" si="21">COUNTIF(K30:VR30,"P")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30" si="22">COUNTIF(K30:VR30,"REP")</f>
@@ -11036,14 +11108,17 @@
       <c r="DS30" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT30" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ref="B31" si="29">COUNTA(K31:VR31)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ref="C31" si="30">COUNTIF(K31:VR31,"P")</f>
@@ -11051,7 +11126,7 @@
       </c>
       <c r="D31" s="6">
         <f t="shared" ref="D31" si="31">COUNTIF(K31:VR31,"REP")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" ref="E31" si="32">COUNTIF(K31:VS31,"A")</f>
@@ -11119,18 +11194,21 @@
       <c r="DS31" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DT31" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="32" spans="1:123" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:124" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" ref="B32" si="38">COUNTA(K32:VR32)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" ref="C32" si="39">COUNTIF(K32:VR32,"P")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" ref="D32" si="40">COUNTIF(K32:VR32,"REP")</f>
@@ -11188,6 +11266,9 @@
         <v>7</v>
       </c>
       <c r="DS32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DT32" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E03D76-B492-6E44-8904-40DA6C4E1093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA089895-891C-E84C-9B2B-739398FA4B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3032" uniqueCount="49">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -640,11 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DT32"/>
+  <dimension ref="A1:DU32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DV28" sqref="DV28"/>
+      <pane xSplit="1" topLeftCell="DT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DW29" sqref="DW29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,7 +652,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:124" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:125" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,18 +1025,21 @@
       <c r="DT1" s="3">
         <v>46072</v>
       </c>
+      <c r="DU1" s="3">
+        <v>46073</v>
+      </c>
     </row>
-    <row r="2" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VR2)</f>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VR2,"P")</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VR2,"REP")</f>
@@ -1408,18 +1411,21 @@
       <c r="DT2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VR3)</f>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VR3,"P")</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VR3,"REP")</f>
@@ -1791,18 +1797,21 @@
       <c r="DT3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -2174,18 +2183,21 @@
       <c r="DT4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2557,14 +2569,17 @@
       <c r="DT5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -2580,7 +2595,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VT6,"B")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2940,18 +2955,21 @@
       <c r="DT6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DU6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -3323,14 +3341,17 @@
       <c r="DT7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -3346,7 +3367,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -3706,18 +3727,21 @@
       <c r="DT8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DU8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -4089,18 +4113,21 @@
       <c r="DT9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -4472,18 +4499,21 @@
       <c r="DT10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4855,8 +4885,11 @@
       <c r="DT11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -5017,13 +5050,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -5039,7 +5072,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -5399,18 +5432,21 @@
       <c r="DT13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DU13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -5782,18 +5818,21 @@
       <c r="DT14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -6165,8 +6204,11 @@
       <c r="DT15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -6524,8 +6566,9 @@
       <c r="DR16" s="4"/>
       <c r="DS16" s="4"/>
       <c r="DT16" s="4"/>
+      <c r="DU16" s="4"/>
     </row>
-    <row r="17" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -6869,14 +6912,15 @@
       <c r="DR17" s="4"/>
       <c r="DS17" s="4"/>
       <c r="DT17" s="4"/>
+      <c r="DU17" s="4"/>
     </row>
-    <row r="18" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
@@ -6904,7 +6948,7 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="8"/>
@@ -7252,18 +7296,21 @@
       <c r="DT18" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="DU18" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="19" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -7635,18 +7682,21 @@
       <c r="DT19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -8018,8 +8068,11 @@
       <c r="DT20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -8265,17 +8318,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VR22)</f>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VR22,"P")</f>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -8647,8 +8700,11 @@
       <c r="DT22" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="DU22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -8950,17 +9006,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -9332,8 +9388,11 @@
       <c r="DT24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -9679,18 +9738,19 @@
       <c r="DR25" s="4"/>
       <c r="DS25" s="4"/>
       <c r="DT25" s="4"/>
+      <c r="DU25" s="4"/>
     </row>
-    <row r="26" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -10062,18 +10122,21 @@
       <c r="DT26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VR27)</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VR27,"P")</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VR27,"REP")</f>
@@ -10415,18 +10478,21 @@
       <c r="DT27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -10702,18 +10768,21 @@
       <c r="DT28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -10989,18 +11058,21 @@
       <c r="DT29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30" si="20">COUNTA(K30:VR30)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ref="C30" si="21">COUNTIF(K30:VR30,"P")</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30" si="22">COUNTIF(K30:VR30,"REP")</f>
@@ -11111,18 +11183,21 @@
       <c r="DT30" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DU30" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ref="B31" si="29">COUNTA(K31:VR31)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ref="C31" si="30">COUNTIF(K31:VR31,"P")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" ref="D31" si="31">COUNTIF(K31:VR31,"REP")</f>
@@ -11197,18 +11272,21 @@
       <c r="DT31" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="DU31" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="32" spans="1:124" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" ref="B32" si="38">COUNTA(K32:VR32)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" ref="C32" si="39">COUNTIF(K32:VR32,"P")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" ref="D32" si="40">COUNTIF(K32:VR32,"REP")</f>
@@ -11269,6 +11347,9 @@
         <v>7</v>
       </c>
       <c r="DT32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DU32" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA089895-891C-E84C-9B2B-739398FA4B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B414F0D-6A47-EE45-94BD-12FB1A9AA755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3032" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="49">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -640,11 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DU32"/>
+  <dimension ref="A1:DV32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DW29" sqref="DW29"/>
+      <pane xSplit="1" topLeftCell="DV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DV30" sqref="DV30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,7 +652,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:126" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,18 +1028,21 @@
       <c r="DU1" s="3">
         <v>46073</v>
       </c>
+      <c r="DV1" s="3">
+        <v>46076</v>
+      </c>
     </row>
-    <row r="2" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VR2)</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VR2,"P")</f>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VR2,"REP")</f>
@@ -1414,18 +1417,21 @@
       <c r="DU2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VR3)</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VR3,"P")</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VR3,"REP")</f>
@@ -1800,18 +1806,21 @@
       <c r="DU3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -2186,18 +2195,21 @@
       <c r="DU4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2572,14 +2584,17 @@
       <c r="DU5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -2595,7 +2610,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VT6,"B")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2958,18 +2973,21 @@
       <c r="DU6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DV6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -3344,14 +3362,17 @@
       <c r="DU7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -3367,7 +3388,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -3730,18 +3751,21 @@
       <c r="DU8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DV8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -4116,18 +4140,21 @@
       <c r="DU9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -4502,18 +4529,21 @@
       <c r="DU10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4888,8 +4918,11 @@
       <c r="DU11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -5050,13 +5083,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -5072,7 +5105,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -5435,18 +5468,21 @@
       <c r="DU13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DV13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -5821,18 +5857,21 @@
       <c r="DU14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -6207,8 +6246,11 @@
       <c r="DU15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -6567,8 +6609,9 @@
       <c r="DS16" s="4"/>
       <c r="DT16" s="4"/>
       <c r="DU16" s="4"/>
+      <c r="DV16" s="4"/>
     </row>
-    <row r="17" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -6913,18 +6956,19 @@
       <c r="DS17" s="4"/>
       <c r="DT17" s="4"/>
       <c r="DU17" s="4"/>
+      <c r="DV17" s="4"/>
     </row>
-    <row r="18" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -7299,18 +7343,21 @@
       <c r="DU18" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="DV18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -7685,18 +7732,21 @@
       <c r="DU19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -8071,8 +8121,11 @@
       <c r="DU20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -8318,17 +8371,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VR22)</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VR22,"P")</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -8703,8 +8756,11 @@
       <c r="DU22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -9006,17 +9062,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -9391,8 +9447,11 @@
       <c r="DU24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -9739,18 +9798,19 @@
       <c r="DS25" s="4"/>
       <c r="DT25" s="4"/>
       <c r="DU25" s="4"/>
+      <c r="DV25" s="4"/>
     </row>
-    <row r="26" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -10125,18 +10185,21 @@
       <c r="DU26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VR27)</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VR27,"P")</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VR27,"REP")</f>
@@ -10481,14 +10544,17 @@
       <c r="DU27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
@@ -10500,7 +10566,7 @@
       </c>
       <c r="E28" s="4">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="15"/>
@@ -10771,18 +10837,21 @@
       <c r="DU28" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV28" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="29" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -11061,18 +11130,21 @@
       <c r="DU29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30" si="20">COUNTA(K30:VR30)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ref="C30" si="21">COUNTIF(K30:VR30,"P")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30" si="22">COUNTIF(K30:VR30,"REP")</f>
@@ -11186,18 +11258,21 @@
       <c r="DU30" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV30" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ref="B31" si="29">COUNTA(K31:VR31)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ref="C31" si="30">COUNTIF(K31:VR31,"P")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" ref="D31" si="31">COUNTIF(K31:VR31,"REP")</f>
@@ -11275,18 +11350,21 @@
       <c r="DU31" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DV31" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="32" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:126" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" ref="B32" si="38">COUNTA(K32:VR32)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" ref="C32" si="39">COUNTIF(K32:VR32,"P")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" ref="D32" si="40">COUNTIF(K32:VR32,"REP")</f>
@@ -11350,6 +11428,9 @@
         <v>7</v>
       </c>
       <c r="DU32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DV32" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/Présences.xlsx
+++ b/data/Présences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophergallo/Desktop/Application perso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B414F0D-6A47-EE45-94BD-12FB1A9AA755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D218F6B1-6E39-9C42-88F2-FED1B27174BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{2EF0EE96-8EE0-C649-8161-B8679CB6F342}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3057" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="49">
   <si>
     <t>Nom du joueur</t>
   </si>
@@ -640,11 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0866E353-69CC-CA42-AE0E-F860DC308060}">
-  <dimension ref="A1:DV32"/>
+  <dimension ref="A1:DX32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="DV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DV30" sqref="DV30"/>
+      <pane xSplit="1" topLeftCell="DT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="EC9" sqref="EC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,7 +652,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:128" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,18 +1031,24 @@
       <c r="DV1" s="3">
         <v>46076</v>
       </c>
+      <c r="DW1" s="3">
+        <v>46077</v>
+      </c>
+      <c r="DX1" s="3">
+        <v>46078</v>
+      </c>
     </row>
-    <row r="2" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
         <f>COUNTA(K2:VR2)</f>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C2" s="4">
         <f>COUNTIF(K2:VR2,"P")</f>
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D2" s="6">
         <f>COUNTIF(K2:VR2,"REP")</f>
@@ -1420,18 +1426,24 @@
       <c r="DV2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" ref="B3:B21" si="2">COUNTA(K3:VR3)</f>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C21" si="3">COUNTIF(K3:VR3,"P")</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D26" si="4">COUNTIF(K3:VR3,"REP")</f>
@@ -1439,7 +1451,7 @@
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="1"/>
@@ -1809,18 +1821,24 @@
       <c r="DV3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX3" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="4"/>
@@ -2198,18 +2216,24 @@
       <c r="DV4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX4" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="3"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="4"/>
@@ -2587,14 +2611,20 @@
       <c r="DV5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
@@ -2610,7 +2640,7 @@
       </c>
       <c r="F6" s="4">
         <f>COUNTIF(K6:VT6,"B")</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="5"/>
@@ -2976,18 +3006,24 @@
       <c r="DV6" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DW6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DX6" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="4"/>
@@ -3365,14 +3401,20 @@
       <c r="DV7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="3"/>
@@ -3388,7 +3430,7 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="5"/>
@@ -3754,18 +3796,24 @@
       <c r="DV8" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DW8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DX8" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="4"/>
@@ -4143,18 +4191,24 @@
       <c r="DV9" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="4"/>
@@ -4532,18 +4586,24 @@
       <c r="DV10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX10" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="3"/>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="4"/>
@@ -4921,8 +4981,14 @@
       <c r="DV11" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX11" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -5083,13 +5149,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="3"/>
@@ -5105,7 +5171,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
@@ -5471,18 +5537,24 @@
       <c r="DV13" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="DW13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="DX13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="14" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="4"/>
@@ -5860,18 +5932,24 @@
       <c r="DV14" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX14" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="3"/>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="4"/>
@@ -6249,8 +6327,14 @@
       <c r="DV15" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX15" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -6610,8 +6694,10 @@
       <c r="DT16" s="4"/>
       <c r="DU16" s="4"/>
       <c r="DV16" s="4"/>
+      <c r="DW16" s="4"/>
+      <c r="DX16" s="4"/>
     </row>
-    <row r="17" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -6957,18 +7043,20 @@
       <c r="DT17" s="4"/>
       <c r="DU17" s="4"/>
       <c r="DV17" s="4"/>
+      <c r="DW17" s="4"/>
+      <c r="DX17" s="4"/>
     </row>
-    <row r="18" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="4"/>
@@ -7346,18 +7434,24 @@
       <c r="DV18" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX18" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="19" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="4"/>
@@ -7735,18 +7829,24 @@
       <c r="DV19" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX19" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="20" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="4"/>
@@ -8124,8 +8224,14 @@
       <c r="DV20" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX20" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -8371,17 +8477,17 @@
       <c r="CR21" s="4"/>
       <c r="CS21" s="4"/>
     </row>
-    <row r="22" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" ref="B22:B26" si="9">COUNTA(K22:VR22)</f>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ref="C22:C26" si="10">COUNTIF(K22:VR22,"P")</f>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
@@ -8759,8 +8865,14 @@
       <c r="DV22" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX22" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -9062,17 +9174,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="9"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="10"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="4"/>
@@ -9450,8 +9562,14 @@
       <c r="DV24" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX24" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -9799,18 +9917,20 @@
       <c r="DT25" s="4"/>
       <c r="DU25" s="4"/>
       <c r="DV25" s="4"/>
+      <c r="DW25" s="4"/>
+      <c r="DX25" s="4"/>
     </row>
-    <row r="26" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="9"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="10"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="4"/>
@@ -10188,18 +10308,24 @@
       <c r="DV26" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX26" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" ref="B27:B29" si="11">COUNTA(K27:VR27)</f>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ref="C27:C29" si="12">COUNTIF(K27:VR27,"P")</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" ref="D27:D29" si="13">COUNTIF(K27:VR27,"REP")</f>
@@ -10547,18 +10673,24 @@
       <c r="DV27" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX27" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="11"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="12"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="13"/>
@@ -10840,18 +10972,24 @@
       <c r="DV28" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="DW28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX28" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="11"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="12"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="13"/>
@@ -11133,18 +11271,24 @@
       <c r="DV29" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX29" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" ref="B30" si="20">COUNTA(K30:VR30)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" ref="C30" si="21">COUNTIF(K30:VR30,"P")</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" ref="D30" si="22">COUNTIF(K30:VR30,"REP")</f>
@@ -11261,18 +11405,24 @@
       <c r="DV30" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX30" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="31" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" ref="B31" si="29">COUNTA(K31:VR31)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ref="C31" si="30">COUNTIF(K31:VR31,"P")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" ref="D31" si="31">COUNTIF(K31:VR31,"REP")</f>
@@ -11353,18 +11503,24 @@
       <c r="DV31" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="DW31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX31" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="32" spans="1:126" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" ref="B32" si="38">COUNTA(K32:VR32)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" ref="C32" si="39">COUNTIF(K32:VR32,"P")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" ref="D32" si="40">COUNTIF(K32:VR32,"REP")</f>
@@ -11431,6 +11587,12 @@
         <v>7</v>
       </c>
       <c r="DV32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DW32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX32" s="4" t="s">
         <v>7</v>
       </c>
     </row>
